--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5981108</v>
+        <v>5980998</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>5.5</v>
+        <v>1.142</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M50">
-        <v>1.45</v>
+        <v>12</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>1.142</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="P50">
-        <v>1.333</v>
+        <v>15</v>
       </c>
       <c r="Q50">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R50">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5980998</v>
+        <v>5981108</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>5.5</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1.45</v>
+      </c>
+      <c r="N51">
+        <v>7</v>
+      </c>
+      <c r="O51">
+        <v>4.5</v>
+      </c>
+      <c r="P51">
+        <v>1.333</v>
+      </c>
+      <c r="Q51">
+        <v>1.5</v>
+      </c>
+      <c r="R51">
+        <v>1.825</v>
+      </c>
+      <c r="S51">
+        <v>1.975</v>
+      </c>
+      <c r="T51">
+        <v>2.5</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
         <v>2</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K51">
-        <v>1.142</v>
-      </c>
-      <c r="L51">
-        <v>6.5</v>
-      </c>
-      <c r="M51">
-        <v>12</v>
-      </c>
-      <c r="N51">
-        <v>1.142</v>
-      </c>
-      <c r="O51">
-        <v>7.5</v>
-      </c>
-      <c r="P51">
-        <v>15</v>
-      </c>
-      <c r="Q51">
-        <v>-2.5</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.75</v>
-      </c>
-      <c r="T51">
-        <v>3.5</v>
-      </c>
-      <c r="U51">
-        <v>2.05</v>
-      </c>
-      <c r="V51">
-        <v>1.75</v>
-      </c>
       <c r="W51">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981012</v>
+        <v>5981013</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N68">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.825</v>
+      </c>
+      <c r="AB68">
         <v>0</v>
       </c>
-      <c r="AA68">
+      <c r="AC68">
         <v>-0</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981013</v>
+        <v>5981012</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N69">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,13 +26800,13 @@
         <v>45214.625</v>
       </c>
       <c r="F296" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -26815,40 +26815,40 @@
         <v>47</v>
       </c>
       <c r="K296">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L296">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N296">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O296">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P296">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q296">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R296">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S296">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V296">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26857,16 +26857,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB296">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,13 +26889,13 @@
         <v>45214.625</v>
       </c>
       <c r="F297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G297" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I297">
         <v>6</v>
@@ -26904,40 +26904,40 @@
         <v>47</v>
       </c>
       <c r="K297">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L297">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M297">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N297">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O297">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P297">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q297">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R297">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S297">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T297">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,16 +26946,16 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB297">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,10 +26978,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G298" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -26993,40 +26993,40 @@
         <v>47</v>
       </c>
       <c r="K298">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L298">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M298">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N298">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O298">
+        <v>6.5</v>
+      </c>
+      <c r="P298">
+        <v>1.142</v>
+      </c>
+      <c r="Q298">
+        <v>2.25</v>
+      </c>
+      <c r="R298">
+        <v>1.95</v>
+      </c>
+      <c r="S298">
+        <v>1.85</v>
+      </c>
+      <c r="T298">
         <v>3.75</v>
       </c>
-      <c r="P298">
-        <v>1.666</v>
-      </c>
-      <c r="Q298">
-        <v>0.75</v>
-      </c>
-      <c r="R298">
-        <v>1.925</v>
-      </c>
-      <c r="S298">
-        <v>1.875</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
-      </c>
       <c r="U298">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V298">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,19 +27035,19 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z298">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA298">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,10 +27067,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G299" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27082,40 +27082,40 @@
         <v>47</v>
       </c>
       <c r="K299">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L299">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M299">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N299">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O299">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P299">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q299">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R299">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S299">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T299">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V299">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W299">
         <v>-1</v>
@@ -27124,19 +27124,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z299">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -28390,7 +28390,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28402,76 +28402,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G314" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
+        <v>3</v>
+      </c>
+      <c r="J314" t="s">
+        <v>47</v>
+      </c>
+      <c r="K314">
+        <v>23</v>
+      </c>
+      <c r="L314">
+        <v>13</v>
+      </c>
+      <c r="M314">
+        <v>1.03</v>
+      </c>
+      <c r="N314">
+        <v>29</v>
+      </c>
+      <c r="O314">
+        <v>12</v>
+      </c>
+      <c r="P314">
+        <v>1.055</v>
+      </c>
+      <c r="Q314">
+        <v>3</v>
+      </c>
+      <c r="R314">
+        <v>2</v>
+      </c>
+      <c r="S314">
+        <v>1.8</v>
+      </c>
+      <c r="T314">
+        <v>4</v>
+      </c>
+      <c r="U314">
+        <v>1.85</v>
+      </c>
+      <c r="V314">
+        <v>1.95</v>
+      </c>
+      <c r="W314">
+        <v>-1</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z314">
         <v>1</v>
       </c>
-      <c r="J314" t="s">
-        <v>49</v>
-      </c>
-      <c r="K314">
-        <v>2.1</v>
-      </c>
-      <c r="L314">
-        <v>3.5</v>
-      </c>
-      <c r="M314">
-        <v>2.875</v>
-      </c>
-      <c r="N314">
-        <v>1.7</v>
-      </c>
-      <c r="O314">
-        <v>3.75</v>
-      </c>
-      <c r="P314">
-        <v>4</v>
-      </c>
-      <c r="Q314">
-        <v>-0.75</v>
-      </c>
-      <c r="R314">
-        <v>1.95</v>
-      </c>
-      <c r="S314">
-        <v>1.85</v>
-      </c>
-      <c r="T314">
-        <v>3</v>
-      </c>
-      <c r="U314">
-        <v>1.925</v>
-      </c>
-      <c r="V314">
-        <v>1.875</v>
-      </c>
-      <c r="W314">
-        <v>-1</v>
-      </c>
-      <c r="X314">
-        <v>2.75</v>
-      </c>
-      <c r="Y314">
-        <v>-1</v>
-      </c>
-      <c r="Z314">
-        <v>-1</v>
-      </c>
       <c r="AA314">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC314">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28479,7 +28479,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28491,76 +28491,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G315" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H315">
         <v>1</v>
       </c>
       <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" t="s">
+        <v>49</v>
+      </c>
+      <c r="K315">
+        <v>2.1</v>
+      </c>
+      <c r="L315">
+        <v>3.5</v>
+      </c>
+      <c r="M315">
+        <v>2.875</v>
+      </c>
+      <c r="N315">
+        <v>1.7</v>
+      </c>
+      <c r="O315">
+        <v>3.75</v>
+      </c>
+      <c r="P315">
+        <v>4</v>
+      </c>
+      <c r="Q315">
+        <v>-0.75</v>
+      </c>
+      <c r="R315">
+        <v>1.95</v>
+      </c>
+      <c r="S315">
+        <v>1.85</v>
+      </c>
+      <c r="T315">
         <v>3</v>
       </c>
-      <c r="J315" t="s">
-        <v>47</v>
-      </c>
-      <c r="K315">
-        <v>23</v>
-      </c>
-      <c r="L315">
-        <v>13</v>
-      </c>
-      <c r="M315">
-        <v>1.03</v>
-      </c>
-      <c r="N315">
-        <v>29</v>
-      </c>
-      <c r="O315">
-        <v>12</v>
-      </c>
-      <c r="P315">
-        <v>1.055</v>
-      </c>
-      <c r="Q315">
-        <v>3</v>
-      </c>
-      <c r="R315">
-        <v>2</v>
-      </c>
-      <c r="S315">
-        <v>1.8</v>
-      </c>
-      <c r="T315">
-        <v>4</v>
-      </c>
       <c r="U315">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V315">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y315">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -34086,7 +34086,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34098,76 +34098,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F378" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G378" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H378">
+        <v>6</v>
+      </c>
+      <c r="I378">
         <v>0</v>
       </c>
-      <c r="I378">
-        <v>3</v>
-      </c>
       <c r="J378" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K378">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L378">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M378">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N378">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O378">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P378">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q378">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R378">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S378">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T378">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U378">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V378">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA378">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC378">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34175,7 +34175,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34187,76 +34187,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G379" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H379">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K379">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L379">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M379">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N379">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O379">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P379">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q379">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R379">
+        <v>1.95</v>
+      </c>
+      <c r="S379">
+        <v>1.85</v>
+      </c>
+      <c r="T379">
+        <v>3.25</v>
+      </c>
+      <c r="U379">
+        <v>1.95</v>
+      </c>
+      <c r="V379">
         <v>1.75</v>
       </c>
-      <c r="S379">
-        <v>2.05</v>
-      </c>
-      <c r="T379">
-        <v>3.75</v>
-      </c>
-      <c r="U379">
-        <v>1.9</v>
-      </c>
-      <c r="V379">
-        <v>1.9</v>
-      </c>
       <c r="W379">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z379">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB379">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC379">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34264,7 +34264,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34276,58 +34276,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F380" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G380" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380" t="s">
         <v>48</v>
       </c>
       <c r="K380">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L380">
+        <v>5.5</v>
+      </c>
+      <c r="M380">
         <v>7.5</v>
       </c>
-      <c r="M380">
-        <v>15</v>
-      </c>
       <c r="N380">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O380">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P380">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q380">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R380">
+        <v>1.975</v>
+      </c>
+      <c r="S380">
         <v>1.825</v>
       </c>
-      <c r="S380">
-        <v>1.975</v>
-      </c>
       <c r="T380">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U380">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V380">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W380">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34336,16 +34336,16 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA380">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC380">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34353,7 +34353,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34365,58 +34365,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F381" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G381" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H381">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J381" t="s">
         <v>48</v>
       </c>
       <c r="K381">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L381">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M381">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N381">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O381">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P381">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q381">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R381">
+        <v>1.825</v>
+      </c>
+      <c r="S381">
         <v>1.975</v>
       </c>
-      <c r="S381">
-        <v>1.825</v>
-      </c>
       <c r="T381">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U381">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V381">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W381">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34425,16 +34425,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA381">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB381">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC381">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G394" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H394">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I394">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J394" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K394">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L394">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M394">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N394">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O394">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P394">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q394">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R394">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S394">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T394">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U394">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V394">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA394">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -35688,7 +35688,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35700,73 +35700,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G396" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H396">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I396">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J396" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K396">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L396">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M396">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N396">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O396">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P396">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q396">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R396">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S396">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T396">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U396">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V396">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W396">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z396">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB396">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC396">
         <v>-1</v>
@@ -36044,7 +36044,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7645786</v>
+        <v>7645788</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36053,49 +36053,49 @@
         <v>28</v>
       </c>
       <c r="E400" s="2">
-        <v>45338.875</v>
+        <v>45339.625</v>
       </c>
       <c r="F400" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G400" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K400">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L400">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M400">
         <v>1.444</v>
       </c>
       <c r="N400">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O400">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P400">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q400">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R400">
+        <v>1.95</v>
+      </c>
+      <c r="S400">
+        <v>1.85</v>
+      </c>
+      <c r="T400">
+        <v>3.25</v>
+      </c>
+      <c r="U400">
         <v>1.975</v>
       </c>
-      <c r="S400">
+      <c r="V400">
         <v>1.825</v>
-      </c>
-      <c r="T400">
-        <v>3</v>
-      </c>
-      <c r="U400">
-        <v>1.85</v>
-      </c>
-      <c r="V400">
-        <v>1.95</v>
       </c>
       <c r="W400">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>7645788</v>
+        <v>7645790</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36127,49 +36127,49 @@
         <v>28</v>
       </c>
       <c r="E401" s="2">
-        <v>45339.625</v>
+        <v>45340.83333333334</v>
       </c>
       <c r="F401" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G401" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K401">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="L401">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M401">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="N401">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="O401">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P401">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="Q401">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R401">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S401">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T401">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U401">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V401">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W401">
         <v>0</v>
@@ -36192,7 +36192,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>7645790</v>
+        <v>7645715</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36201,49 +36201,49 @@
         <v>28</v>
       </c>
       <c r="E402" s="2">
-        <v>45340.83333333334</v>
+        <v>45341.00694444445</v>
       </c>
       <c r="F402" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G402" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K402">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="L402">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M402">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="N402">
+        <v>1.444</v>
+      </c>
+      <c r="O402">
         <v>4.5</v>
       </c>
-      <c r="O402">
-        <v>4</v>
-      </c>
       <c r="P402">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="Q402">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R402">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S402">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T402">
         <v>3</v>
       </c>
       <c r="U402">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V402">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W402">
         <v>0</v>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5980998</v>
+        <v>5981108</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50">
+        <v>5.5</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>1.45</v>
+      </c>
+      <c r="N50">
+        <v>7</v>
+      </c>
+      <c r="O50">
+        <v>4.5</v>
+      </c>
+      <c r="P50">
+        <v>1.333</v>
+      </c>
+      <c r="Q50">
+        <v>1.5</v>
+      </c>
+      <c r="R50">
+        <v>1.825</v>
+      </c>
+      <c r="S50">
+        <v>1.975</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>1.8</v>
+      </c>
+      <c r="V50">
         <v>2</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K50">
-        <v>1.142</v>
-      </c>
-      <c r="L50">
-        <v>6.5</v>
-      </c>
-      <c r="M50">
-        <v>12</v>
-      </c>
-      <c r="N50">
-        <v>1.142</v>
-      </c>
-      <c r="O50">
-        <v>7.5</v>
-      </c>
-      <c r="P50">
-        <v>15</v>
-      </c>
-      <c r="Q50">
-        <v>-2.5</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.75</v>
-      </c>
-      <c r="T50">
-        <v>3.5</v>
-      </c>
-      <c r="U50">
-        <v>2.05</v>
-      </c>
-      <c r="V50">
-        <v>1.75</v>
-      </c>
       <c r="W50">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5981108</v>
+        <v>5980998</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>5.5</v>
+        <v>1.142</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M51">
-        <v>1.45</v>
+        <v>12</v>
       </c>
       <c r="N51">
-        <v>7</v>
+        <v>1.142</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="P51">
-        <v>1.333</v>
+        <v>15</v>
       </c>
       <c r="Q51">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R51">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981013</v>
+        <v>5981012</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981012</v>
+        <v>5981013</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>0.825</v>
+      </c>
+      <c r="AB69">
         <v>0</v>
       </c>
-      <c r="AA69">
+      <c r="AC69">
         <v>-0</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
-      <c r="AC69">
-        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5981046</v>
+        <v>5981047</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
+        <v>2.8</v>
+      </c>
+      <c r="O98">
+        <v>3.5</v>
+      </c>
+      <c r="P98">
+        <v>2.15</v>
+      </c>
+      <c r="Q98">
+        <v>0.25</v>
+      </c>
+      <c r="R98">
         <v>1.85</v>
       </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>3.8</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.875</v>
-      </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>1.15</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.95</v>
+      </c>
+      <c r="AB98">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>0.875</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
       <c r="AC98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5981047</v>
+        <v>5981046</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
+        <v>1.4</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>7</v>
+      </c>
+      <c r="N99">
+        <v>1.85</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>3.8</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>1.925</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.375</v>
-      </c>
-      <c r="L99">
-        <v>3.4</v>
-      </c>
-      <c r="M99">
-        <v>2.5</v>
-      </c>
-      <c r="N99">
-        <v>2.8</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>2.15</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.85</v>
-      </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45137.625</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K193">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L193">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N193">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O193">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q193">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S193">
         <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U193">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
         <v>1.925</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45137.625</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K194">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L194">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M194">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N194">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P194">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q194">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R194">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
         <v>1.95</v>
       </c>
       <c r="T194">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V194">
         <v>1.925</v>
       </c>
       <c r="W194">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z194">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N220">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z220">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>2</v>
-      </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K221">
+        <v>2.375</v>
+      </c>
+      <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
+        <v>2.5</v>
+      </c>
+      <c r="N221">
+        <v>2.15</v>
+      </c>
+      <c r="O221">
         <v>3.5</v>
       </c>
-      <c r="L221">
-        <v>3.5</v>
-      </c>
-      <c r="M221">
-        <v>1.833</v>
-      </c>
-      <c r="N221">
-        <v>4.333</v>
-      </c>
-      <c r="O221">
-        <v>3.75</v>
-      </c>
       <c r="P221">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q221">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA221">
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
         <v>0.95</v>
-      </c>
-      <c r="AB221">
-        <v>-1</v>
-      </c>
-      <c r="AC221">
-        <v>0.825</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -24830,7 +24830,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24842,49 +24842,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G274" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H274">
+        <v>3</v>
+      </c>
+      <c r="I274">
         <v>0</v>
       </c>
-      <c r="I274">
+      <c r="J274" t="s">
+        <v>48</v>
+      </c>
+      <c r="K274">
+        <v>1.181</v>
+      </c>
+      <c r="L274">
+        <v>6</v>
+      </c>
+      <c r="M274">
+        <v>10</v>
+      </c>
+      <c r="N274">
+        <v>1.1</v>
+      </c>
+      <c r="O274">
+        <v>9</v>
+      </c>
+      <c r="P274">
+        <v>19</v>
+      </c>
+      <c r="Q274">
+        <v>-2.5</v>
+      </c>
+      <c r="R274">
+        <v>1.8</v>
+      </c>
+      <c r="S274">
         <v>2</v>
       </c>
-      <c r="J274" t="s">
-        <v>47</v>
-      </c>
-      <c r="K274">
-        <v>3</v>
-      </c>
-      <c r="L274">
-        <v>3.6</v>
-      </c>
-      <c r="M274">
-        <v>2</v>
-      </c>
-      <c r="N274">
-        <v>4</v>
-      </c>
-      <c r="O274">
-        <v>3.8</v>
-      </c>
-      <c r="P274">
-        <v>1.666</v>
-      </c>
-      <c r="Q274">
-        <v>0.75</v>
-      </c>
-      <c r="R274">
-        <v>1.925</v>
-      </c>
-      <c r="S274">
-        <v>1.875</v>
-      </c>
       <c r="T274">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U274">
         <v>1.8</v>
@@ -24893,19 +24893,19 @@
         <v>2</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA274">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,49 +24931,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G275" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275" t="s">
+        <v>47</v>
+      </c>
+      <c r="K275">
         <v>3</v>
       </c>
-      <c r="I275">
-        <v>0</v>
-      </c>
-      <c r="J275" t="s">
-        <v>48</v>
-      </c>
-      <c r="K275">
-        <v>1.181</v>
-      </c>
       <c r="L275">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M275">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N275">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O275">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P275">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q275">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R275">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S275">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T275">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U275">
         <v>1.8</v>
@@ -24982,19 +24982,19 @@
         <v>2</v>
       </c>
       <c r="W275">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z275">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,10 +26978,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G298" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -26993,40 +26993,40 @@
         <v>47</v>
       </c>
       <c r="K298">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L298">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M298">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N298">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O298">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P298">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q298">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R298">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S298">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T298">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U298">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V298">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,19 +27035,19 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z298">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,10 +27067,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G299" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27082,40 +27082,40 @@
         <v>47</v>
       </c>
       <c r="K299">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L299">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M299">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N299">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O299">
+        <v>6.5</v>
+      </c>
+      <c r="P299">
+        <v>1.142</v>
+      </c>
+      <c r="Q299">
+        <v>2.25</v>
+      </c>
+      <c r="R299">
+        <v>1.95</v>
+      </c>
+      <c r="S299">
+        <v>1.85</v>
+      </c>
+      <c r="T299">
         <v>3.75</v>
       </c>
-      <c r="P299">
-        <v>1.666</v>
-      </c>
-      <c r="Q299">
-        <v>0.75</v>
-      </c>
-      <c r="R299">
-        <v>1.925</v>
-      </c>
-      <c r="S299">
-        <v>1.875</v>
-      </c>
-      <c r="T299">
-        <v>2.75</v>
-      </c>
       <c r="U299">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V299">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W299">
         <v>-1</v>
@@ -27124,19 +27124,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z299">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA299">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -28390,7 +28390,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28402,76 +28402,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G314" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314" t="s">
+        <v>49</v>
+      </c>
+      <c r="K314">
+        <v>2.1</v>
+      </c>
+      <c r="L314">
+        <v>3.5</v>
+      </c>
+      <c r="M314">
+        <v>2.875</v>
+      </c>
+      <c r="N314">
+        <v>1.7</v>
+      </c>
+      <c r="O314">
+        <v>3.75</v>
+      </c>
+      <c r="P314">
+        <v>4</v>
+      </c>
+      <c r="Q314">
+        <v>-0.75</v>
+      </c>
+      <c r="R314">
+        <v>1.95</v>
+      </c>
+      <c r="S314">
+        <v>1.85</v>
+      </c>
+      <c r="T314">
         <v>3</v>
       </c>
-      <c r="J314" t="s">
-        <v>47</v>
-      </c>
-      <c r="K314">
-        <v>23</v>
-      </c>
-      <c r="L314">
-        <v>13</v>
-      </c>
-      <c r="M314">
-        <v>1.03</v>
-      </c>
-      <c r="N314">
-        <v>29</v>
-      </c>
-      <c r="O314">
-        <v>12</v>
-      </c>
-      <c r="P314">
-        <v>1.055</v>
-      </c>
-      <c r="Q314">
-        <v>3</v>
-      </c>
-      <c r="R314">
-        <v>2</v>
-      </c>
-      <c r="S314">
-        <v>1.8</v>
-      </c>
-      <c r="T314">
-        <v>4</v>
-      </c>
       <c r="U314">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V314">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W314">
         <v>-1</v>
       </c>
       <c r="X314">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y314">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28479,7 +28479,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28491,76 +28491,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G315" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H315">
         <v>1</v>
       </c>
       <c r="I315">
+        <v>3</v>
+      </c>
+      <c r="J315" t="s">
+        <v>47</v>
+      </c>
+      <c r="K315">
+        <v>23</v>
+      </c>
+      <c r="L315">
+        <v>13</v>
+      </c>
+      <c r="M315">
+        <v>1.03</v>
+      </c>
+      <c r="N315">
+        <v>29</v>
+      </c>
+      <c r="O315">
+        <v>12</v>
+      </c>
+      <c r="P315">
+        <v>1.055</v>
+      </c>
+      <c r="Q315">
+        <v>3</v>
+      </c>
+      <c r="R315">
+        <v>2</v>
+      </c>
+      <c r="S315">
+        <v>1.8</v>
+      </c>
+      <c r="T315">
+        <v>4</v>
+      </c>
+      <c r="U315">
+        <v>1.85</v>
+      </c>
+      <c r="V315">
+        <v>1.95</v>
+      </c>
+      <c r="W315">
+        <v>-1</v>
+      </c>
+      <c r="X315">
+        <v>-1</v>
+      </c>
+      <c r="Y315">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z315">
         <v>1</v>
       </c>
-      <c r="J315" t="s">
-        <v>49</v>
-      </c>
-      <c r="K315">
-        <v>2.1</v>
-      </c>
-      <c r="L315">
-        <v>3.5</v>
-      </c>
-      <c r="M315">
-        <v>2.875</v>
-      </c>
-      <c r="N315">
-        <v>1.7</v>
-      </c>
-      <c r="O315">
-        <v>3.75</v>
-      </c>
-      <c r="P315">
-        <v>4</v>
-      </c>
-      <c r="Q315">
-        <v>-0.75</v>
-      </c>
-      <c r="R315">
-        <v>1.95</v>
-      </c>
-      <c r="S315">
-        <v>1.85</v>
-      </c>
-      <c r="T315">
-        <v>3</v>
-      </c>
-      <c r="U315">
-        <v>1.925</v>
-      </c>
-      <c r="V315">
-        <v>1.875</v>
-      </c>
-      <c r="W315">
-        <v>-1</v>
-      </c>
-      <c r="X315">
-        <v>2.75</v>
-      </c>
-      <c r="Y315">
-        <v>-1</v>
-      </c>
-      <c r="Z315">
-        <v>-1</v>
-      </c>
       <c r="AA315">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC315">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -34086,7 +34086,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34098,76 +34098,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F378" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G378" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H378">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I378">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J378" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K378">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L378">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M378">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N378">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O378">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P378">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q378">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R378">
+        <v>1.95</v>
+      </c>
+      <c r="S378">
+        <v>1.85</v>
+      </c>
+      <c r="T378">
+        <v>3.25</v>
+      </c>
+      <c r="U378">
+        <v>1.95</v>
+      </c>
+      <c r="V378">
         <v>1.75</v>
       </c>
-      <c r="S378">
-        <v>2.05</v>
-      </c>
-      <c r="T378">
-        <v>3.75</v>
-      </c>
-      <c r="U378">
-        <v>1.9</v>
-      </c>
-      <c r="V378">
-        <v>1.9</v>
-      </c>
       <c r="W378">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z378">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB378">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34175,7 +34175,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34187,76 +34187,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G379" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H379">
+        <v>6</v>
+      </c>
+      <c r="I379">
         <v>0</v>
       </c>
-      <c r="I379">
-        <v>3</v>
-      </c>
       <c r="J379" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K379">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M379">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N379">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O379">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P379">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q379">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R379">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S379">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T379">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U379">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V379">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA379">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC379">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34798,7 +34798,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34810,49 +34810,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F386" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G386" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K386">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L386">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M386">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N386">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O386">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P386">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q386">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S386">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T386">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U386">
         <v>1.8</v>
@@ -34861,25 +34861,25 @@
         <v>2</v>
       </c>
       <c r="W386">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X386">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y386">
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA386">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB386">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC386">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34887,7 +34887,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34899,49 +34899,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F387" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G387" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H387">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K387">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L387">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M387">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N387">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O387">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P387">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q387">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R387">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S387">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T387">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U387">
         <v>1.8</v>
@@ -34950,25 +34950,25 @@
         <v>2</v>
       </c>
       <c r="W387">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y387">
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA387">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB387">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC387">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35777,7 +35777,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35789,55 +35789,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F397" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G397" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J397" t="s">
         <v>47</v>
       </c>
       <c r="K397">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L397">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M397">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N397">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O397">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P397">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q397">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R397">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S397">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T397">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U397">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V397">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W397">
         <v>-1</v>
@@ -35846,19 +35846,19 @@
         <v>-1</v>
       </c>
       <c r="Y397">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z397">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA397">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB397">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC397">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35866,7 +35866,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35878,56 +35878,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F398" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G398" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J398" t="s">
         <v>47</v>
       </c>
       <c r="K398">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L398">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M398">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N398">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O398">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P398">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q398">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R398">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S398">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T398">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U398">
+        <v>1.925</v>
+      </c>
+      <c r="V398">
         <v>1.775</v>
       </c>
-      <c r="V398">
-        <v>2.025</v>
-      </c>
       <c r="W398">
         <v>-1</v>
       </c>
@@ -35935,19 +35935,19 @@
         <v>-1</v>
       </c>
       <c r="Y398">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z398">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA398">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB398">
+        <v>-1</v>
+      </c>
+      <c r="AC398">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC398">
-        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36044,7 +36044,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7645788</v>
+        <v>7645790</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36053,49 +36053,49 @@
         <v>28</v>
       </c>
       <c r="E400" s="2">
-        <v>45339.625</v>
+        <v>45340.83333333334</v>
       </c>
       <c r="F400" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G400" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K400">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="L400">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M400">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="N400">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O400">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P400">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q400">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R400">
+        <v>1.85</v>
+      </c>
+      <c r="S400">
         <v>1.95</v>
       </c>
-      <c r="S400">
-        <v>1.85</v>
-      </c>
       <c r="T400">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U400">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V400">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W400">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>7645790</v>
+        <v>7645714</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36127,49 +36127,49 @@
         <v>28</v>
       </c>
       <c r="E401" s="2">
-        <v>45340.83333333334</v>
+        <v>45340.92083333333</v>
       </c>
       <c r="F401" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G401" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K401">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L401">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M401">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="N401">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O401">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P401">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="Q401">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R401">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S401">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T401">
         <v>3</v>
       </c>
       <c r="U401">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V401">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W401">
         <v>0</v>
@@ -36240,10 +36240,10 @@
         <v>3</v>
       </c>
       <c r="U402">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V402">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W402">
         <v>0</v>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC402"/>
+  <dimension ref="A1:AC404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5981108</v>
+        <v>5980998</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>5.5</v>
+        <v>1.142</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M50">
-        <v>1.45</v>
+        <v>12</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>1.142</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="P50">
-        <v>1.333</v>
+        <v>15</v>
       </c>
       <c r="Q50">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R50">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5980998</v>
+        <v>5981108</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>5.5</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1.45</v>
+      </c>
+      <c r="N51">
+        <v>7</v>
+      </c>
+      <c r="O51">
+        <v>4.5</v>
+      </c>
+      <c r="P51">
+        <v>1.333</v>
+      </c>
+      <c r="Q51">
+        <v>1.5</v>
+      </c>
+      <c r="R51">
+        <v>1.825</v>
+      </c>
+      <c r="S51">
+        <v>1.975</v>
+      </c>
+      <c r="T51">
+        <v>2.5</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
         <v>2</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K51">
-        <v>1.142</v>
-      </c>
-      <c r="L51">
-        <v>6.5</v>
-      </c>
-      <c r="M51">
-        <v>12</v>
-      </c>
-      <c r="N51">
-        <v>1.142</v>
-      </c>
-      <c r="O51">
-        <v>7.5</v>
-      </c>
-      <c r="P51">
-        <v>15</v>
-      </c>
-      <c r="Q51">
-        <v>-2.5</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.75</v>
-      </c>
-      <c r="T51">
-        <v>3.5</v>
-      </c>
-      <c r="U51">
-        <v>2.05</v>
-      </c>
-      <c r="V51">
-        <v>1.75</v>
-      </c>
       <c r="W51">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981012</v>
+        <v>5981013</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N68">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.825</v>
+      </c>
+      <c r="AB68">
         <v>0</v>
       </c>
-      <c r="AA68">
+      <c r="AC68">
         <v>-0</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981013</v>
+        <v>5981012</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N69">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5981055</v>
+        <v>5981054</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,76 +9801,76 @@
         <v>45018.83333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N105">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z105">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5981054</v>
+        <v>5981055</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45018.83333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106">
+        <v>1.5</v>
+      </c>
+      <c r="L106">
         <v>4</v>
       </c>
-      <c r="J106" t="s">
-        <v>47</v>
-      </c>
-      <c r="K106">
-        <v>3.4</v>
-      </c>
-      <c r="L106">
-        <v>3.5</v>
-      </c>
       <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>1.615</v>
+      </c>
+      <c r="O106">
+        <v>4</v>
+      </c>
+      <c r="P106">
+        <v>4.5</v>
+      </c>
+      <c r="Q106">
+        <v>-0.75</v>
+      </c>
+      <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
         <v>1.95</v>
       </c>
-      <c r="N106">
-        <v>3.25</v>
-      </c>
-      <c r="O106">
-        <v>3.5</v>
-      </c>
-      <c r="P106">
-        <v>2</v>
-      </c>
-      <c r="Q106">
-        <v>0.25</v>
-      </c>
-      <c r="R106">
-        <v>2.025</v>
-      </c>
-      <c r="S106">
-        <v>1.775</v>
-      </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA106">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5981070</v>
+        <v>5981069</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,40 +11136,40 @@
         <v>45039.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
         <v>1.75</v>
@@ -11178,19 +11178,19 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X120">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11202,10 +11202,10 @@
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5981069</v>
+        <v>5981070</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,40 +11225,40 @@
         <v>45039.83333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N121">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R121">
         <v>1.75</v>
@@ -11267,19 +11267,19 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11291,10 +11291,10 @@
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5981088</v>
+        <v>5981089</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>47</v>
       </c>
       <c r="K141">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N141">
+        <v>5.25</v>
+      </c>
+      <c r="O141">
         <v>4.2</v>
       </c>
-      <c r="O141">
-        <v>3.75</v>
-      </c>
       <c r="P141">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,19 +13062,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
+        <v>-0</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB141">
-        <v>0.875</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5981089</v>
+        <v>5981088</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,55 +13094,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>47</v>
       </c>
       <c r="K142">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="N142">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13151,19 +13151,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45137.625</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K193">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M193">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N193">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P193">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q193">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R193">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
         <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V193">
         <v>1.925</v>
       </c>
       <c r="W193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z193">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45137.625</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K194">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L194">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M194">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N194">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O194">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q194">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S194">
         <v>1.95</v>
       </c>
       <c r="T194">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U194">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
         <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
         <v>0</v>
       </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K220">
+        <v>2.375</v>
+      </c>
+      <c r="L220">
+        <v>3.4</v>
+      </c>
+      <c r="M220">
+        <v>2.5</v>
+      </c>
+      <c r="N220">
+        <v>2.15</v>
+      </c>
+      <c r="O220">
         <v>3.5</v>
       </c>
-      <c r="L220">
-        <v>3.5</v>
-      </c>
-      <c r="M220">
-        <v>1.833</v>
-      </c>
-      <c r="N220">
-        <v>4.333</v>
-      </c>
-      <c r="O220">
-        <v>3.75</v>
-      </c>
       <c r="P220">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q220">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA220">
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
         <v>0.95</v>
-      </c>
-      <c r="AB220">
-        <v>-1</v>
-      </c>
-      <c r="AC220">
-        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K221">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M221">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N221">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P221">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R221">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W221">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z221">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21460,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L236">
         <v>5</v>
       </c>
       <c r="M236">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N236">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O236">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P236">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q236">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W236">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA236">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,76 +21549,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K237">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L237">
         <v>5</v>
       </c>
       <c r="M237">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N237">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O237">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P237">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q237">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X237">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K266">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L266">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M266">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N266">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O266">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P266">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q266">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R266">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S266">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T266">
         <v>3.25</v>
       </c>
       <c r="U266">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V266">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W266">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB266">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24207,7 +24207,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24219,76 +24219,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F267" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K267">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M267">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N267">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O267">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P267">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q267">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R267">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S267">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T267">
         <v>3.25</v>
       </c>
       <c r="U267">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V267">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X267">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA267">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC267">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,13 +26800,13 @@
         <v>45214.625</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G296" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -26815,40 +26815,40 @@
         <v>47</v>
       </c>
       <c r="K296">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L296">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M296">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N296">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O296">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P296">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q296">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R296">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S296">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T296">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V296">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26857,16 +26857,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB296">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,13 +26889,13 @@
         <v>45214.625</v>
       </c>
       <c r="F297" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I297">
         <v>6</v>
@@ -26904,40 +26904,40 @@
         <v>47</v>
       </c>
       <c r="K297">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L297">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M297">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N297">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O297">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P297">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q297">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S297">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,16 +26946,16 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB297">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,10 +26978,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G298" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -26993,40 +26993,40 @@
         <v>47</v>
       </c>
       <c r="K298">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L298">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M298">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N298">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O298">
+        <v>6.5</v>
+      </c>
+      <c r="P298">
+        <v>1.142</v>
+      </c>
+      <c r="Q298">
+        <v>2.25</v>
+      </c>
+      <c r="R298">
+        <v>1.95</v>
+      </c>
+      <c r="S298">
+        <v>1.85</v>
+      </c>
+      <c r="T298">
         <v>3.75</v>
       </c>
-      <c r="P298">
-        <v>1.666</v>
-      </c>
-      <c r="Q298">
-        <v>0.75</v>
-      </c>
-      <c r="R298">
-        <v>1.925</v>
-      </c>
-      <c r="S298">
-        <v>1.875</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
-      </c>
       <c r="U298">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V298">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,19 +27035,19 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z298">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA298">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,10 +27067,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G299" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27082,40 +27082,40 @@
         <v>47</v>
       </c>
       <c r="K299">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L299">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M299">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N299">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O299">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P299">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q299">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R299">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S299">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T299">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V299">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W299">
         <v>-1</v>
@@ -27124,19 +27124,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z299">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G394" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H394">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I394">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J394" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K394">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L394">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M394">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N394">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O394">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P394">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q394">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R394">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S394">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T394">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U394">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V394">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W394">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z394">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB394">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -35599,7 +35599,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,73 +35611,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F395" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G395" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I395">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J395" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K395">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L395">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M395">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N395">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O395">
+        <v>17</v>
+      </c>
+      <c r="P395">
+        <v>41</v>
+      </c>
+      <c r="Q395">
+        <v>-3.75</v>
+      </c>
+      <c r="R395">
+        <v>1.775</v>
+      </c>
+      <c r="S395">
+        <v>1.925</v>
+      </c>
+      <c r="T395">
         <v>4.75</v>
       </c>
-      <c r="P395">
-        <v>1.4</v>
-      </c>
-      <c r="Q395">
-        <v>1.25</v>
-      </c>
-      <c r="R395">
-        <v>1.925</v>
-      </c>
-      <c r="S395">
-        <v>1.875</v>
-      </c>
-      <c r="T395">
-        <v>3</v>
-      </c>
       <c r="U395">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V395">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W395">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z395">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA395">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB395">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC395">
         <v>-1</v>
@@ -36044,7 +36044,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7645790</v>
+        <v>7645785</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36053,72 +36053,87 @@
         <v>28</v>
       </c>
       <c r="E400" s="2">
-        <v>45340.83333333334</v>
+        <v>45338.78125</v>
       </c>
       <c r="F400" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G400" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="H400">
+        <v>5</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400" t="s">
+        <v>48</v>
       </c>
       <c r="K400">
-        <v>4.75</v>
+        <v>1.04</v>
       </c>
       <c r="L400">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M400">
-        <v>1.533</v>
+        <v>51</v>
       </c>
       <c r="N400">
-        <v>3.8</v>
+        <v>1.025</v>
       </c>
       <c r="O400">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="P400">
-        <v>1.7</v>
+        <v>41</v>
       </c>
       <c r="Q400">
-        <v>0.75</v>
+        <v>-4</v>
       </c>
       <c r="R400">
+        <v>1.875</v>
+      </c>
+      <c r="S400">
+        <v>1.925</v>
+      </c>
+      <c r="T400">
+        <v>5</v>
+      </c>
+      <c r="U400">
+        <v>1.95</v>
+      </c>
+      <c r="V400">
         <v>1.85</v>
       </c>
-      <c r="S400">
-        <v>1.95</v>
-      </c>
-      <c r="T400">
-        <v>3</v>
-      </c>
-      <c r="U400">
-        <v>1.875</v>
-      </c>
-      <c r="V400">
-        <v>1.925</v>
-      </c>
       <c r="W400">
+        <v>0.02499999999999991</v>
+      </c>
+      <c r="X400">
+        <v>-1</v>
+      </c>
+      <c r="Y400">
+        <v>-1</v>
+      </c>
+      <c r="Z400">
+        <v>0.875</v>
+      </c>
+      <c r="AA400">
+        <v>-1</v>
+      </c>
+      <c r="AB400">
         <v>0</v>
       </c>
-      <c r="X400">
-        <v>0</v>
-      </c>
-      <c r="Y400">
-        <v>0</v>
-      </c>
-      <c r="Z400">
-        <v>0</v>
-      </c>
-      <c r="AA400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:27">
+      <c r="AC400">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29">
       <c r="A401" s="1">
         <v>399</v>
       </c>
       <c r="B401">
-        <v>7645714</v>
+        <v>7645786</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36127,72 +36142,87 @@
         <v>28</v>
       </c>
       <c r="E401" s="2">
-        <v>45340.92083333333</v>
+        <v>45338.875</v>
       </c>
       <c r="F401" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G401" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H401">
+        <v>0</v>
+      </c>
+      <c r="I401">
+        <v>5</v>
+      </c>
+      <c r="J401" t="s">
+        <v>47</v>
       </c>
       <c r="K401">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="L401">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M401">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="N401">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="O401">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P401">
+        <v>1.4</v>
+      </c>
+      <c r="Q401">
+        <v>1.25</v>
+      </c>
+      <c r="R401">
         <v>1.95</v>
       </c>
-      <c r="Q401">
-        <v>0.5</v>
-      </c>
-      <c r="R401">
-        <v>1.775</v>
-      </c>
       <c r="S401">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T401">
         <v>3</v>
       </c>
       <c r="U401">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V401">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W401">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X401">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z401">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB401">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC401">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29">
       <c r="A402" s="1">
         <v>400</v>
       </c>
       <c r="B402">
-        <v>7645715</v>
+        <v>7645788</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36201,63 +36231,241 @@
         <v>28</v>
       </c>
       <c r="E402" s="2">
-        <v>45341.00694444445</v>
+        <v>45339.625</v>
       </c>
       <c r="F402" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G402" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="H402">
+        <v>1</v>
+      </c>
+      <c r="I402">
+        <v>4</v>
+      </c>
+      <c r="J402" t="s">
+        <v>47</v>
       </c>
       <c r="K402">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L402">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M402">
+        <v>1.444</v>
+      </c>
+      <c r="N402">
         <v>6</v>
-      </c>
-      <c r="N402">
-        <v>1.444</v>
       </c>
       <c r="O402">
         <v>4.5</v>
       </c>
       <c r="P402">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q402">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R402">
+        <v>1.9</v>
+      </c>
+      <c r="S402">
+        <v>1.9</v>
+      </c>
+      <c r="T402">
+        <v>3.25</v>
+      </c>
+      <c r="U402">
+        <v>2</v>
+      </c>
+      <c r="V402">
+        <v>1.8</v>
+      </c>
+      <c r="W402">
+        <v>-1</v>
+      </c>
+      <c r="X402">
+        <v>-1</v>
+      </c>
+      <c r="Y402">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z402">
+        <v>-1</v>
+      </c>
+      <c r="AA402">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB402">
+        <v>1</v>
+      </c>
+      <c r="AC402">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>7645790</v>
+      </c>
+      <c r="C403" t="s">
+        <v>28</v>
+      </c>
+      <c r="D403" t="s">
+        <v>28</v>
+      </c>
+      <c r="E403" s="2">
+        <v>45340.83333333334</v>
+      </c>
+      <c r="F403" t="s">
+        <v>35</v>
+      </c>
+      <c r="G403" t="s">
+        <v>30</v>
+      </c>
+      <c r="H403">
+        <v>1</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+      <c r="J403" t="s">
+        <v>49</v>
+      </c>
+      <c r="K403">
+        <v>4.75</v>
+      </c>
+      <c r="L403">
+        <v>4</v>
+      </c>
+      <c r="M403">
+        <v>1.533</v>
+      </c>
+      <c r="N403">
+        <v>3.8</v>
+      </c>
+      <c r="O403">
+        <v>3.8</v>
+      </c>
+      <c r="P403">
+        <v>1.7</v>
+      </c>
+      <c r="Q403">
+        <v>0.75</v>
+      </c>
+      <c r="R403">
+        <v>1.85</v>
+      </c>
+      <c r="S403">
         <v>1.95</v>
       </c>
-      <c r="S402">
-        <v>1.85</v>
-      </c>
-      <c r="T402">
+      <c r="T403">
         <v>3</v>
       </c>
-      <c r="U402">
-        <v>1.925</v>
-      </c>
-      <c r="V402">
-        <v>1.875</v>
-      </c>
-      <c r="W402">
+      <c r="U403">
+        <v>1.975</v>
+      </c>
+      <c r="V403">
+        <v>1.825</v>
+      </c>
+      <c r="W403">
+        <v>-1</v>
+      </c>
+      <c r="X403">
+        <v>2.8</v>
+      </c>
+      <c r="Y403">
+        <v>-1</v>
+      </c>
+      <c r="Z403">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA403">
+        <v>-1</v>
+      </c>
+      <c r="AB403">
+        <v>-1</v>
+      </c>
+      <c r="AC403">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="404" spans="1:29">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>7645715</v>
+      </c>
+      <c r="C404" t="s">
+        <v>28</v>
+      </c>
+      <c r="D404" t="s">
+        <v>28</v>
+      </c>
+      <c r="E404" s="2">
+        <v>45341.00694444445</v>
+      </c>
+      <c r="F404" t="s">
+        <v>40</v>
+      </c>
+      <c r="G404" t="s">
+        <v>29</v>
+      </c>
+      <c r="K404">
+        <v>1.4</v>
+      </c>
+      <c r="L404">
+        <v>4.5</v>
+      </c>
+      <c r="M404">
+        <v>6</v>
+      </c>
+      <c r="N404">
+        <v>1.333</v>
+      </c>
+      <c r="O404">
+        <v>5.25</v>
+      </c>
+      <c r="P404">
+        <v>6.5</v>
+      </c>
+      <c r="Q404">
+        <v>-1.5</v>
+      </c>
+      <c r="R404">
+        <v>1.9</v>
+      </c>
+      <c r="S404">
+        <v>1.9</v>
+      </c>
+      <c r="T404">
+        <v>3</v>
+      </c>
+      <c r="U404">
+        <v>1.8</v>
+      </c>
+      <c r="V404">
+        <v>2</v>
+      </c>
+      <c r="W404">
         <v>0</v>
       </c>
-      <c r="X402">
+      <c r="X404">
         <v>0</v>
       </c>
-      <c r="Y402">
+      <c r="Y404">
         <v>0</v>
       </c>
-      <c r="Z402">
+      <c r="Z404">
         <v>0</v>
       </c>
-      <c r="AA402">
+      <c r="AA404">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC404"/>
+  <dimension ref="A1:AC405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5981073</v>
+        <v>5981075</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45040.91666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124">
+        <v>6</v>
+      </c>
+      <c r="L124">
+        <v>5.5</v>
+      </c>
+      <c r="M124">
+        <v>1.3</v>
+      </c>
+      <c r="N124">
+        <v>7.5</v>
+      </c>
+      <c r="O124">
+        <v>6</v>
+      </c>
+      <c r="P124">
+        <v>1.222</v>
+      </c>
+      <c r="Q124">
         <v>2</v>
       </c>
-      <c r="I124">
+      <c r="R124">
+        <v>1.75</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>3.25</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>1.8</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>0.222</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>0.95</v>
+      </c>
+      <c r="AB124">
         <v>1</v>
       </c>
-      <c r="J124" t="s">
-        <v>48</v>
-      </c>
-      <c r="K124">
-        <v>1.083</v>
-      </c>
-      <c r="L124">
-        <v>9</v>
-      </c>
-      <c r="M124">
-        <v>17</v>
-      </c>
-      <c r="N124">
-        <v>1.071</v>
-      </c>
-      <c r="O124">
-        <v>9.5</v>
-      </c>
-      <c r="P124">
-        <v>26</v>
-      </c>
-      <c r="Q124">
-        <v>-2.75</v>
-      </c>
-      <c r="R124">
-        <v>1.975</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.975</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
-      <c r="W124">
-        <v>0.07099999999999995</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.825</v>
-      </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5981075</v>
+        <v>5981073</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45040.91666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>6</v>
+        <v>1.083</v>
       </c>
       <c r="L125">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="M125">
-        <v>1.3</v>
+        <v>17</v>
       </c>
       <c r="N125">
-        <v>7.5</v>
+        <v>1.071</v>
       </c>
       <c r="O125">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="P125">
-        <v>1.222</v>
+        <v>26</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>-2.75</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45137.625</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K193">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L193">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N193">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O193">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q193">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S193">
         <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U193">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
         <v>1.925</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45137.625</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K194">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L194">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M194">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N194">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P194">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q194">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R194">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
         <v>1.95</v>
       </c>
       <c r="T194">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V194">
         <v>1.925</v>
       </c>
       <c r="W194">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z194">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,10 +19324,10 @@
         <v>45151.625</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19339,61 +19339,61 @@
         <v>49</v>
       </c>
       <c r="K212">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M212">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N212">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P212">
+        <v>1.333</v>
+      </c>
+      <c r="Q212">
+        <v>1.5</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
         <v>3</v>
       </c>
-      <c r="Q212">
-        <v>-0.25</v>
-      </c>
-      <c r="R212">
+      <c r="U212">
         <v>1.925</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.875</v>
       </c>
-      <c r="T212">
-        <v>2.75</v>
-      </c>
-      <c r="U212">
-        <v>1.85</v>
-      </c>
-      <c r="V212">
-        <v>1.95</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA212">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,10 +19413,10 @@
         <v>45151.625</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19428,61 +19428,61 @@
         <v>49</v>
       </c>
       <c r="K213">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L213">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M213">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N213">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O213">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P213">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q213">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21460,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K236">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L236">
         <v>5</v>
       </c>
       <c r="M236">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N236">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O236">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P236">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q236">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X236">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,76 +21549,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K237">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L237">
         <v>5</v>
       </c>
       <c r="M237">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N237">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O237">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P237">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q237">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA237">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -24830,7 +24830,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24842,49 +24842,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G274" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274" t="s">
+        <v>47</v>
+      </c>
+      <c r="K274">
         <v>3</v>
       </c>
-      <c r="I274">
-        <v>0</v>
-      </c>
-      <c r="J274" t="s">
-        <v>48</v>
-      </c>
-      <c r="K274">
-        <v>1.181</v>
-      </c>
       <c r="L274">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M274">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N274">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O274">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P274">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q274">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R274">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S274">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T274">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U274">
         <v>1.8</v>
@@ -24893,19 +24893,19 @@
         <v>2</v>
       </c>
       <c r="W274">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z274">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB274">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,49 +24931,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G275" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H275">
+        <v>3</v>
+      </c>
+      <c r="I275">
         <v>0</v>
       </c>
-      <c r="I275">
+      <c r="J275" t="s">
+        <v>48</v>
+      </c>
+      <c r="K275">
+        <v>1.181</v>
+      </c>
+      <c r="L275">
+        <v>6</v>
+      </c>
+      <c r="M275">
+        <v>10</v>
+      </c>
+      <c r="N275">
+        <v>1.1</v>
+      </c>
+      <c r="O275">
+        <v>9</v>
+      </c>
+      <c r="P275">
+        <v>19</v>
+      </c>
+      <c r="Q275">
+        <v>-2.5</v>
+      </c>
+      <c r="R275">
+        <v>1.8</v>
+      </c>
+      <c r="S275">
         <v>2</v>
       </c>
-      <c r="J275" t="s">
-        <v>47</v>
-      </c>
-      <c r="K275">
-        <v>3</v>
-      </c>
-      <c r="L275">
-        <v>3.6</v>
-      </c>
-      <c r="M275">
-        <v>2</v>
-      </c>
-      <c r="N275">
-        <v>4</v>
-      </c>
-      <c r="O275">
-        <v>3.8</v>
-      </c>
-      <c r="P275">
-        <v>1.666</v>
-      </c>
-      <c r="Q275">
-        <v>0.75</v>
-      </c>
-      <c r="R275">
-        <v>1.925</v>
-      </c>
-      <c r="S275">
-        <v>1.875</v>
-      </c>
       <c r="T275">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U275">
         <v>1.8</v>
@@ -24982,19 +24982,19 @@
         <v>2</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,10 +26978,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G298" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -26993,40 +26993,40 @@
         <v>47</v>
       </c>
       <c r="K298">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L298">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M298">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N298">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O298">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P298">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q298">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R298">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S298">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T298">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U298">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V298">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,19 +27035,19 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z298">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,10 +27067,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G299" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27082,40 +27082,40 @@
         <v>47</v>
       </c>
       <c r="K299">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L299">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M299">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N299">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O299">
+        <v>6.5</v>
+      </c>
+      <c r="P299">
+        <v>1.142</v>
+      </c>
+      <c r="Q299">
+        <v>2.25</v>
+      </c>
+      <c r="R299">
+        <v>1.95</v>
+      </c>
+      <c r="S299">
+        <v>1.85</v>
+      </c>
+      <c r="T299">
         <v>3.75</v>
       </c>
-      <c r="P299">
-        <v>1.666</v>
-      </c>
-      <c r="Q299">
-        <v>0.75</v>
-      </c>
-      <c r="R299">
-        <v>1.925</v>
-      </c>
-      <c r="S299">
-        <v>1.875</v>
-      </c>
-      <c r="T299">
-        <v>2.75</v>
-      </c>
       <c r="U299">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V299">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W299">
         <v>-1</v>
@@ -27124,19 +27124,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z299">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA299">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -28390,7 +28390,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28402,76 +28402,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G314" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
+        <v>3</v>
+      </c>
+      <c r="J314" t="s">
+        <v>47</v>
+      </c>
+      <c r="K314">
+        <v>23</v>
+      </c>
+      <c r="L314">
+        <v>13</v>
+      </c>
+      <c r="M314">
+        <v>1.03</v>
+      </c>
+      <c r="N314">
+        <v>29</v>
+      </c>
+      <c r="O314">
+        <v>12</v>
+      </c>
+      <c r="P314">
+        <v>1.055</v>
+      </c>
+      <c r="Q314">
+        <v>3</v>
+      </c>
+      <c r="R314">
+        <v>2</v>
+      </c>
+      <c r="S314">
+        <v>1.8</v>
+      </c>
+      <c r="T314">
+        <v>4</v>
+      </c>
+      <c r="U314">
+        <v>1.85</v>
+      </c>
+      <c r="V314">
+        <v>1.95</v>
+      </c>
+      <c r="W314">
+        <v>-1</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z314">
         <v>1</v>
       </c>
-      <c r="J314" t="s">
-        <v>49</v>
-      </c>
-      <c r="K314">
-        <v>2.1</v>
-      </c>
-      <c r="L314">
-        <v>3.5</v>
-      </c>
-      <c r="M314">
-        <v>2.875</v>
-      </c>
-      <c r="N314">
-        <v>1.7</v>
-      </c>
-      <c r="O314">
-        <v>3.75</v>
-      </c>
-      <c r="P314">
-        <v>4</v>
-      </c>
-      <c r="Q314">
-        <v>-0.75</v>
-      </c>
-      <c r="R314">
-        <v>1.95</v>
-      </c>
-      <c r="S314">
-        <v>1.85</v>
-      </c>
-      <c r="T314">
-        <v>3</v>
-      </c>
-      <c r="U314">
-        <v>1.925</v>
-      </c>
-      <c r="V314">
-        <v>1.875</v>
-      </c>
-      <c r="W314">
-        <v>-1</v>
-      </c>
-      <c r="X314">
-        <v>2.75</v>
-      </c>
-      <c r="Y314">
-        <v>-1</v>
-      </c>
-      <c r="Z314">
-        <v>-1</v>
-      </c>
       <c r="AA314">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC314">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28479,7 +28479,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28491,76 +28491,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G315" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H315">
         <v>1</v>
       </c>
       <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" t="s">
+        <v>49</v>
+      </c>
+      <c r="K315">
+        <v>2.1</v>
+      </c>
+      <c r="L315">
+        <v>3.5</v>
+      </c>
+      <c r="M315">
+        <v>2.875</v>
+      </c>
+      <c r="N315">
+        <v>1.7</v>
+      </c>
+      <c r="O315">
+        <v>3.75</v>
+      </c>
+      <c r="P315">
+        <v>4</v>
+      </c>
+      <c r="Q315">
+        <v>-0.75</v>
+      </c>
+      <c r="R315">
+        <v>1.95</v>
+      </c>
+      <c r="S315">
+        <v>1.85</v>
+      </c>
+      <c r="T315">
         <v>3</v>
       </c>
-      <c r="J315" t="s">
-        <v>47</v>
-      </c>
-      <c r="K315">
-        <v>23</v>
-      </c>
-      <c r="L315">
-        <v>13</v>
-      </c>
-      <c r="M315">
-        <v>1.03</v>
-      </c>
-      <c r="N315">
-        <v>29</v>
-      </c>
-      <c r="O315">
-        <v>12</v>
-      </c>
-      <c r="P315">
-        <v>1.055</v>
-      </c>
-      <c r="Q315">
-        <v>3</v>
-      </c>
-      <c r="R315">
-        <v>2</v>
-      </c>
-      <c r="S315">
-        <v>1.8</v>
-      </c>
-      <c r="T315">
-        <v>4</v>
-      </c>
       <c r="U315">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V315">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y315">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -34264,7 +34264,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34276,58 +34276,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F380" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G380" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380" t="s">
         <v>48</v>
       </c>
       <c r="K380">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L380">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M380">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N380">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O380">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P380">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q380">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R380">
+        <v>1.825</v>
+      </c>
+      <c r="S380">
         <v>1.975</v>
       </c>
-      <c r="S380">
-        <v>1.825</v>
-      </c>
       <c r="T380">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U380">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V380">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W380">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34336,16 +34336,16 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB380">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34353,7 +34353,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34365,58 +34365,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F381" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G381" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="s">
         <v>48</v>
       </c>
       <c r="K381">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L381">
+        <v>5.5</v>
+      </c>
+      <c r="M381">
         <v>7.5</v>
       </c>
-      <c r="M381">
-        <v>15</v>
-      </c>
       <c r="N381">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O381">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P381">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q381">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R381">
+        <v>1.975</v>
+      </c>
+      <c r="S381">
         <v>1.825</v>
       </c>
-      <c r="S381">
-        <v>1.975</v>
-      </c>
       <c r="T381">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U381">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V381">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W381">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34425,16 +34425,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA381">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC381">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -34798,7 +34798,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34810,49 +34810,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F386" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G386" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H386">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J386" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K386">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L386">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M386">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N386">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O386">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P386">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q386">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R386">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S386">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T386">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U386">
         <v>1.8</v>
@@ -34861,25 +34861,25 @@
         <v>2</v>
       </c>
       <c r="W386">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X386">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y386">
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA386">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB386">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC386">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34887,7 +34887,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34899,49 +34899,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F387" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G387" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K387">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L387">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M387">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N387">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O387">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P387">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q387">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R387">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S387">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T387">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U387">
         <v>1.8</v>
@@ -34950,25 +34950,25 @@
         <v>2</v>
       </c>
       <c r="W387">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X387">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA387">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB387">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC387">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35599,7 +35599,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,73 +35611,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F395" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G395" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H395">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I395">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J395" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K395">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L395">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M395">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N395">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O395">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P395">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q395">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R395">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S395">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T395">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U395">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V395">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W395">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z395">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB395">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC395">
         <v>-1</v>
@@ -35688,7 +35688,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35700,73 +35700,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G396" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H396">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I396">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J396" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K396">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L396">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M396">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N396">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O396">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P396">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q396">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R396">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S396">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T396">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U396">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V396">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W396">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA396">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC396">
         <v>-1</v>
@@ -36400,7 +36400,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>7645715</v>
+        <v>7645714</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36409,64 +36409,168 @@
         <v>28</v>
       </c>
       <c r="E404" s="2">
-        <v>45341.00694444445</v>
+        <v>45340.92083333333</v>
       </c>
       <c r="F404" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G404" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>2</v>
+      </c>
+      <c r="J404" t="s">
+        <v>47</v>
       </c>
       <c r="K404">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L404">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M404">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N404">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O404">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P404">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q404">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R404">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S404">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T404">
         <v>3</v>
       </c>
       <c r="U404">
+        <v>1.9</v>
+      </c>
+      <c r="V404">
+        <v>1.9</v>
+      </c>
+      <c r="W404">
+        <v>-1</v>
+      </c>
+      <c r="X404">
+        <v>-1</v>
+      </c>
+      <c r="Y404">
+        <v>0.909</v>
+      </c>
+      <c r="Z404">
+        <v>-1</v>
+      </c>
+      <c r="AA404">
+        <v>1</v>
+      </c>
+      <c r="AB404">
+        <v>-1</v>
+      </c>
+      <c r="AC404">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:29">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>7645715</v>
+      </c>
+      <c r="C405" t="s">
+        <v>28</v>
+      </c>
+      <c r="D405" t="s">
+        <v>28</v>
+      </c>
+      <c r="E405" s="2">
+        <v>45341.00694444445</v>
+      </c>
+      <c r="F405" t="s">
+        <v>40</v>
+      </c>
+      <c r="G405" t="s">
+        <v>29</v>
+      </c>
+      <c r="H405">
+        <v>1</v>
+      </c>
+      <c r="I405">
+        <v>2</v>
+      </c>
+      <c r="J405" t="s">
+        <v>47</v>
+      </c>
+      <c r="K405">
+        <v>1.4</v>
+      </c>
+      <c r="L405">
+        <v>4.5</v>
+      </c>
+      <c r="M405">
+        <v>6</v>
+      </c>
+      <c r="N405">
+        <v>1.363</v>
+      </c>
+      <c r="O405">
+        <v>5</v>
+      </c>
+      <c r="P405">
+        <v>6</v>
+      </c>
+      <c r="Q405">
+        <v>-1.25</v>
+      </c>
+      <c r="R405">
         <v>1.8</v>
       </c>
-      <c r="V404">
+      <c r="S405">
         <v>2</v>
       </c>
-      <c r="W404">
+      <c r="T405">
+        <v>3</v>
+      </c>
+      <c r="U405">
+        <v>1.825</v>
+      </c>
+      <c r="V405">
+        <v>1.975</v>
+      </c>
+      <c r="W405">
+        <v>-1</v>
+      </c>
+      <c r="X405">
+        <v>-1</v>
+      </c>
+      <c r="Y405">
+        <v>5</v>
+      </c>
+      <c r="Z405">
+        <v>-1</v>
+      </c>
+      <c r="AA405">
+        <v>1</v>
+      </c>
+      <c r="AB405">
         <v>0</v>
       </c>
-      <c r="X404">
-        <v>0</v>
-      </c>
-      <c r="Y404">
-        <v>0</v>
-      </c>
-      <c r="Z404">
-        <v>0</v>
-      </c>
-      <c r="AA404">
-        <v>0</v>
+      <c r="AC405">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5980998</v>
+        <v>5981108</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50">
+        <v>5.5</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>1.45</v>
+      </c>
+      <c r="N50">
+        <v>7</v>
+      </c>
+      <c r="O50">
+        <v>4.5</v>
+      </c>
+      <c r="P50">
+        <v>1.333</v>
+      </c>
+      <c r="Q50">
+        <v>1.5</v>
+      </c>
+      <c r="R50">
+        <v>1.825</v>
+      </c>
+      <c r="S50">
+        <v>1.975</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>1.8</v>
+      </c>
+      <c r="V50">
         <v>2</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K50">
-        <v>1.142</v>
-      </c>
-      <c r="L50">
-        <v>6.5</v>
-      </c>
-      <c r="M50">
-        <v>12</v>
-      </c>
-      <c r="N50">
-        <v>1.142</v>
-      </c>
-      <c r="O50">
-        <v>7.5</v>
-      </c>
-      <c r="P50">
-        <v>15</v>
-      </c>
-      <c r="Q50">
-        <v>-2.5</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.75</v>
-      </c>
-      <c r="T50">
-        <v>3.5</v>
-      </c>
-      <c r="U50">
-        <v>2.05</v>
-      </c>
-      <c r="V50">
-        <v>1.75</v>
-      </c>
       <c r="W50">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5981108</v>
+        <v>5980998</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>5.5</v>
+        <v>1.142</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M51">
-        <v>1.45</v>
+        <v>12</v>
       </c>
       <c r="N51">
-        <v>7</v>
+        <v>1.142</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="P51">
-        <v>1.333</v>
+        <v>15</v>
       </c>
       <c r="Q51">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R51">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981013</v>
+        <v>5981012</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981012</v>
+        <v>5981013</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>0.825</v>
+      </c>
+      <c r="AB69">
         <v>0</v>
       </c>
-      <c r="AA69">
+      <c r="AC69">
         <v>-0</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
-      <c r="AC69">
-        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5981047</v>
+        <v>5981046</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98">
+        <v>1.4</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>7</v>
+      </c>
+      <c r="N98">
+        <v>1.85</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>3.8</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
+        <v>1.925</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
         <v>2</v>
       </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.375</v>
-      </c>
-      <c r="L98">
-        <v>3.4</v>
-      </c>
-      <c r="M98">
-        <v>2.5</v>
-      </c>
-      <c r="N98">
-        <v>2.8</v>
-      </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
-      <c r="P98">
-        <v>2.15</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.85</v>
-      </c>
-      <c r="S98">
-        <v>1.95</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.85</v>
-      </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5981046</v>
+        <v>5981047</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N99">
+        <v>2.8</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
+        <v>2.15</v>
+      </c>
+      <c r="Q99">
+        <v>0.25</v>
+      </c>
+      <c r="R99">
         <v>1.85</v>
       </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>3.8</v>
-      </c>
-      <c r="Q99">
-        <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>1.15</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.95</v>
+      </c>
+      <c r="AB99">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.875</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5981069</v>
+        <v>5981070</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,40 +11136,40 @@
         <v>45039.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N120">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R120">
         <v>1.75</v>
@@ -11178,19 +11178,19 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11202,10 +11202,10 @@
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5981070</v>
+        <v>5981069</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,40 +11225,40 @@
         <v>45039.83333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
         <v>1.75</v>
@@ -11267,19 +11267,19 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X121">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11291,10 +11291,10 @@
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5981075</v>
+        <v>5981073</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45040.91666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>6</v>
+        <v>1.083</v>
       </c>
       <c r="L124">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="M124">
-        <v>1.3</v>
+        <v>17</v>
       </c>
       <c r="N124">
-        <v>7.5</v>
+        <v>1.071</v>
       </c>
       <c r="O124">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="P124">
-        <v>1.222</v>
+        <v>26</v>
       </c>
       <c r="Q124">
-        <v>2</v>
+        <v>-2.75</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5981073</v>
+        <v>5981075</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45040.91666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125" t="s">
+        <v>47</v>
+      </c>
+      <c r="K125">
+        <v>6</v>
+      </c>
+      <c r="L125">
+        <v>5.5</v>
+      </c>
+      <c r="M125">
+        <v>1.3</v>
+      </c>
+      <c r="N125">
+        <v>7.5</v>
+      </c>
+      <c r="O125">
+        <v>6</v>
+      </c>
+      <c r="P125">
+        <v>1.222</v>
+      </c>
+      <c r="Q125">
         <v>2</v>
       </c>
-      <c r="I125">
+      <c r="R125">
+        <v>1.75</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>3.25</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>1.8</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.222</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>0.95</v>
+      </c>
+      <c r="AB125">
         <v>1</v>
       </c>
-      <c r="J125" t="s">
-        <v>48</v>
-      </c>
-      <c r="K125">
-        <v>1.083</v>
-      </c>
-      <c r="L125">
-        <v>9</v>
-      </c>
-      <c r="M125">
-        <v>17</v>
-      </c>
-      <c r="N125">
-        <v>1.071</v>
-      </c>
-      <c r="O125">
-        <v>9.5</v>
-      </c>
-      <c r="P125">
-        <v>26</v>
-      </c>
-      <c r="Q125">
-        <v>-2.75</v>
-      </c>
-      <c r="R125">
-        <v>1.975</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.975</v>
-      </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
-      <c r="W125">
-        <v>0.07099999999999995</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.825</v>
-      </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5981089</v>
+        <v>5981088</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>47</v>
       </c>
       <c r="K141">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="N141">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q141">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,19 +13062,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5981088</v>
+        <v>5981089</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,55 +13094,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
         <v>1</v>
-      </c>
-      <c r="I142">
-        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>47</v>
       </c>
       <c r="K142">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N142">
+        <v>5.25</v>
+      </c>
+      <c r="O142">
         <v>4.2</v>
       </c>
-      <c r="O142">
-        <v>3.75</v>
-      </c>
       <c r="P142">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13151,19 +13151,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA142">
+        <v>-0</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB142">
-        <v>0.875</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,10 +19324,10 @@
         <v>45151.625</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19339,61 +19339,61 @@
         <v>49</v>
       </c>
       <c r="K212">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L212">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N212">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O212">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q212">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,10 +19413,10 @@
         <v>45151.625</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19428,61 +19428,61 @@
         <v>49</v>
       </c>
       <c r="K213">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N213">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P213">
+        <v>1.333</v>
+      </c>
+      <c r="Q213">
+        <v>1.5</v>
+      </c>
+      <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
+        <v>1.975</v>
+      </c>
+      <c r="T213">
         <v>3</v>
       </c>
-      <c r="Q213">
-        <v>-0.25</v>
-      </c>
-      <c r="R213">
+      <c r="U213">
         <v>1.925</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.875</v>
       </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>1.85</v>
-      </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N220">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z220">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>2</v>
-      </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K221">
+        <v>2.375</v>
+      </c>
+      <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
+        <v>2.5</v>
+      </c>
+      <c r="N221">
+        <v>2.15</v>
+      </c>
+      <c r="O221">
         <v>3.5</v>
       </c>
-      <c r="L221">
-        <v>3.5</v>
-      </c>
-      <c r="M221">
-        <v>1.833</v>
-      </c>
-      <c r="N221">
-        <v>4.333</v>
-      </c>
-      <c r="O221">
-        <v>3.75</v>
-      </c>
       <c r="P221">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q221">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA221">
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
         <v>0.95</v>
-      </c>
-      <c r="AB221">
-        <v>-1</v>
-      </c>
-      <c r="AC221">
-        <v>0.825</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K266">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M266">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N266">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O266">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P266">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q266">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R266">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S266">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T266">
         <v>3.25</v>
       </c>
       <c r="U266">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V266">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X266">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA266">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC266">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24207,7 +24207,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24219,76 +24219,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G267" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K267">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L267">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M267">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N267">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O267">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P267">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q267">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R267">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S267">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T267">
         <v>3.25</v>
       </c>
       <c r="U267">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V267">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W267">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24830,7 +24830,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24842,49 +24842,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G274" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H274">
+        <v>3</v>
+      </c>
+      <c r="I274">
         <v>0</v>
       </c>
-      <c r="I274">
+      <c r="J274" t="s">
+        <v>48</v>
+      </c>
+      <c r="K274">
+        <v>1.181</v>
+      </c>
+      <c r="L274">
+        <v>6</v>
+      </c>
+      <c r="M274">
+        <v>10</v>
+      </c>
+      <c r="N274">
+        <v>1.1</v>
+      </c>
+      <c r="O274">
+        <v>9</v>
+      </c>
+      <c r="P274">
+        <v>19</v>
+      </c>
+      <c r="Q274">
+        <v>-2.5</v>
+      </c>
+      <c r="R274">
+        <v>1.8</v>
+      </c>
+      <c r="S274">
         <v>2</v>
       </c>
-      <c r="J274" t="s">
-        <v>47</v>
-      </c>
-      <c r="K274">
-        <v>3</v>
-      </c>
-      <c r="L274">
-        <v>3.6</v>
-      </c>
-      <c r="M274">
-        <v>2</v>
-      </c>
-      <c r="N274">
-        <v>4</v>
-      </c>
-      <c r="O274">
-        <v>3.8</v>
-      </c>
-      <c r="P274">
-        <v>1.666</v>
-      </c>
-      <c r="Q274">
-        <v>0.75</v>
-      </c>
-      <c r="R274">
-        <v>1.925</v>
-      </c>
-      <c r="S274">
-        <v>1.875</v>
-      </c>
       <c r="T274">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U274">
         <v>1.8</v>
@@ -24893,19 +24893,19 @@
         <v>2</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA274">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,49 +24931,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G275" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275" t="s">
+        <v>47</v>
+      </c>
+      <c r="K275">
         <v>3</v>
       </c>
-      <c r="I275">
-        <v>0</v>
-      </c>
-      <c r="J275" t="s">
-        <v>48</v>
-      </c>
-      <c r="K275">
-        <v>1.181</v>
-      </c>
       <c r="L275">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M275">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N275">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O275">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P275">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q275">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R275">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S275">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T275">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U275">
         <v>1.8</v>
@@ -24982,19 +24982,19 @@
         <v>2</v>
       </c>
       <c r="W275">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z275">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,13 +26800,13 @@
         <v>45214.625</v>
       </c>
       <c r="F296" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -26815,40 +26815,40 @@
         <v>47</v>
       </c>
       <c r="K296">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L296">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N296">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O296">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P296">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q296">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R296">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S296">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V296">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26857,16 +26857,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB296">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,13 +26889,13 @@
         <v>45214.625</v>
       </c>
       <c r="F297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G297" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I297">
         <v>6</v>
@@ -26904,40 +26904,40 @@
         <v>47</v>
       </c>
       <c r="K297">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L297">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M297">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N297">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O297">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P297">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q297">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R297">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S297">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T297">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,16 +26946,16 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB297">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,10 +26978,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G298" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -26993,40 +26993,40 @@
         <v>47</v>
       </c>
       <c r="K298">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L298">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M298">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N298">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O298">
+        <v>6.5</v>
+      </c>
+      <c r="P298">
+        <v>1.142</v>
+      </c>
+      <c r="Q298">
+        <v>2.25</v>
+      </c>
+      <c r="R298">
+        <v>1.95</v>
+      </c>
+      <c r="S298">
+        <v>1.85</v>
+      </c>
+      <c r="T298">
         <v>3.75</v>
       </c>
-      <c r="P298">
-        <v>1.666</v>
-      </c>
-      <c r="Q298">
-        <v>0.75</v>
-      </c>
-      <c r="R298">
-        <v>1.925</v>
-      </c>
-      <c r="S298">
-        <v>1.875</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
-      </c>
       <c r="U298">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V298">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,19 +27035,19 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z298">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA298">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,10 +27067,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G299" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27082,40 +27082,40 @@
         <v>47</v>
       </c>
       <c r="K299">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L299">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M299">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N299">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O299">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P299">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q299">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R299">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S299">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T299">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V299">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W299">
         <v>-1</v>
@@ -27124,19 +27124,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z299">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -34086,7 +34086,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34098,76 +34098,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F378" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G378" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H378">
+        <v>6</v>
+      </c>
+      <c r="I378">
         <v>0</v>
       </c>
-      <c r="I378">
-        <v>3</v>
-      </c>
       <c r="J378" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K378">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L378">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M378">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N378">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O378">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P378">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q378">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R378">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S378">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T378">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U378">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V378">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA378">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC378">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34175,7 +34175,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34187,76 +34187,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G379" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H379">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K379">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L379">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M379">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N379">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O379">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P379">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q379">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R379">
+        <v>1.95</v>
+      </c>
+      <c r="S379">
+        <v>1.85</v>
+      </c>
+      <c r="T379">
+        <v>3.25</v>
+      </c>
+      <c r="U379">
+        <v>1.95</v>
+      </c>
+      <c r="V379">
         <v>1.75</v>
       </c>
-      <c r="S379">
-        <v>2.05</v>
-      </c>
-      <c r="T379">
-        <v>3.75</v>
-      </c>
-      <c r="U379">
-        <v>1.9</v>
-      </c>
-      <c r="V379">
-        <v>1.9</v>
-      </c>
       <c r="W379">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z379">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB379">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC379">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34798,7 +34798,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34810,49 +34810,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F386" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G386" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K386">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L386">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M386">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N386">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O386">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P386">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q386">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S386">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T386">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U386">
         <v>1.8</v>
@@ -34861,25 +34861,25 @@
         <v>2</v>
       </c>
       <c r="W386">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X386">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y386">
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA386">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB386">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC386">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34887,7 +34887,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34899,49 +34899,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F387" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G387" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H387">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K387">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L387">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M387">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N387">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O387">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P387">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q387">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R387">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S387">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T387">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U387">
         <v>1.8</v>
@@ -34950,25 +34950,25 @@
         <v>2</v>
       </c>
       <c r="W387">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y387">
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA387">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB387">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC387">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,49 +35522,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G394" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I394">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J394" t="s">
         <v>47</v>
       </c>
       <c r="K394">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L394">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M394">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N394">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O394">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P394">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q394">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R394">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S394">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T394">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U394">
         <v>1.75</v>
@@ -35579,13 +35579,13 @@
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z394">
         <v>-1</v>
       </c>
       <c r="AA394">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB394">
         <v>0.75</v>
@@ -35599,7 +35599,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,73 +35611,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F395" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G395" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H395">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I395">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J395" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K395">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L395">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M395">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N395">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O395">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P395">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q395">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R395">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S395">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T395">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U395">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V395">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W395">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z395">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA395">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB395">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC395">
         <v>-1</v>
@@ -35688,7 +35688,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35700,73 +35700,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G396" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H396">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I396">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J396" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K396">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L396">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M396">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N396">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O396">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P396">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q396">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R396">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S396">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T396">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U396">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V396">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W396">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z396">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB396">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC396">
         <v>-1</v>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981012</v>
+        <v>5981013</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N68">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.825</v>
+      </c>
+      <c r="AB68">
         <v>0</v>
       </c>
-      <c r="AA68">
+      <c r="AC68">
         <v>-0</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981013</v>
+        <v>5981012</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N69">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5981029</v>
+        <v>5981027</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,76 +7487,76 @@
         <v>44998.91666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P79">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X79">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5981027</v>
+        <v>5981029</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>44998.91666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>49</v>
+      </c>
+      <c r="K80">
         <v>5</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" t="s">
-        <v>48</v>
-      </c>
-      <c r="K80">
-        <v>1.222</v>
-      </c>
       <c r="L80">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="N80">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="O80">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="Q80">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5981046</v>
+        <v>5981047</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
+        <v>2.8</v>
+      </c>
+      <c r="O98">
+        <v>3.5</v>
+      </c>
+      <c r="P98">
+        <v>2.15</v>
+      </c>
+      <c r="Q98">
+        <v>0.25</v>
+      </c>
+      <c r="R98">
         <v>1.85</v>
       </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>3.8</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.875</v>
-      </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>1.15</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.95</v>
+      </c>
+      <c r="AB98">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>0.875</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
       <c r="AC98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5981047</v>
+        <v>5981046</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
+        <v>1.4</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>7</v>
+      </c>
+      <c r="N99">
+        <v>1.85</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>3.8</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>1.925</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.375</v>
-      </c>
-      <c r="L99">
-        <v>3.4</v>
-      </c>
-      <c r="M99">
-        <v>2.5</v>
-      </c>
-      <c r="N99">
-        <v>2.8</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>2.15</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.85</v>
-      </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5981054</v>
+        <v>5981055</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,76 +9801,76 @@
         <v>45018.83333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>48</v>
+      </c>
+      <c r="K105">
+        <v>1.5</v>
+      </c>
+      <c r="L105">
         <v>4</v>
       </c>
-      <c r="J105" t="s">
-        <v>47</v>
-      </c>
-      <c r="K105">
-        <v>3.4</v>
-      </c>
-      <c r="L105">
-        <v>3.5</v>
-      </c>
       <c r="M105">
+        <v>5</v>
+      </c>
+      <c r="N105">
+        <v>1.615</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>4.5</v>
+      </c>
+      <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
         <v>1.95</v>
       </c>
-      <c r="N105">
-        <v>3.25</v>
-      </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
-      <c r="P105">
-        <v>2</v>
-      </c>
-      <c r="Q105">
-        <v>0.25</v>
-      </c>
-      <c r="R105">
-        <v>2.025</v>
-      </c>
-      <c r="S105">
-        <v>1.775</v>
-      </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA105">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5981055</v>
+        <v>5981054</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45018.83333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N106">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z106">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5981088</v>
+        <v>5981089</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>47</v>
       </c>
       <c r="K141">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N141">
+        <v>5.25</v>
+      </c>
+      <c r="O141">
         <v>4.2</v>
       </c>
-      <c r="O141">
-        <v>3.75</v>
-      </c>
       <c r="P141">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,19 +13062,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
+        <v>-0</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB141">
-        <v>0.875</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5981089</v>
+        <v>5981088</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,55 +13094,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>47</v>
       </c>
       <c r="K142">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="N142">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13151,19 +13151,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45137.625</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K193">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M193">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N193">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P193">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q193">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R193">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
         <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V193">
         <v>1.925</v>
       </c>
       <c r="W193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z193">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45137.625</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K194">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L194">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M194">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N194">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O194">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q194">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S194">
         <v>1.95</v>
       </c>
       <c r="T194">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U194">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
         <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
         <v>0</v>
       </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K220">
+        <v>2.375</v>
+      </c>
+      <c r="L220">
+        <v>3.4</v>
+      </c>
+      <c r="M220">
+        <v>2.5</v>
+      </c>
+      <c r="N220">
+        <v>2.15</v>
+      </c>
+      <c r="O220">
         <v>3.5</v>
       </c>
-      <c r="L220">
-        <v>3.5</v>
-      </c>
-      <c r="M220">
-        <v>1.833</v>
-      </c>
-      <c r="N220">
-        <v>4.333</v>
-      </c>
-      <c r="O220">
-        <v>3.75</v>
-      </c>
       <c r="P220">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q220">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA220">
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
         <v>0.95</v>
-      </c>
-      <c r="AB220">
-        <v>-1</v>
-      </c>
-      <c r="AC220">
-        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K221">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M221">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N221">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P221">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R221">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W221">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z221">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -24830,7 +24830,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24842,49 +24842,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G274" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274" t="s">
+        <v>47</v>
+      </c>
+      <c r="K274">
         <v>3</v>
       </c>
-      <c r="I274">
-        <v>0</v>
-      </c>
-      <c r="J274" t="s">
-        <v>48</v>
-      </c>
-      <c r="K274">
-        <v>1.181</v>
-      </c>
       <c r="L274">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M274">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N274">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O274">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P274">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q274">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R274">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S274">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T274">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U274">
         <v>1.8</v>
@@ -24893,19 +24893,19 @@
         <v>2</v>
       </c>
       <c r="W274">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z274">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB274">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,49 +24931,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G275" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H275">
+        <v>3</v>
+      </c>
+      <c r="I275">
         <v>0</v>
       </c>
-      <c r="I275">
+      <c r="J275" t="s">
+        <v>48</v>
+      </c>
+      <c r="K275">
+        <v>1.181</v>
+      </c>
+      <c r="L275">
+        <v>6</v>
+      </c>
+      <c r="M275">
+        <v>10</v>
+      </c>
+      <c r="N275">
+        <v>1.1</v>
+      </c>
+      <c r="O275">
+        <v>9</v>
+      </c>
+      <c r="P275">
+        <v>19</v>
+      </c>
+      <c r="Q275">
+        <v>-2.5</v>
+      </c>
+      <c r="R275">
+        <v>1.8</v>
+      </c>
+      <c r="S275">
         <v>2</v>
       </c>
-      <c r="J275" t="s">
-        <v>47</v>
-      </c>
-      <c r="K275">
-        <v>3</v>
-      </c>
-      <c r="L275">
-        <v>3.6</v>
-      </c>
-      <c r="M275">
-        <v>2</v>
-      </c>
-      <c r="N275">
-        <v>4</v>
-      </c>
-      <c r="O275">
-        <v>3.8</v>
-      </c>
-      <c r="P275">
-        <v>1.666</v>
-      </c>
-      <c r="Q275">
-        <v>0.75</v>
-      </c>
-      <c r="R275">
-        <v>1.925</v>
-      </c>
-      <c r="S275">
-        <v>1.875</v>
-      </c>
       <c r="T275">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U275">
         <v>1.8</v>
@@ -24982,19 +24982,19 @@
         <v>2</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,13 +26800,13 @@
         <v>45214.625</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G296" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -26815,40 +26815,40 @@
         <v>47</v>
       </c>
       <c r="K296">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L296">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M296">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N296">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O296">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P296">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q296">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R296">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S296">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T296">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V296">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26857,16 +26857,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB296">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,13 +26889,13 @@
         <v>45214.625</v>
       </c>
       <c r="F297" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I297">
         <v>6</v>
@@ -26904,40 +26904,40 @@
         <v>47</v>
       </c>
       <c r="K297">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L297">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M297">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N297">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O297">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P297">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q297">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S297">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,16 +26946,16 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB297">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,10 +26978,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G298" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -26993,40 +26993,40 @@
         <v>47</v>
       </c>
       <c r="K298">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L298">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M298">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N298">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O298">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P298">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q298">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R298">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S298">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T298">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U298">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V298">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,19 +27035,19 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z298">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,10 +27067,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G299" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27082,40 +27082,40 @@
         <v>47</v>
       </c>
       <c r="K299">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L299">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M299">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N299">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O299">
+        <v>6.5</v>
+      </c>
+      <c r="P299">
+        <v>1.142</v>
+      </c>
+      <c r="Q299">
+        <v>2.25</v>
+      </c>
+      <c r="R299">
+        <v>1.95</v>
+      </c>
+      <c r="S299">
+        <v>1.85</v>
+      </c>
+      <c r="T299">
         <v>3.75</v>
       </c>
-      <c r="P299">
-        <v>1.666</v>
-      </c>
-      <c r="Q299">
-        <v>0.75</v>
-      </c>
-      <c r="R299">
-        <v>1.925</v>
-      </c>
-      <c r="S299">
-        <v>1.875</v>
-      </c>
-      <c r="T299">
-        <v>2.75</v>
-      </c>
       <c r="U299">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V299">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W299">
         <v>-1</v>
@@ -27124,19 +27124,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z299">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA299">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -28390,7 +28390,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28402,76 +28402,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G314" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314" t="s">
+        <v>49</v>
+      </c>
+      <c r="K314">
+        <v>2.1</v>
+      </c>
+      <c r="L314">
+        <v>3.5</v>
+      </c>
+      <c r="M314">
+        <v>2.875</v>
+      </c>
+      <c r="N314">
+        <v>1.7</v>
+      </c>
+      <c r="O314">
+        <v>3.75</v>
+      </c>
+      <c r="P314">
+        <v>4</v>
+      </c>
+      <c r="Q314">
+        <v>-0.75</v>
+      </c>
+      <c r="R314">
+        <v>1.95</v>
+      </c>
+      <c r="S314">
+        <v>1.85</v>
+      </c>
+      <c r="T314">
         <v>3</v>
       </c>
-      <c r="J314" t="s">
-        <v>47</v>
-      </c>
-      <c r="K314">
-        <v>23</v>
-      </c>
-      <c r="L314">
-        <v>13</v>
-      </c>
-      <c r="M314">
-        <v>1.03</v>
-      </c>
-      <c r="N314">
-        <v>29</v>
-      </c>
-      <c r="O314">
-        <v>12</v>
-      </c>
-      <c r="P314">
-        <v>1.055</v>
-      </c>
-      <c r="Q314">
-        <v>3</v>
-      </c>
-      <c r="R314">
-        <v>2</v>
-      </c>
-      <c r="S314">
-        <v>1.8</v>
-      </c>
-      <c r="T314">
-        <v>4</v>
-      </c>
       <c r="U314">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V314">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W314">
         <v>-1</v>
       </c>
       <c r="X314">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y314">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28479,7 +28479,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28491,76 +28491,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G315" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H315">
         <v>1</v>
       </c>
       <c r="I315">
+        <v>3</v>
+      </c>
+      <c r="J315" t="s">
+        <v>47</v>
+      </c>
+      <c r="K315">
+        <v>23</v>
+      </c>
+      <c r="L315">
+        <v>13</v>
+      </c>
+      <c r="M315">
+        <v>1.03</v>
+      </c>
+      <c r="N315">
+        <v>29</v>
+      </c>
+      <c r="O315">
+        <v>12</v>
+      </c>
+      <c r="P315">
+        <v>1.055</v>
+      </c>
+      <c r="Q315">
+        <v>3</v>
+      </c>
+      <c r="R315">
+        <v>2</v>
+      </c>
+      <c r="S315">
+        <v>1.8</v>
+      </c>
+      <c r="T315">
+        <v>4</v>
+      </c>
+      <c r="U315">
+        <v>1.85</v>
+      </c>
+      <c r="V315">
+        <v>1.95</v>
+      </c>
+      <c r="W315">
+        <v>-1</v>
+      </c>
+      <c r="X315">
+        <v>-1</v>
+      </c>
+      <c r="Y315">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z315">
         <v>1</v>
       </c>
-      <c r="J315" t="s">
-        <v>49</v>
-      </c>
-      <c r="K315">
-        <v>2.1</v>
-      </c>
-      <c r="L315">
-        <v>3.5</v>
-      </c>
-      <c r="M315">
-        <v>2.875</v>
-      </c>
-      <c r="N315">
-        <v>1.7</v>
-      </c>
-      <c r="O315">
-        <v>3.75</v>
-      </c>
-      <c r="P315">
-        <v>4</v>
-      </c>
-      <c r="Q315">
-        <v>-0.75</v>
-      </c>
-      <c r="R315">
-        <v>1.95</v>
-      </c>
-      <c r="S315">
-        <v>1.85</v>
-      </c>
-      <c r="T315">
-        <v>3</v>
-      </c>
-      <c r="U315">
-        <v>1.925</v>
-      </c>
-      <c r="V315">
-        <v>1.875</v>
-      </c>
-      <c r="W315">
-        <v>-1</v>
-      </c>
-      <c r="X315">
-        <v>2.75</v>
-      </c>
-      <c r="Y315">
-        <v>-1</v>
-      </c>
-      <c r="Z315">
-        <v>-1</v>
-      </c>
       <c r="AA315">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC315">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -34798,7 +34798,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34810,49 +34810,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F386" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G386" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H386">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J386" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K386">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L386">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M386">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N386">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O386">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P386">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q386">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R386">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S386">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T386">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U386">
         <v>1.8</v>
@@ -34861,25 +34861,25 @@
         <v>2</v>
       </c>
       <c r="W386">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X386">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y386">
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA386">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB386">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC386">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34887,7 +34887,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34899,49 +34899,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F387" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G387" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K387">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L387">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M387">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N387">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O387">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P387">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q387">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R387">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S387">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T387">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U387">
         <v>1.8</v>
@@ -34950,25 +34950,25 @@
         <v>2</v>
       </c>
       <c r="W387">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X387">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA387">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB387">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC387">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G394" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H394">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I394">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J394" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K394">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L394">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M394">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N394">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O394">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P394">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q394">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R394">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S394">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T394">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U394">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V394">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA394">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -35599,7 +35599,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,73 +35611,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F395" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G395" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H395">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I395">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J395" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K395">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L395">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M395">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N395">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O395">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P395">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q395">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R395">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S395">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T395">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U395">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V395">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W395">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z395">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB395">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC395">
         <v>-1</v>
@@ -35688,7 +35688,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35700,49 +35700,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G396" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I396">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J396" t="s">
         <v>47</v>
       </c>
       <c r="K396">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L396">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M396">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N396">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O396">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P396">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q396">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R396">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S396">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T396">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U396">
         <v>1.75</v>
@@ -35757,13 +35757,13 @@
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z396">
         <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB396">
         <v>0.75</v>
@@ -35777,7 +35777,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35789,56 +35789,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F397" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G397" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J397" t="s">
         <v>47</v>
       </c>
       <c r="K397">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L397">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M397">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N397">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O397">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P397">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q397">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R397">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S397">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T397">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U397">
+        <v>1.925</v>
+      </c>
+      <c r="V397">
         <v>1.775</v>
       </c>
-      <c r="V397">
-        <v>2.025</v>
-      </c>
       <c r="W397">
         <v>-1</v>
       </c>
@@ -35846,19 +35846,19 @@
         <v>-1</v>
       </c>
       <c r="Y397">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z397">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB397">
+        <v>-1</v>
+      </c>
+      <c r="AC397">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC397">
-        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35866,7 +35866,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35878,55 +35878,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F398" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G398" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J398" t="s">
         <v>47</v>
       </c>
       <c r="K398">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L398">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M398">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N398">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O398">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P398">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q398">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R398">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S398">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T398">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U398">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V398">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W398">
         <v>-1</v>
@@ -35935,19 +35935,19 @@
         <v>-1</v>
       </c>
       <c r="Y398">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z398">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA398">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC398">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981013</v>
+        <v>5981012</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981012</v>
+        <v>5981013</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>0.825</v>
+      </c>
+      <c r="AB69">
         <v>0</v>
       </c>
-      <c r="AA69">
+      <c r="AC69">
         <v>-0</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
-      <c r="AC69">
-        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5981055</v>
+        <v>5981054</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,76 +9801,76 @@
         <v>45018.83333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N105">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z105">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5981054</v>
+        <v>5981055</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45018.83333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106">
+        <v>1.5</v>
+      </c>
+      <c r="L106">
         <v>4</v>
       </c>
-      <c r="J106" t="s">
-        <v>47</v>
-      </c>
-      <c r="K106">
-        <v>3.4</v>
-      </c>
-      <c r="L106">
-        <v>3.5</v>
-      </c>
       <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>1.615</v>
+      </c>
+      <c r="O106">
+        <v>4</v>
+      </c>
+      <c r="P106">
+        <v>4.5</v>
+      </c>
+      <c r="Q106">
+        <v>-0.75</v>
+      </c>
+      <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
         <v>1.95</v>
       </c>
-      <c r="N106">
-        <v>3.25</v>
-      </c>
-      <c r="O106">
-        <v>3.5</v>
-      </c>
-      <c r="P106">
-        <v>2</v>
-      </c>
-      <c r="Q106">
-        <v>0.25</v>
-      </c>
-      <c r="R106">
-        <v>2.025</v>
-      </c>
-      <c r="S106">
-        <v>1.775</v>
-      </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA106">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5981070</v>
+        <v>5981069</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,40 +11136,40 @@
         <v>45039.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
         <v>1.75</v>
@@ -11178,19 +11178,19 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X120">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11202,10 +11202,10 @@
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5981069</v>
+        <v>5981070</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,40 +11225,40 @@
         <v>45039.83333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N121">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R121">
         <v>1.75</v>
@@ -11267,19 +11267,19 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11291,10 +11291,10 @@
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5981089</v>
+        <v>5981088</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>47</v>
       </c>
       <c r="K141">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="N141">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q141">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,19 +13062,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5981088</v>
+        <v>5981089</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,55 +13094,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
         <v>1</v>
-      </c>
-      <c r="I142">
-        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>47</v>
       </c>
       <c r="K142">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N142">
+        <v>5.25</v>
+      </c>
+      <c r="O142">
         <v>4.2</v>
       </c>
-      <c r="O142">
-        <v>3.75</v>
-      </c>
       <c r="P142">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13151,19 +13151,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA142">
+        <v>-0</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB142">
-        <v>0.875</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45137.625</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K193">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L193">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N193">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O193">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q193">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S193">
         <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U193">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
         <v>1.925</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45137.625</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K194">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L194">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M194">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N194">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P194">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q194">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R194">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
         <v>1.95</v>
       </c>
       <c r="T194">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V194">
         <v>1.925</v>
       </c>
       <c r="W194">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z194">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -28390,7 +28390,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28402,76 +28402,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G314" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
+        <v>3</v>
+      </c>
+      <c r="J314" t="s">
+        <v>47</v>
+      </c>
+      <c r="K314">
+        <v>23</v>
+      </c>
+      <c r="L314">
+        <v>13</v>
+      </c>
+      <c r="M314">
+        <v>1.03</v>
+      </c>
+      <c r="N314">
+        <v>29</v>
+      </c>
+      <c r="O314">
+        <v>12</v>
+      </c>
+      <c r="P314">
+        <v>1.055</v>
+      </c>
+      <c r="Q314">
+        <v>3</v>
+      </c>
+      <c r="R314">
+        <v>2</v>
+      </c>
+      <c r="S314">
+        <v>1.8</v>
+      </c>
+      <c r="T314">
+        <v>4</v>
+      </c>
+      <c r="U314">
+        <v>1.85</v>
+      </c>
+      <c r="V314">
+        <v>1.95</v>
+      </c>
+      <c r="W314">
+        <v>-1</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z314">
         <v>1</v>
       </c>
-      <c r="J314" t="s">
-        <v>49</v>
-      </c>
-      <c r="K314">
-        <v>2.1</v>
-      </c>
-      <c r="L314">
-        <v>3.5</v>
-      </c>
-      <c r="M314">
-        <v>2.875</v>
-      </c>
-      <c r="N314">
-        <v>1.7</v>
-      </c>
-      <c r="O314">
-        <v>3.75</v>
-      </c>
-      <c r="P314">
-        <v>4</v>
-      </c>
-      <c r="Q314">
-        <v>-0.75</v>
-      </c>
-      <c r="R314">
-        <v>1.95</v>
-      </c>
-      <c r="S314">
-        <v>1.85</v>
-      </c>
-      <c r="T314">
-        <v>3</v>
-      </c>
-      <c r="U314">
-        <v>1.925</v>
-      </c>
-      <c r="V314">
-        <v>1.875</v>
-      </c>
-      <c r="W314">
-        <v>-1</v>
-      </c>
-      <c r="X314">
-        <v>2.75</v>
-      </c>
-      <c r="Y314">
-        <v>-1</v>
-      </c>
-      <c r="Z314">
-        <v>-1</v>
-      </c>
       <c r="AA314">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC314">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28479,7 +28479,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28491,76 +28491,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G315" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H315">
         <v>1</v>
       </c>
       <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" t="s">
+        <v>49</v>
+      </c>
+      <c r="K315">
+        <v>2.1</v>
+      </c>
+      <c r="L315">
+        <v>3.5</v>
+      </c>
+      <c r="M315">
+        <v>2.875</v>
+      </c>
+      <c r="N315">
+        <v>1.7</v>
+      </c>
+      <c r="O315">
+        <v>3.75</v>
+      </c>
+      <c r="P315">
+        <v>4</v>
+      </c>
+      <c r="Q315">
+        <v>-0.75</v>
+      </c>
+      <c r="R315">
+        <v>1.95</v>
+      </c>
+      <c r="S315">
+        <v>1.85</v>
+      </c>
+      <c r="T315">
         <v>3</v>
       </c>
-      <c r="J315" t="s">
-        <v>47</v>
-      </c>
-      <c r="K315">
-        <v>23</v>
-      </c>
-      <c r="L315">
-        <v>13</v>
-      </c>
-      <c r="M315">
-        <v>1.03</v>
-      </c>
-      <c r="N315">
-        <v>29</v>
-      </c>
-      <c r="O315">
-        <v>12</v>
-      </c>
-      <c r="P315">
-        <v>1.055</v>
-      </c>
-      <c r="Q315">
-        <v>3</v>
-      </c>
-      <c r="R315">
-        <v>2</v>
-      </c>
-      <c r="S315">
-        <v>1.8</v>
-      </c>
-      <c r="T315">
-        <v>4</v>
-      </c>
       <c r="U315">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V315">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y315">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -34086,7 +34086,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34098,76 +34098,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F378" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G378" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H378">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I378">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J378" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K378">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L378">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M378">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N378">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O378">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P378">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q378">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R378">
+        <v>1.95</v>
+      </c>
+      <c r="S378">
+        <v>1.85</v>
+      </c>
+      <c r="T378">
+        <v>3.25</v>
+      </c>
+      <c r="U378">
+        <v>1.95</v>
+      </c>
+      <c r="V378">
         <v>1.75</v>
       </c>
-      <c r="S378">
-        <v>2.05</v>
-      </c>
-      <c r="T378">
-        <v>3.75</v>
-      </c>
-      <c r="U378">
-        <v>1.9</v>
-      </c>
-      <c r="V378">
-        <v>1.9</v>
-      </c>
       <c r="W378">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z378">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB378">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34175,7 +34175,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34187,76 +34187,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G379" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H379">
+        <v>6</v>
+      </c>
+      <c r="I379">
         <v>0</v>
       </c>
-      <c r="I379">
-        <v>3</v>
-      </c>
       <c r="J379" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K379">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M379">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N379">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O379">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P379">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q379">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R379">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S379">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T379">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U379">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V379">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA379">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC379">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -35599,7 +35599,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,49 +35611,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F395" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G395" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I395">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J395" t="s">
         <v>47</v>
       </c>
       <c r="K395">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L395">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M395">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N395">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O395">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P395">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q395">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R395">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S395">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T395">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U395">
         <v>1.75</v>
@@ -35668,13 +35668,13 @@
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z395">
         <v>-1</v>
       </c>
       <c r="AA395">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB395">
         <v>0.75</v>
@@ -35688,7 +35688,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35700,49 +35700,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G396" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H396">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J396" t="s">
         <v>47</v>
       </c>
       <c r="K396">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L396">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M396">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N396">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O396">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P396">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q396">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R396">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S396">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T396">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U396">
         <v>1.75</v>
@@ -35757,13 +35757,13 @@
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z396">
         <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB396">
         <v>0.75</v>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5981108</v>
+        <v>5980998</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>5.5</v>
+        <v>1.142</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M50">
-        <v>1.45</v>
+        <v>12</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>1.142</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="P50">
-        <v>1.333</v>
+        <v>15</v>
       </c>
       <c r="Q50">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R50">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5980998</v>
+        <v>5981108</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>44967.78125</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>5.5</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1.45</v>
+      </c>
+      <c r="N51">
+        <v>7</v>
+      </c>
+      <c r="O51">
+        <v>4.5</v>
+      </c>
+      <c r="P51">
+        <v>1.333</v>
+      </c>
+      <c r="Q51">
+        <v>1.5</v>
+      </c>
+      <c r="R51">
+        <v>1.825</v>
+      </c>
+      <c r="S51">
+        <v>1.975</v>
+      </c>
+      <c r="T51">
+        <v>2.5</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
         <v>2</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K51">
-        <v>1.142</v>
-      </c>
-      <c r="L51">
-        <v>6.5</v>
-      </c>
-      <c r="M51">
-        <v>12</v>
-      </c>
-      <c r="N51">
-        <v>1.142</v>
-      </c>
-      <c r="O51">
-        <v>7.5</v>
-      </c>
-      <c r="P51">
-        <v>15</v>
-      </c>
-      <c r="Q51">
-        <v>-2.5</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.75</v>
-      </c>
-      <c r="T51">
-        <v>3.5</v>
-      </c>
-      <c r="U51">
-        <v>2.05</v>
-      </c>
-      <c r="V51">
-        <v>1.75</v>
-      </c>
       <c r="W51">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5981027</v>
+        <v>5981029</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,76 +7487,76 @@
         <v>44998.91666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K79">
         <v>5</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="s">
-        <v>48</v>
-      </c>
-      <c r="K79">
-        <v>1.222</v>
-      </c>
       <c r="L79">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="N79">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="O79">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="Q79">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5981029</v>
+        <v>5981027</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>44998.91666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M80">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="N80">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P80">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X80">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5981047</v>
+        <v>5981046</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98">
+        <v>1.4</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>7</v>
+      </c>
+      <c r="N98">
+        <v>1.85</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>3.8</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
+        <v>1.925</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
         <v>2</v>
       </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.375</v>
-      </c>
-      <c r="L98">
-        <v>3.4</v>
-      </c>
-      <c r="M98">
-        <v>2.5</v>
-      </c>
-      <c r="N98">
-        <v>2.8</v>
-      </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
-      <c r="P98">
-        <v>2.15</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.85</v>
-      </c>
-      <c r="S98">
-        <v>1.95</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.85</v>
-      </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5981046</v>
+        <v>5981047</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N99">
+        <v>2.8</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
+        <v>2.15</v>
+      </c>
+      <c r="Q99">
+        <v>0.25</v>
+      </c>
+      <c r="R99">
         <v>1.85</v>
       </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>3.8</v>
-      </c>
-      <c r="Q99">
-        <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>1.15</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.95</v>
+      </c>
+      <c r="AB99">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.875</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5981069</v>
+        <v>5981070</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,40 +11136,40 @@
         <v>45039.83333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N120">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R120">
         <v>1.75</v>
@@ -11178,19 +11178,19 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11202,10 +11202,10 @@
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5981070</v>
+        <v>5981069</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,40 +11225,40 @@
         <v>45039.83333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
         <v>1.75</v>
@@ -11267,19 +11267,19 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X121">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11291,10 +11291,10 @@
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45137.625</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K193">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M193">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N193">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P193">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q193">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R193">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
         <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V193">
         <v>1.925</v>
       </c>
       <c r="W193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z193">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45137.625</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K194">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L194">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M194">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N194">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O194">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q194">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S194">
         <v>1.95</v>
       </c>
       <c r="T194">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U194">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
         <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,10 +19324,10 @@
         <v>45151.625</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19339,61 +19339,61 @@
         <v>49</v>
       </c>
       <c r="K212">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M212">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N212">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P212">
+        <v>1.333</v>
+      </c>
+      <c r="Q212">
+        <v>1.5</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
         <v>3</v>
       </c>
-      <c r="Q212">
-        <v>-0.25</v>
-      </c>
-      <c r="R212">
+      <c r="U212">
         <v>1.925</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.875</v>
       </c>
-      <c r="T212">
-        <v>2.75</v>
-      </c>
-      <c r="U212">
-        <v>1.85</v>
-      </c>
-      <c r="V212">
-        <v>1.95</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA212">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,10 +19413,10 @@
         <v>45151.625</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19428,61 +19428,61 @@
         <v>49</v>
       </c>
       <c r="K213">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L213">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M213">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N213">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O213">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P213">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q213">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N220">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z220">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>2</v>
-      </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K221">
+        <v>2.375</v>
+      </c>
+      <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
+        <v>2.5</v>
+      </c>
+      <c r="N221">
+        <v>2.15</v>
+      </c>
+      <c r="O221">
         <v>3.5</v>
       </c>
-      <c r="L221">
-        <v>3.5</v>
-      </c>
-      <c r="M221">
-        <v>1.833</v>
-      </c>
-      <c r="N221">
-        <v>4.333</v>
-      </c>
-      <c r="O221">
-        <v>3.75</v>
-      </c>
       <c r="P221">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q221">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA221">
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
         <v>0.95</v>
-      </c>
-      <c r="AB221">
-        <v>-1</v>
-      </c>
-      <c r="AC221">
-        <v>0.825</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -24830,7 +24830,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24842,49 +24842,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G274" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H274">
+        <v>3</v>
+      </c>
+      <c r="I274">
         <v>0</v>
       </c>
-      <c r="I274">
+      <c r="J274" t="s">
+        <v>48</v>
+      </c>
+      <c r="K274">
+        <v>1.181</v>
+      </c>
+      <c r="L274">
+        <v>6</v>
+      </c>
+      <c r="M274">
+        <v>10</v>
+      </c>
+      <c r="N274">
+        <v>1.1</v>
+      </c>
+      <c r="O274">
+        <v>9</v>
+      </c>
+      <c r="P274">
+        <v>19</v>
+      </c>
+      <c r="Q274">
+        <v>-2.5</v>
+      </c>
+      <c r="R274">
+        <v>1.8</v>
+      </c>
+      <c r="S274">
         <v>2</v>
       </c>
-      <c r="J274" t="s">
-        <v>47</v>
-      </c>
-      <c r="K274">
-        <v>3</v>
-      </c>
-      <c r="L274">
-        <v>3.6</v>
-      </c>
-      <c r="M274">
-        <v>2</v>
-      </c>
-      <c r="N274">
-        <v>4</v>
-      </c>
-      <c r="O274">
-        <v>3.8</v>
-      </c>
-      <c r="P274">
-        <v>1.666</v>
-      </c>
-      <c r="Q274">
-        <v>0.75</v>
-      </c>
-      <c r="R274">
-        <v>1.925</v>
-      </c>
-      <c r="S274">
-        <v>1.875</v>
-      </c>
       <c r="T274">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U274">
         <v>1.8</v>
@@ -24893,19 +24893,19 @@
         <v>2</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA274">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,49 +24931,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G275" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275" t="s">
+        <v>47</v>
+      </c>
+      <c r="K275">
         <v>3</v>
       </c>
-      <c r="I275">
-        <v>0</v>
-      </c>
-      <c r="J275" t="s">
-        <v>48</v>
-      </c>
-      <c r="K275">
-        <v>1.181</v>
-      </c>
       <c r="L275">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M275">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N275">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O275">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P275">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q275">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R275">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S275">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T275">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U275">
         <v>1.8</v>
@@ -24982,19 +24982,19 @@
         <v>2</v>
       </c>
       <c r="W275">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z275">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,13 +26800,13 @@
         <v>45214.625</v>
       </c>
       <c r="F296" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -26815,40 +26815,40 @@
         <v>47</v>
       </c>
       <c r="K296">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L296">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N296">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O296">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P296">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q296">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R296">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S296">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V296">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26857,16 +26857,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB296">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,13 +26889,13 @@
         <v>45214.625</v>
       </c>
       <c r="F297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G297" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I297">
         <v>6</v>
@@ -26904,40 +26904,40 @@
         <v>47</v>
       </c>
       <c r="K297">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L297">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M297">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N297">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O297">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P297">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q297">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R297">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S297">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T297">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,16 +26946,16 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB297">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -34086,7 +34086,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34098,76 +34098,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F378" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G378" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H378">
+        <v>6</v>
+      </c>
+      <c r="I378">
         <v>0</v>
       </c>
-      <c r="I378">
-        <v>3</v>
-      </c>
       <c r="J378" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K378">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L378">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M378">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N378">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O378">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P378">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q378">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R378">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S378">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T378">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U378">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V378">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA378">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC378">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34175,7 +34175,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34187,76 +34187,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G379" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H379">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K379">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L379">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M379">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N379">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O379">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P379">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q379">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R379">
+        <v>1.95</v>
+      </c>
+      <c r="S379">
+        <v>1.85</v>
+      </c>
+      <c r="T379">
+        <v>3.25</v>
+      </c>
+      <c r="U379">
+        <v>1.95</v>
+      </c>
+      <c r="V379">
         <v>1.75</v>
       </c>
-      <c r="S379">
-        <v>2.05</v>
-      </c>
-      <c r="T379">
-        <v>3.75</v>
-      </c>
-      <c r="U379">
-        <v>1.9</v>
-      </c>
-      <c r="V379">
-        <v>1.9</v>
-      </c>
       <c r="W379">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z379">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB379">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC379">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G394" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H394">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I394">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J394" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K394">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L394">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M394">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N394">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O394">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P394">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q394">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R394">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S394">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T394">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U394">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V394">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W394">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z394">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB394">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -35599,7 +35599,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,73 +35611,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F395" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G395" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H395">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I395">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J395" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K395">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L395">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M395">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N395">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O395">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P395">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q395">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R395">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S395">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T395">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U395">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V395">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W395">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z395">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA395">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB395">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC395">
         <v>-1</v>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981012</v>
+        <v>5981013</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N68">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.825</v>
+      </c>
+      <c r="AB68">
         <v>0</v>
       </c>
-      <c r="AA68">
+      <c r="AC68">
         <v>-0</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981013</v>
+        <v>5981012</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N69">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5981046</v>
+        <v>5981047</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
+        <v>2.8</v>
+      </c>
+      <c r="O98">
+        <v>3.5</v>
+      </c>
+      <c r="P98">
+        <v>2.15</v>
+      </c>
+      <c r="Q98">
+        <v>0.25</v>
+      </c>
+      <c r="R98">
         <v>1.85</v>
       </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>3.8</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.875</v>
-      </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>1.15</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.95</v>
+      </c>
+      <c r="AB98">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>0.875</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
       <c r="AC98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5981047</v>
+        <v>5981046</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
+        <v>1.4</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>7</v>
+      </c>
+      <c r="N99">
+        <v>1.85</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>3.8</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>1.925</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.375</v>
-      </c>
-      <c r="L99">
-        <v>3.4</v>
-      </c>
-      <c r="M99">
-        <v>2.5</v>
-      </c>
-      <c r="N99">
-        <v>2.8</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>2.15</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.85</v>
-      </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5981073</v>
+        <v>5981075</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45040.91666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124">
+        <v>6</v>
+      </c>
+      <c r="L124">
+        <v>5.5</v>
+      </c>
+      <c r="M124">
+        <v>1.3</v>
+      </c>
+      <c r="N124">
+        <v>7.5</v>
+      </c>
+      <c r="O124">
+        <v>6</v>
+      </c>
+      <c r="P124">
+        <v>1.222</v>
+      </c>
+      <c r="Q124">
         <v>2</v>
       </c>
-      <c r="I124">
+      <c r="R124">
+        <v>1.75</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>3.25</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>1.8</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>0.222</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>0.95</v>
+      </c>
+      <c r="AB124">
         <v>1</v>
       </c>
-      <c r="J124" t="s">
-        <v>48</v>
-      </c>
-      <c r="K124">
-        <v>1.083</v>
-      </c>
-      <c r="L124">
-        <v>9</v>
-      </c>
-      <c r="M124">
-        <v>17</v>
-      </c>
-      <c r="N124">
-        <v>1.071</v>
-      </c>
-      <c r="O124">
-        <v>9.5</v>
-      </c>
-      <c r="P124">
-        <v>26</v>
-      </c>
-      <c r="Q124">
-        <v>-2.75</v>
-      </c>
-      <c r="R124">
-        <v>1.975</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.975</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
-      <c r="W124">
-        <v>0.07099999999999995</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.825</v>
-      </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5981075</v>
+        <v>5981073</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45040.91666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>6</v>
+        <v>1.083</v>
       </c>
       <c r="L125">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="M125">
-        <v>1.3</v>
+        <v>17</v>
       </c>
       <c r="N125">
-        <v>7.5</v>
+        <v>1.071</v>
       </c>
       <c r="O125">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="P125">
-        <v>1.222</v>
+        <v>26</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>-2.75</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,10 +19324,10 @@
         <v>45151.625</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19339,61 +19339,61 @@
         <v>49</v>
       </c>
       <c r="K212">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L212">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N212">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O212">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q212">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,10 +19413,10 @@
         <v>45151.625</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19428,61 +19428,61 @@
         <v>49</v>
       </c>
       <c r="K213">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N213">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P213">
+        <v>1.333</v>
+      </c>
+      <c r="Q213">
+        <v>1.5</v>
+      </c>
+      <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
+        <v>1.975</v>
+      </c>
+      <c r="T213">
         <v>3</v>
       </c>
-      <c r="Q213">
-        <v>-0.25</v>
-      </c>
-      <c r="R213">
+      <c r="U213">
         <v>1.925</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.875</v>
       </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>1.85</v>
-      </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -24830,7 +24830,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24842,49 +24842,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G274" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274" t="s">
+        <v>47</v>
+      </c>
+      <c r="K274">
         <v>3</v>
       </c>
-      <c r="I274">
-        <v>0</v>
-      </c>
-      <c r="J274" t="s">
-        <v>48</v>
-      </c>
-      <c r="K274">
-        <v>1.181</v>
-      </c>
       <c r="L274">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M274">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N274">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O274">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P274">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q274">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R274">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S274">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T274">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U274">
         <v>1.8</v>
@@ -24893,19 +24893,19 @@
         <v>2</v>
       </c>
       <c r="W274">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z274">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB274">
         <v>-1</v>
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,49 +24931,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G275" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H275">
+        <v>3</v>
+      </c>
+      <c r="I275">
         <v>0</v>
       </c>
-      <c r="I275">
+      <c r="J275" t="s">
+        <v>48</v>
+      </c>
+      <c r="K275">
+        <v>1.181</v>
+      </c>
+      <c r="L275">
+        <v>6</v>
+      </c>
+      <c r="M275">
+        <v>10</v>
+      </c>
+      <c r="N275">
+        <v>1.1</v>
+      </c>
+      <c r="O275">
+        <v>9</v>
+      </c>
+      <c r="P275">
+        <v>19</v>
+      </c>
+      <c r="Q275">
+        <v>-2.5</v>
+      </c>
+      <c r="R275">
+        <v>1.8</v>
+      </c>
+      <c r="S275">
         <v>2</v>
       </c>
-      <c r="J275" t="s">
-        <v>47</v>
-      </c>
-      <c r="K275">
-        <v>3</v>
-      </c>
-      <c r="L275">
-        <v>3.6</v>
-      </c>
-      <c r="M275">
-        <v>2</v>
-      </c>
-      <c r="N275">
-        <v>4</v>
-      </c>
-      <c r="O275">
-        <v>3.8</v>
-      </c>
-      <c r="P275">
-        <v>1.666</v>
-      </c>
-      <c r="Q275">
-        <v>0.75</v>
-      </c>
-      <c r="R275">
-        <v>1.925</v>
-      </c>
-      <c r="S275">
-        <v>1.875</v>
-      </c>
       <c r="T275">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U275">
         <v>1.8</v>
@@ -24982,19 +24982,19 @@
         <v>2</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,13 +26800,13 @@
         <v>45214.625</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G296" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -26815,40 +26815,40 @@
         <v>47</v>
       </c>
       <c r="K296">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L296">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M296">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N296">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O296">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P296">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q296">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R296">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S296">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T296">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V296">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26857,16 +26857,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB296">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,13 +26889,13 @@
         <v>45214.625</v>
       </c>
       <c r="F297" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I297">
         <v>6</v>
@@ -26904,40 +26904,40 @@
         <v>47</v>
       </c>
       <c r="K297">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L297">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M297">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N297">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O297">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P297">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q297">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S297">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,16 +26946,16 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB297">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,10 +26978,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G298" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -26993,40 +26993,40 @@
         <v>47</v>
       </c>
       <c r="K298">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L298">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M298">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N298">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O298">
+        <v>6.5</v>
+      </c>
+      <c r="P298">
+        <v>1.142</v>
+      </c>
+      <c r="Q298">
+        <v>2.25</v>
+      </c>
+      <c r="R298">
+        <v>1.95</v>
+      </c>
+      <c r="S298">
+        <v>1.85</v>
+      </c>
+      <c r="T298">
         <v>3.75</v>
       </c>
-      <c r="P298">
-        <v>1.666</v>
-      </c>
-      <c r="Q298">
-        <v>0.75</v>
-      </c>
-      <c r="R298">
-        <v>1.925</v>
-      </c>
-      <c r="S298">
-        <v>1.875</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
-      </c>
       <c r="U298">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V298">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,19 +27035,19 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z298">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA298">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,10 +27067,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G299" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27082,40 +27082,40 @@
         <v>47</v>
       </c>
       <c r="K299">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L299">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M299">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N299">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O299">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P299">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q299">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R299">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S299">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T299">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V299">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W299">
         <v>-1</v>
@@ -27124,19 +27124,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z299">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -28390,7 +28390,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28402,76 +28402,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G314" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314" t="s">
+        <v>49</v>
+      </c>
+      <c r="K314">
+        <v>2.1</v>
+      </c>
+      <c r="L314">
+        <v>3.5</v>
+      </c>
+      <c r="M314">
+        <v>2.875</v>
+      </c>
+      <c r="N314">
+        <v>1.7</v>
+      </c>
+      <c r="O314">
+        <v>3.75</v>
+      </c>
+      <c r="P314">
+        <v>4</v>
+      </c>
+      <c r="Q314">
+        <v>-0.75</v>
+      </c>
+      <c r="R314">
+        <v>1.95</v>
+      </c>
+      <c r="S314">
+        <v>1.85</v>
+      </c>
+      <c r="T314">
         <v>3</v>
       </c>
-      <c r="J314" t="s">
-        <v>47</v>
-      </c>
-      <c r="K314">
-        <v>23</v>
-      </c>
-      <c r="L314">
-        <v>13</v>
-      </c>
-      <c r="M314">
-        <v>1.03</v>
-      </c>
-      <c r="N314">
-        <v>29</v>
-      </c>
-      <c r="O314">
-        <v>12</v>
-      </c>
-      <c r="P314">
-        <v>1.055</v>
-      </c>
-      <c r="Q314">
-        <v>3</v>
-      </c>
-      <c r="R314">
-        <v>2</v>
-      </c>
-      <c r="S314">
-        <v>1.8</v>
-      </c>
-      <c r="T314">
-        <v>4</v>
-      </c>
       <c r="U314">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V314">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W314">
         <v>-1</v>
       </c>
       <c r="X314">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y314">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28479,7 +28479,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28491,76 +28491,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G315" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H315">
         <v>1</v>
       </c>
       <c r="I315">
+        <v>3</v>
+      </c>
+      <c r="J315" t="s">
+        <v>47</v>
+      </c>
+      <c r="K315">
+        <v>23</v>
+      </c>
+      <c r="L315">
+        <v>13</v>
+      </c>
+      <c r="M315">
+        <v>1.03</v>
+      </c>
+      <c r="N315">
+        <v>29</v>
+      </c>
+      <c r="O315">
+        <v>12</v>
+      </c>
+      <c r="P315">
+        <v>1.055</v>
+      </c>
+      <c r="Q315">
+        <v>3</v>
+      </c>
+      <c r="R315">
+        <v>2</v>
+      </c>
+      <c r="S315">
+        <v>1.8</v>
+      </c>
+      <c r="T315">
+        <v>4</v>
+      </c>
+      <c r="U315">
+        <v>1.85</v>
+      </c>
+      <c r="V315">
+        <v>1.95</v>
+      </c>
+      <c r="W315">
+        <v>-1</v>
+      </c>
+      <c r="X315">
+        <v>-1</v>
+      </c>
+      <c r="Y315">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z315">
         <v>1</v>
       </c>
-      <c r="J315" t="s">
-        <v>49</v>
-      </c>
-      <c r="K315">
-        <v>2.1</v>
-      </c>
-      <c r="L315">
-        <v>3.5</v>
-      </c>
-      <c r="M315">
-        <v>2.875</v>
-      </c>
-      <c r="N315">
-        <v>1.7</v>
-      </c>
-      <c r="O315">
-        <v>3.75</v>
-      </c>
-      <c r="P315">
-        <v>4</v>
-      </c>
-      <c r="Q315">
-        <v>-0.75</v>
-      </c>
-      <c r="R315">
-        <v>1.95</v>
-      </c>
-      <c r="S315">
-        <v>1.85</v>
-      </c>
-      <c r="T315">
-        <v>3</v>
-      </c>
-      <c r="U315">
-        <v>1.925</v>
-      </c>
-      <c r="V315">
-        <v>1.875</v>
-      </c>
-      <c r="W315">
-        <v>-1</v>
-      </c>
-      <c r="X315">
-        <v>2.75</v>
-      </c>
-      <c r="Y315">
-        <v>-1</v>
-      </c>
-      <c r="Z315">
-        <v>-1</v>
-      </c>
       <c r="AA315">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC315">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -34264,7 +34264,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34276,58 +34276,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F380" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G380" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380" t="s">
         <v>48</v>
       </c>
       <c r="K380">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L380">
+        <v>5.5</v>
+      </c>
+      <c r="M380">
         <v>7.5</v>
       </c>
-      <c r="M380">
-        <v>15</v>
-      </c>
       <c r="N380">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O380">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P380">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q380">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R380">
+        <v>1.975</v>
+      </c>
+      <c r="S380">
         <v>1.825</v>
       </c>
-      <c r="S380">
-        <v>1.975</v>
-      </c>
       <c r="T380">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U380">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V380">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W380">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34336,16 +34336,16 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA380">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC380">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34353,7 +34353,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34365,58 +34365,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F381" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G381" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H381">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J381" t="s">
         <v>48</v>
       </c>
       <c r="K381">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L381">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M381">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N381">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O381">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P381">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q381">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R381">
+        <v>1.825</v>
+      </c>
+      <c r="S381">
         <v>1.975</v>
       </c>
-      <c r="S381">
-        <v>1.825</v>
-      </c>
       <c r="T381">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U381">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V381">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W381">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34425,16 +34425,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA381">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB381">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC381">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,49 +35522,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G394" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H394">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J394" t="s">
         <v>47</v>
       </c>
       <c r="K394">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L394">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M394">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N394">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O394">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P394">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q394">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R394">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S394">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T394">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U394">
         <v>1.75</v>
@@ -35579,13 +35579,13 @@
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z394">
         <v>-1</v>
       </c>
       <c r="AA394">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB394">
         <v>0.75</v>
@@ -35688,7 +35688,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35700,49 +35700,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G396" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I396">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J396" t="s">
         <v>47</v>
       </c>
       <c r="K396">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L396">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M396">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N396">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O396">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P396">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q396">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R396">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S396">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T396">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U396">
         <v>1.75</v>
@@ -35757,13 +35757,13 @@
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z396">
         <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB396">
         <v>0.75</v>
@@ -35777,7 +35777,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35789,55 +35789,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F397" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G397" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J397" t="s">
         <v>47</v>
       </c>
       <c r="K397">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L397">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M397">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N397">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O397">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P397">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q397">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R397">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S397">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T397">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U397">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V397">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W397">
         <v>-1</v>
@@ -35846,19 +35846,19 @@
         <v>-1</v>
       </c>
       <c r="Y397">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z397">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA397">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB397">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC397">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35866,7 +35866,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35878,56 +35878,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F398" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G398" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J398" t="s">
         <v>47</v>
       </c>
       <c r="K398">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L398">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M398">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N398">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O398">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P398">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q398">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R398">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S398">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T398">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U398">
+        <v>1.925</v>
+      </c>
+      <c r="V398">
         <v>1.775</v>
       </c>
-      <c r="V398">
-        <v>2.025</v>
-      </c>
       <c r="W398">
         <v>-1</v>
       </c>
@@ -35935,19 +35935,19 @@
         <v>-1</v>
       </c>
       <c r="Y398">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z398">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA398">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB398">
+        <v>-1</v>
+      </c>
+      <c r="AC398">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC398">
-        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981013</v>
+        <v>5981012</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981012</v>
+        <v>5981013</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>44990.83333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>0.825</v>
+      </c>
+      <c r="AB69">
         <v>0</v>
       </c>
-      <c r="AA69">
+      <c r="AC69">
         <v>-0</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
-      <c r="AC69">
-        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5981029</v>
+        <v>5981027</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,76 +7487,76 @@
         <v>44998.91666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P79">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X79">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5981027</v>
+        <v>5981029</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>44998.91666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>49</v>
+      </c>
+      <c r="K80">
         <v>5</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" t="s">
-        <v>48</v>
-      </c>
-      <c r="K80">
-        <v>1.222</v>
-      </c>
       <c r="L80">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="N80">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="O80">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="Q80">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5981047</v>
+        <v>5981046</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98">
+        <v>1.4</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>7</v>
+      </c>
+      <c r="N98">
+        <v>1.85</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>3.8</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
+        <v>1.925</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
         <v>2</v>
       </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.375</v>
-      </c>
-      <c r="L98">
-        <v>3.4</v>
-      </c>
-      <c r="M98">
-        <v>2.5</v>
-      </c>
-      <c r="N98">
-        <v>2.8</v>
-      </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
-      <c r="P98">
-        <v>2.15</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.85</v>
-      </c>
-      <c r="S98">
-        <v>1.95</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.85</v>
-      </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5981046</v>
+        <v>5981047</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45011.83333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N99">
+        <v>2.8</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
+        <v>2.15</v>
+      </c>
+      <c r="Q99">
+        <v>0.25</v>
+      </c>
+      <c r="R99">
         <v>1.85</v>
       </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>3.8</v>
-      </c>
-      <c r="Q99">
-        <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>1.15</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.95</v>
+      </c>
+      <c r="AB99">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.875</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5981075</v>
+        <v>5981073</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45040.91666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>6</v>
+        <v>1.083</v>
       </c>
       <c r="L124">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="M124">
-        <v>1.3</v>
+        <v>17</v>
       </c>
       <c r="N124">
-        <v>7.5</v>
+        <v>1.071</v>
       </c>
       <c r="O124">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="P124">
-        <v>1.222</v>
+        <v>26</v>
       </c>
       <c r="Q124">
-        <v>2</v>
+        <v>-2.75</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5981073</v>
+        <v>5981075</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45040.91666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125" t="s">
+        <v>47</v>
+      </c>
+      <c r="K125">
+        <v>6</v>
+      </c>
+      <c r="L125">
+        <v>5.5</v>
+      </c>
+      <c r="M125">
+        <v>1.3</v>
+      </c>
+      <c r="N125">
+        <v>7.5</v>
+      </c>
+      <c r="O125">
+        <v>6</v>
+      </c>
+      <c r="P125">
+        <v>1.222</v>
+      </c>
+      <c r="Q125">
         <v>2</v>
       </c>
-      <c r="I125">
+      <c r="R125">
+        <v>1.75</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>3.25</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>1.8</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.222</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>0.95</v>
+      </c>
+      <c r="AB125">
         <v>1</v>
       </c>
-      <c r="J125" t="s">
-        <v>48</v>
-      </c>
-      <c r="K125">
-        <v>1.083</v>
-      </c>
-      <c r="L125">
-        <v>9</v>
-      </c>
-      <c r="M125">
-        <v>17</v>
-      </c>
-      <c r="N125">
-        <v>1.071</v>
-      </c>
-      <c r="O125">
-        <v>9.5</v>
-      </c>
-      <c r="P125">
-        <v>26</v>
-      </c>
-      <c r="Q125">
-        <v>-2.75</v>
-      </c>
-      <c r="R125">
-        <v>1.975</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.975</v>
-      </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
-      <c r="W125">
-        <v>0.07099999999999995</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.825</v>
-      </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5981088</v>
+        <v>5981089</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>47</v>
       </c>
       <c r="K141">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="N141">
+        <v>5.25</v>
+      </c>
+      <c r="O141">
         <v>4.2</v>
       </c>
-      <c r="O141">
-        <v>3.75</v>
-      </c>
       <c r="P141">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,19 +13062,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
+        <v>-0</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB141">
-        <v>0.875</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5981089</v>
+        <v>5981088</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,55 +13094,55 @@
         <v>45054.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>47</v>
       </c>
       <c r="K142">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="N142">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13151,19 +13151,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21460,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L236">
         <v>5</v>
       </c>
       <c r="M236">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N236">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O236">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P236">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q236">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W236">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA236">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,76 +21549,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K237">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L237">
         <v>5</v>
       </c>
       <c r="M237">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N237">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O237">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P237">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q237">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X237">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,10 +26978,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G298" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -26993,40 +26993,40 @@
         <v>47</v>
       </c>
       <c r="K298">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L298">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M298">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N298">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O298">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P298">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q298">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R298">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S298">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T298">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U298">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V298">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,19 +27035,19 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z298">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,10 +27067,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G299" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27082,40 +27082,40 @@
         <v>47</v>
       </c>
       <c r="K299">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L299">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M299">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N299">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O299">
+        <v>6.5</v>
+      </c>
+      <c r="P299">
+        <v>1.142</v>
+      </c>
+      <c r="Q299">
+        <v>2.25</v>
+      </c>
+      <c r="R299">
+        <v>1.95</v>
+      </c>
+      <c r="S299">
+        <v>1.85</v>
+      </c>
+      <c r="T299">
         <v>3.75</v>
       </c>
-      <c r="P299">
-        <v>1.666</v>
-      </c>
-      <c r="Q299">
-        <v>0.75</v>
-      </c>
-      <c r="R299">
-        <v>1.925</v>
-      </c>
-      <c r="S299">
-        <v>1.875</v>
-      </c>
-      <c r="T299">
-        <v>2.75</v>
-      </c>
       <c r="U299">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V299">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W299">
         <v>-1</v>
@@ -27124,19 +27124,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z299">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA299">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -34264,7 +34264,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34276,58 +34276,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F380" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G380" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380" t="s">
         <v>48</v>
       </c>
       <c r="K380">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L380">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M380">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N380">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O380">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P380">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q380">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R380">
+        <v>1.825</v>
+      </c>
+      <c r="S380">
         <v>1.975</v>
       </c>
-      <c r="S380">
-        <v>1.825</v>
-      </c>
       <c r="T380">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U380">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V380">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W380">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34336,16 +34336,16 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB380">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34353,7 +34353,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34365,58 +34365,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F381" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G381" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="s">
         <v>48</v>
       </c>
       <c r="K381">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L381">
+        <v>5.5</v>
+      </c>
+      <c r="M381">
         <v>7.5</v>
       </c>
-      <c r="M381">
-        <v>15</v>
-      </c>
       <c r="N381">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O381">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P381">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q381">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R381">
+        <v>1.975</v>
+      </c>
+      <c r="S381">
         <v>1.825</v>
       </c>
-      <c r="S381">
-        <v>1.975</v>
-      </c>
       <c r="T381">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U381">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V381">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W381">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34425,16 +34425,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA381">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC381">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -34798,7 +34798,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34810,49 +34810,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F386" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G386" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K386">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L386">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M386">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N386">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O386">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P386">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q386">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S386">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T386">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U386">
         <v>1.8</v>
@@ -34861,25 +34861,25 @@
         <v>2</v>
       </c>
       <c r="W386">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X386">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y386">
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA386">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB386">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC386">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34887,7 +34887,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34899,49 +34899,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F387" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G387" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H387">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K387">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L387">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M387">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N387">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O387">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P387">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q387">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R387">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S387">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T387">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U387">
         <v>1.8</v>
@@ -34950,25 +34950,25 @@
         <v>2</v>
       </c>
       <c r="W387">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y387">
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA387">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB387">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC387">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35599,7 +35599,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,73 +35611,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F395" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G395" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H395">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I395">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J395" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K395">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L395">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M395">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N395">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O395">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P395">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q395">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R395">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S395">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T395">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U395">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V395">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W395">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z395">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB395">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC395">
         <v>-1</v>
@@ -35688,7 +35688,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35700,73 +35700,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G396" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H396">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I396">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J396" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K396">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L396">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M396">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N396">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O396">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P396">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q396">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R396">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S396">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T396">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U396">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V396">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W396">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA396">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC396">
         <v>-1</v>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -34086,7 +34086,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34098,76 +34098,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F378" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G378" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H378">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I378">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J378" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K378">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L378">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M378">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N378">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O378">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P378">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q378">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R378">
+        <v>1.95</v>
+      </c>
+      <c r="S378">
+        <v>1.85</v>
+      </c>
+      <c r="T378">
+        <v>3.25</v>
+      </c>
+      <c r="U378">
+        <v>1.95</v>
+      </c>
+      <c r="V378">
         <v>1.75</v>
       </c>
-      <c r="S378">
-        <v>2.05</v>
-      </c>
-      <c r="T378">
-        <v>3.75</v>
-      </c>
-      <c r="U378">
-        <v>1.9</v>
-      </c>
-      <c r="V378">
-        <v>1.9</v>
-      </c>
       <c r="W378">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z378">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB378">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34175,7 +34175,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34187,76 +34187,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G379" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H379">
+        <v>6</v>
+      </c>
+      <c r="I379">
         <v>0</v>
       </c>
-      <c r="I379">
-        <v>3</v>
-      </c>
       <c r="J379" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K379">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M379">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N379">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O379">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P379">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q379">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R379">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S379">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T379">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U379">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V379">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA379">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC379">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G394" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I394">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J394" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K394">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L394">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M394">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N394">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O394">
+        <v>17</v>
+      </c>
+      <c r="P394">
+        <v>41</v>
+      </c>
+      <c r="Q394">
+        <v>-3.75</v>
+      </c>
+      <c r="R394">
+        <v>1.775</v>
+      </c>
+      <c r="S394">
+        <v>1.925</v>
+      </c>
+      <c r="T394">
         <v>4.75</v>
       </c>
-      <c r="P394">
-        <v>1.4</v>
-      </c>
-      <c r="Q394">
-        <v>1.25</v>
-      </c>
-      <c r="R394">
-        <v>1.925</v>
-      </c>
-      <c r="S394">
-        <v>1.875</v>
-      </c>
-      <c r="T394">
-        <v>3</v>
-      </c>
       <c r="U394">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V394">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA394">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -35688,7 +35688,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35700,73 +35700,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G396" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H396">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I396">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J396" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K396">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L396">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M396">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N396">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O396">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P396">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q396">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R396">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S396">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T396">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U396">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V396">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W396">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z396">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB396">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC396">
         <v>-1</v>
@@ -35777,7 +35777,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35789,56 +35789,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F397" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G397" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J397" t="s">
         <v>47</v>
       </c>
       <c r="K397">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L397">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M397">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N397">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O397">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P397">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q397">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R397">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S397">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T397">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U397">
+        <v>1.925</v>
+      </c>
+      <c r="V397">
         <v>1.775</v>
       </c>
-      <c r="V397">
-        <v>2.025</v>
-      </c>
       <c r="W397">
         <v>-1</v>
       </c>
@@ -35846,19 +35846,19 @@
         <v>-1</v>
       </c>
       <c r="Y397">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z397">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB397">
+        <v>-1</v>
+      </c>
+      <c r="AC397">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC397">
-        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35866,7 +35866,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35878,55 +35878,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F398" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G398" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J398" t="s">
         <v>47</v>
       </c>
       <c r="K398">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L398">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M398">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N398">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O398">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P398">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q398">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R398">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S398">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T398">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U398">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V398">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W398">
         <v>-1</v>
@@ -35935,19 +35935,19 @@
         <v>-1</v>
       </c>
       <c r="Y398">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z398">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA398">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC398">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P28">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L29">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O29">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
+        <v>1.333</v>
+      </c>
+      <c r="Q47">
+        <v>1.5</v>
+      </c>
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>2.375</v>
+      </c>
+      <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>2.5</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
         <v>3.5</v>
       </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>1.833</v>
-      </c>
-      <c r="N56">
-        <v>4.333</v>
-      </c>
-      <c r="O56">
-        <v>3.75</v>
-      </c>
       <c r="P56">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q132">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <v>23</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>1.03</v>
+      </c>
+      <c r="N149">
+        <v>29</v>
+      </c>
+      <c r="O149">
+        <v>12</v>
+      </c>
+      <c r="P149">
+        <v>1.055</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>2.1</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.7</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.75</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.1</v>
+      </c>
+      <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>23</v>
-      </c>
-      <c r="L150">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>1.03</v>
-      </c>
-      <c r="N150">
-        <v>29</v>
-      </c>
-      <c r="O150">
-        <v>12</v>
-      </c>
-      <c r="P150">
-        <v>1.055</v>
-      </c>
-      <c r="Q150">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>4</v>
-      </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L215">
+        <v>5.5</v>
+      </c>
+      <c r="M215">
         <v>7.5</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
       <c r="N215">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
       <c r="T215">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M216">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N216">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
       </c>
-      <c r="S216">
-        <v>1.825</v>
-      </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N222">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X222">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC222">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
+        <v>17</v>
+      </c>
+      <c r="P231">
+        <v>41</v>
+      </c>
+      <c r="Q231">
+        <v>-3.75</v>
+      </c>
+      <c r="R231">
+        <v>1.775</v>
+      </c>
+      <c r="S231">
+        <v>1.925</v>
+      </c>
+      <c r="T231">
         <v>4.75</v>
       </c>
-      <c r="P231">
-        <v>1.4</v>
-      </c>
-      <c r="Q231">
-        <v>1.25</v>
-      </c>
-      <c r="R231">
-        <v>1.925</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>3</v>
-      </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q28">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P29">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
+        <v>1.333</v>
+      </c>
+      <c r="Q48">
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>3</v>
       </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1.181</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.1</v>
+      </c>
+      <c r="O109">
+        <v>9</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.5</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>1.181</v>
-      </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N131">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O133">
+        <v>6.5</v>
+      </c>
+      <c r="P133">
+        <v>1.142</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>1.666</v>
-      </c>
-      <c r="Q133">
-        <v>0.75</v>
-      </c>
-      <c r="R133">
-        <v>1.925</v>
-      </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N134">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O134">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q134">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>23</v>
-      </c>
-      <c r="L149">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>1.03</v>
-      </c>
-      <c r="N149">
-        <v>29</v>
-      </c>
-      <c r="O149">
-        <v>12</v>
-      </c>
-      <c r="P149">
-        <v>1.055</v>
-      </c>
-      <c r="Q149">
-        <v>3</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>4</v>
-      </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>1.03</v>
+      </c>
+      <c r="N150">
+        <v>29</v>
+      </c>
+      <c r="O150">
+        <v>12</v>
+      </c>
+      <c r="P150">
+        <v>1.055</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.1</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>2.875</v>
-      </c>
-      <c r="N150">
-        <v>1.7</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4</v>
-      </c>
-      <c r="Q150">
-        <v>-0.75</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.75</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N221">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N222">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,49 +20837,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
         <v>1.75</v>
@@ -20894,13 +20894,13 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
         <v>0.75</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I230">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L230">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M230">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N230">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O230">
+        <v>17</v>
+      </c>
+      <c r="P230">
+        <v>41</v>
+      </c>
+      <c r="Q230">
+        <v>-3.75</v>
+      </c>
+      <c r="R230">
+        <v>1.775</v>
+      </c>
+      <c r="S230">
+        <v>1.925</v>
+      </c>
+      <c r="T230">
         <v>4.75</v>
       </c>
-      <c r="P230">
-        <v>1.4</v>
-      </c>
-      <c r="Q230">
-        <v>1.25</v>
-      </c>
-      <c r="R230">
-        <v>1.925</v>
-      </c>
-      <c r="S230">
-        <v>1.875</v>
-      </c>
-      <c r="T230">
-        <v>3</v>
-      </c>
       <c r="U230">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,56 +21104,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N232">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P232">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U232">
+        <v>1.925</v>
+      </c>
+      <c r="V232">
         <v>1.775</v>
       </c>
-      <c r="V232">
-        <v>2.025</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,55 +21193,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L233">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N233">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V233">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
+        <v>1.333</v>
+      </c>
+      <c r="Q47">
+        <v>1.5</v>
+      </c>
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q132">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N133">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q133">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M134">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O134">
+        <v>6.5</v>
+      </c>
+      <c r="P134">
+        <v>1.142</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.75</v>
       </c>
-      <c r="P134">
-        <v>1.666</v>
-      </c>
-      <c r="Q134">
-        <v>0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <v>23</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>1.03</v>
+      </c>
+      <c r="N149">
+        <v>29</v>
+      </c>
+      <c r="O149">
+        <v>12</v>
+      </c>
+      <c r="P149">
+        <v>1.055</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>2.1</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.7</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.75</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.1</v>
+      </c>
+      <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>23</v>
-      </c>
-      <c r="L150">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>1.03</v>
-      </c>
-      <c r="N150">
-        <v>29</v>
-      </c>
-      <c r="O150">
-        <v>12</v>
-      </c>
-      <c r="P150">
-        <v>1.055</v>
-      </c>
-      <c r="Q150">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>4</v>
-      </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L215">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
         <v>1.975</v>
       </c>
-      <c r="S215">
-        <v>1.825</v>
-      </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L216">
+        <v>5.5</v>
+      </c>
+      <c r="M216">
         <v>7.5</v>
       </c>
-      <c r="M216">
-        <v>15</v>
-      </c>
       <c r="N216">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O216">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P216">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
         <v>1.825</v>
       </c>
-      <c r="S216">
-        <v>1.975</v>
-      </c>
       <c r="T216">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,49 +20837,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N229">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
         <v>1.75</v>
@@ -20894,13 +20894,13 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB229">
         <v>0.75</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21886,6 +21886,80 @@
       </c>
       <c r="AC240">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>7645717</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45353.625</v>
+      </c>
+      <c r="F241" t="s">
+        <v>35</v>
+      </c>
+      <c r="G241" t="s">
+        <v>37</v>
+      </c>
+      <c r="K241">
+        <v>2.1</v>
+      </c>
+      <c r="L241">
+        <v>3.6</v>
+      </c>
+      <c r="M241">
+        <v>2.875</v>
+      </c>
+      <c r="N241">
+        <v>2.1</v>
+      </c>
+      <c r="O241">
+        <v>3.5</v>
+      </c>
+      <c r="P241">
+        <v>2.875</v>
+      </c>
+      <c r="Q241">
+        <v>-0.25</v>
+      </c>
+      <c r="R241">
+        <v>1.9</v>
+      </c>
+      <c r="S241">
+        <v>1.9</v>
+      </c>
+      <c r="T241">
+        <v>3</v>
+      </c>
+      <c r="U241">
+        <v>1.775</v>
+      </c>
+      <c r="V241">
+        <v>2.025</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC241"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P28">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L29">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O29">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
+        <v>2.375</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.5</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
         <v>3.5</v>
       </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>1.833</v>
-      </c>
-      <c r="N55">
-        <v>4.333</v>
-      </c>
-      <c r="O55">
-        <v>3.75</v>
-      </c>
       <c r="P55">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.95</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.181</v>
-      </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>1.181</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.1</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>23</v>
-      </c>
-      <c r="L149">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>1.03</v>
-      </c>
-      <c r="N149">
-        <v>29</v>
-      </c>
-      <c r="O149">
-        <v>12</v>
-      </c>
-      <c r="P149">
-        <v>1.055</v>
-      </c>
-      <c r="Q149">
-        <v>3</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>4</v>
-      </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>1.03</v>
+      </c>
+      <c r="N150">
+        <v>29</v>
+      </c>
+      <c r="O150">
+        <v>12</v>
+      </c>
+      <c r="P150">
+        <v>1.055</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.1</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>2.875</v>
-      </c>
-      <c r="N150">
-        <v>1.7</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4</v>
-      </c>
-      <c r="Q150">
-        <v>-0.75</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.75</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N222">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X222">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC222">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -21888,7 +21888,7 @@
         <v>-0</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -21910,6 +21910,15 @@
       <c r="G241" t="s">
         <v>37</v>
       </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241">
+        <v>3</v>
+      </c>
+      <c r="J241" t="s">
+        <v>49</v>
+      </c>
       <c r="K241">
         <v>2.1</v>
       </c>
@@ -21926,39 +21935,193 @@
         <v>3.5</v>
       </c>
       <c r="P241">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q241">
         <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T241">
         <v>3</v>
       </c>
       <c r="U241">
+        <v>1.825</v>
+      </c>
+      <c r="V241">
+        <v>1.975</v>
+      </c>
+      <c r="W241">
+        <v>-1</v>
+      </c>
+      <c r="X241">
+        <v>2.5</v>
+      </c>
+      <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
+        <v>-0.5</v>
+      </c>
+      <c r="AA241">
+        <v>0.4375</v>
+      </c>
+      <c r="AB241">
+        <v>0.825</v>
+      </c>
+      <c r="AC241">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>7645791</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45354.83333333334</v>
+      </c>
+      <c r="F242" t="s">
+        <v>46</v>
+      </c>
+      <c r="G242" t="s">
+        <v>33</v>
+      </c>
+      <c r="K242">
+        <v>5</v>
+      </c>
+      <c r="L242">
+        <v>3.75</v>
+      </c>
+      <c r="M242">
+        <v>1.55</v>
+      </c>
+      <c r="N242">
+        <v>4.333</v>
+      </c>
+      <c r="O242">
+        <v>3.6</v>
+      </c>
+      <c r="P242">
+        <v>1.65</v>
+      </c>
+      <c r="Q242">
+        <v>0.75</v>
+      </c>
+      <c r="R242">
+        <v>1.925</v>
+      </c>
+      <c r="S242">
+        <v>1.875</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>1.85</v>
+      </c>
+      <c r="V242">
+        <v>1.95</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7645792</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45354.875</v>
+      </c>
+      <c r="F243" t="s">
+        <v>38</v>
+      </c>
+      <c r="G243" t="s">
+        <v>43</v>
+      </c>
+      <c r="K243">
+        <v>1.533</v>
+      </c>
+      <c r="L243">
+        <v>4</v>
+      </c>
+      <c r="M243">
+        <v>4.75</v>
+      </c>
+      <c r="N243">
+        <v>1.571</v>
+      </c>
+      <c r="O243">
+        <v>3.8</v>
+      </c>
+      <c r="P243">
+        <v>4.5</v>
+      </c>
+      <c r="Q243">
+        <v>-1</v>
+      </c>
+      <c r="R243">
+        <v>2.025</v>
+      </c>
+      <c r="S243">
         <v>1.775</v>
       </c>
-      <c r="V241">
-        <v>2.025</v>
-      </c>
-      <c r="W241">
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>1.825</v>
+      </c>
+      <c r="V243">
+        <v>1.975</v>
+      </c>
+      <c r="W243">
         <v>0</v>
       </c>
-      <c r="X241">
+      <c r="X243">
         <v>0</v>
       </c>
-      <c r="Y241">
+      <c r="Y243">
         <v>0</v>
       </c>
-      <c r="Z241">
+      <c r="Z243">
         <v>0</v>
       </c>
-      <c r="AA241">
+      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>2.375</v>
+      </c>
+      <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>2.5</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
         <v>3.5</v>
       </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>1.833</v>
-      </c>
-      <c r="N56">
-        <v>4.333</v>
-      </c>
-      <c r="O56">
-        <v>3.75</v>
-      </c>
       <c r="P56">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N71">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P71">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X72">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1.181</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.1</v>
+      </c>
+      <c r="O109">
+        <v>9</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.5</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>1.181</v>
-      </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N131">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M213">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P213">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N214">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q214">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
         <v>1.75</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>3.75</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,49 +20837,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
         <v>1.75</v>
@@ -20894,13 +20894,13 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
         <v>0.75</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N230">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q230">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7645791</v>
+        <v>7645718</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21991,64 +21991,79 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45354.83333333334</v>
+        <v>45353.92083333333</v>
       </c>
       <c r="F242" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>4</v>
+      </c>
+      <c r="J242" t="s">
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="L242">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="M242">
-        <v>1.55</v>
+        <v>1.025</v>
       </c>
       <c r="N242">
-        <v>4.333</v>
+        <v>51</v>
       </c>
       <c r="O242">
-        <v>3.6</v>
+        <v>21</v>
       </c>
       <c r="P242">
-        <v>1.65</v>
+        <v>1.015</v>
       </c>
       <c r="Q242">
-        <v>0.75</v>
+        <v>4.25</v>
       </c>
       <c r="R242">
+        <v>1.9</v>
+      </c>
+      <c r="S242">
+        <v>1.9</v>
+      </c>
+      <c r="T242">
+        <v>4.75</v>
+      </c>
+      <c r="U242">
+        <v>1.875</v>
+      </c>
+      <c r="V242">
         <v>1.925</v>
       </c>
-      <c r="S242">
-        <v>1.875</v>
-      </c>
-      <c r="T242">
-        <v>2.75</v>
-      </c>
-      <c r="U242">
-        <v>1.85</v>
-      </c>
-      <c r="V242">
-        <v>1.95</v>
-      </c>
       <c r="W242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0</v>
+        <v>0.0149999999999999</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA242">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
+        <v>0.925</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22056,72 +22071,843 @@
         <v>241</v>
       </c>
       <c r="B243">
+        <v>7645791</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45354.83333333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>46</v>
+      </c>
+      <c r="G243" t="s">
+        <v>33</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>47</v>
+      </c>
+      <c r="K243">
+        <v>5</v>
+      </c>
+      <c r="L243">
+        <v>3.75</v>
+      </c>
+      <c r="M243">
+        <v>1.55</v>
+      </c>
+      <c r="N243">
+        <v>4.75</v>
+      </c>
+      <c r="O243">
+        <v>3.75</v>
+      </c>
+      <c r="P243">
+        <v>1.571</v>
+      </c>
+      <c r="Q243">
+        <v>1</v>
+      </c>
+      <c r="R243">
+        <v>1.85</v>
+      </c>
+      <c r="S243">
+        <v>1.95</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
+        <v>1.95</v>
+      </c>
+      <c r="V243">
+        <v>1.85</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>0.571</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
+        <v>0.95</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+      <c r="AC243">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
         <v>7645792</v>
       </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45354.875</v>
-      </c>
-      <c r="F243" t="s">
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45354.87916666667</v>
+      </c>
+      <c r="F244" t="s">
         <v>38</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G244" t="s">
         <v>43</v>
       </c>
-      <c r="K243">
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>3</v>
+      </c>
+      <c r="J244" t="s">
+        <v>47</v>
+      </c>
+      <c r="K244">
         <v>1.533</v>
       </c>
-      <c r="L243">
+      <c r="L244">
         <v>4</v>
       </c>
-      <c r="M243">
+      <c r="M244">
         <v>4.75</v>
       </c>
-      <c r="N243">
+      <c r="N244">
+        <v>1.45</v>
+      </c>
+      <c r="O244">
+        <v>4.2</v>
+      </c>
+      <c r="P244">
+        <v>5.25</v>
+      </c>
+      <c r="Q244">
+        <v>-1</v>
+      </c>
+      <c r="R244">
+        <v>1.75</v>
+      </c>
+      <c r="S244">
+        <v>1.95</v>
+      </c>
+      <c r="T244">
+        <v>3</v>
+      </c>
+      <c r="U244">
+        <v>1.975</v>
+      </c>
+      <c r="V244">
+        <v>1.825</v>
+      </c>
+      <c r="W244">
+        <v>-1</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>4.25</v>
+      </c>
+      <c r="Z244">
+        <v>-1</v>
+      </c>
+      <c r="AA244">
+        <v>0.95</v>
+      </c>
+      <c r="AB244">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC244">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7645793</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45355.83333333334</v>
+      </c>
+      <c r="F245" t="s">
+        <v>39</v>
+      </c>
+      <c r="G245" t="s">
+        <v>44</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>48</v>
+      </c>
+      <c r="K245">
+        <v>1.909</v>
+      </c>
+      <c r="L245">
+        <v>3.5</v>
+      </c>
+      <c r="M245">
+        <v>3.3</v>
+      </c>
+      <c r="N245">
+        <v>2.1</v>
+      </c>
+      <c r="O245">
+        <v>3.4</v>
+      </c>
+      <c r="P245">
+        <v>2.875</v>
+      </c>
+      <c r="Q245">
+        <v>-0.25</v>
+      </c>
+      <c r="R245">
+        <v>1.875</v>
+      </c>
+      <c r="S245">
+        <v>1.925</v>
+      </c>
+      <c r="T245">
+        <v>2.75</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
+      <c r="V245">
+        <v>1.8</v>
+      </c>
+      <c r="W245">
+        <v>1.1</v>
+      </c>
+      <c r="X245">
+        <v>-1</v>
+      </c>
+      <c r="Y245">
+        <v>-1</v>
+      </c>
+      <c r="Z245">
+        <v>0.875</v>
+      </c>
+      <c r="AA245">
+        <v>-1</v>
+      </c>
+      <c r="AB245">
+        <v>0.5</v>
+      </c>
+      <c r="AC245">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7645794</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45355.83333333334</v>
+      </c>
+      <c r="F246" t="s">
+        <v>32</v>
+      </c>
+      <c r="G246" t="s">
+        <v>30</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246" t="s">
+        <v>48</v>
+      </c>
+      <c r="K246">
+        <v>6</v>
+      </c>
+      <c r="L246">
+        <v>5</v>
+      </c>
+      <c r="M246">
+        <v>1.333</v>
+      </c>
+      <c r="N246">
+        <v>5.75</v>
+      </c>
+      <c r="O246">
+        <v>5</v>
+      </c>
+      <c r="P246">
+        <v>1.363</v>
+      </c>
+      <c r="Q246">
+        <v>1.5</v>
+      </c>
+      <c r="R246">
+        <v>1.825</v>
+      </c>
+      <c r="S246">
+        <v>1.975</v>
+      </c>
+      <c r="T246">
+        <v>3.25</v>
+      </c>
+      <c r="U246">
+        <v>1.825</v>
+      </c>
+      <c r="V246">
+        <v>1.975</v>
+      </c>
+      <c r="W246">
+        <v>4.75</v>
+      </c>
+      <c r="X246">
+        <v>-1</v>
+      </c>
+      <c r="Y246">
+        <v>-1</v>
+      </c>
+      <c r="Z246">
+        <v>0.825</v>
+      </c>
+      <c r="AA246">
+        <v>-1</v>
+      </c>
+      <c r="AB246">
+        <v>-0.5</v>
+      </c>
+      <c r="AC246">
+        <v>0.4875</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>7645795</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45355.92083333333</v>
+      </c>
+      <c r="F247" t="s">
+        <v>29</v>
+      </c>
+      <c r="G247" t="s">
+        <v>45</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247" t="s">
+        <v>48</v>
+      </c>
+      <c r="K247">
+        <v>1.181</v>
+      </c>
+      <c r="L247">
+        <v>5</v>
+      </c>
+      <c r="M247">
+        <v>13</v>
+      </c>
+      <c r="N247">
+        <v>1.25</v>
+      </c>
+      <c r="O247">
+        <v>5</v>
+      </c>
+      <c r="P247">
+        <v>8.5</v>
+      </c>
+      <c r="Q247">
+        <v>-1.75</v>
+      </c>
+      <c r="R247">
+        <v>1.85</v>
+      </c>
+      <c r="S247">
+        <v>1.95</v>
+      </c>
+      <c r="T247">
+        <v>3.75</v>
+      </c>
+      <c r="U247">
+        <v>1.925</v>
+      </c>
+      <c r="V247">
+        <v>1.775</v>
+      </c>
+      <c r="W247">
+        <v>0.25</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
+        <v>-1</v>
+      </c>
+      <c r="Z247">
+        <v>0.425</v>
+      </c>
+      <c r="AA247">
+        <v>-0.5</v>
+      </c>
+      <c r="AB247">
+        <v>-1</v>
+      </c>
+      <c r="AC247">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>7645796</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45356.00694444445</v>
+      </c>
+      <c r="F248" t="s">
+        <v>41</v>
+      </c>
+      <c r="G248" t="s">
+        <v>42</v>
+      </c>
+      <c r="H248">
+        <v>4</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248" t="s">
+        <v>48</v>
+      </c>
+      <c r="K248">
+        <v>1.055</v>
+      </c>
+      <c r="L248">
+        <v>10</v>
+      </c>
+      <c r="M248">
+        <v>21</v>
+      </c>
+      <c r="N248">
+        <v>1.062</v>
+      </c>
+      <c r="O248">
+        <v>11</v>
+      </c>
+      <c r="P248">
+        <v>29</v>
+      </c>
+      <c r="Q248">
+        <v>-3</v>
+      </c>
+      <c r="R248">
+        <v>1.85</v>
+      </c>
+      <c r="S248">
+        <v>1.95</v>
+      </c>
+      <c r="T248">
+        <v>4</v>
+      </c>
+      <c r="U248">
+        <v>1.8</v>
+      </c>
+      <c r="V248">
+        <v>2</v>
+      </c>
+      <c r="W248">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="X248">
+        <v>-1</v>
+      </c>
+      <c r="Y248">
+        <v>-1</v>
+      </c>
+      <c r="Z248">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA248">
+        <v>-1</v>
+      </c>
+      <c r="AB248">
+        <v>0</v>
+      </c>
+      <c r="AC248">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>7645719</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45356.00694444445</v>
+      </c>
+      <c r="F249" t="s">
+        <v>40</v>
+      </c>
+      <c r="G249" t="s">
+        <v>34</v>
+      </c>
+      <c r="H249">
+        <v>6</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249" t="s">
+        <v>48</v>
+      </c>
+      <c r="K249">
+        <v>1.025</v>
+      </c>
+      <c r="L249">
+        <v>15</v>
+      </c>
+      <c r="M249">
+        <v>34</v>
+      </c>
+      <c r="N249">
+        <v>1.01</v>
+      </c>
+      <c r="O249">
+        <v>34</v>
+      </c>
+      <c r="P249">
+        <v>67</v>
+      </c>
+      <c r="Q249">
+        <v>-4.75</v>
+      </c>
+      <c r="R249">
+        <v>1.775</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
+        <v>5.75</v>
+      </c>
+      <c r="U249">
+        <v>1.85</v>
+      </c>
+      <c r="V249">
+        <v>1.95</v>
+      </c>
+      <c r="W249">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="X249">
+        <v>-1</v>
+      </c>
+      <c r="Y249">
+        <v>-1</v>
+      </c>
+      <c r="Z249">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA249">
+        <v>-1</v>
+      </c>
+      <c r="AB249">
+        <v>0.425</v>
+      </c>
+      <c r="AC249">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>7645797</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45359.78125</v>
+      </c>
+      <c r="F250" t="s">
+        <v>30</v>
+      </c>
+      <c r="G250" t="s">
+        <v>45</v>
+      </c>
+      <c r="K250">
+        <v>1.03</v>
+      </c>
+      <c r="L250">
+        <v>13</v>
+      </c>
+      <c r="M250">
+        <v>23</v>
+      </c>
+      <c r="N250">
+        <v>1.062</v>
+      </c>
+      <c r="O250">
+        <v>10</v>
+      </c>
+      <c r="P250">
+        <v>29</v>
+      </c>
+      <c r="Q250">
+        <v>-3.25</v>
+      </c>
+      <c r="R250">
+        <v>1.95</v>
+      </c>
+      <c r="S250">
+        <v>1.85</v>
+      </c>
+      <c r="T250">
+        <v>4.25</v>
+      </c>
+      <c r="U250">
+        <v>1.825</v>
+      </c>
+      <c r="V250">
+        <v>1.975</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>7926076</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45359.83333333334</v>
+      </c>
+      <c r="F251" t="s">
+        <v>33</v>
+      </c>
+      <c r="G251" t="s">
+        <v>40</v>
+      </c>
+      <c r="K251">
+        <v>4.5</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
         <v>1.571</v>
       </c>
-      <c r="O243">
+      <c r="N251">
+        <v>4</v>
+      </c>
+      <c r="O251">
         <v>3.8</v>
       </c>
-      <c r="P243">
-        <v>4.5</v>
-      </c>
-      <c r="Q243">
-        <v>-1</v>
-      </c>
-      <c r="R243">
+      <c r="P251">
+        <v>1.666</v>
+      </c>
+      <c r="Q251">
+        <v>0.75</v>
+      </c>
+      <c r="R251">
+        <v>1.9</v>
+      </c>
+      <c r="S251">
+        <v>1.9</v>
+      </c>
+      <c r="T251">
+        <v>3</v>
+      </c>
+      <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
+        <v>1.825</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>7645798</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45359.83333333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>43</v>
+      </c>
+      <c r="G252" t="s">
+        <v>35</v>
+      </c>
+      <c r="K252">
+        <v>2.4</v>
+      </c>
+      <c r="L252">
+        <v>3.6</v>
+      </c>
+      <c r="M252">
+        <v>2.4</v>
+      </c>
+      <c r="N252">
+        <v>2.3</v>
+      </c>
+      <c r="O252">
+        <v>3.75</v>
+      </c>
+      <c r="P252">
+        <v>2.45</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>1.775</v>
+      </c>
+      <c r="S252">
         <v>2.025</v>
       </c>
-      <c r="S243">
-        <v>1.775</v>
-      </c>
-      <c r="T243">
-        <v>2.75</v>
-      </c>
-      <c r="U243">
-        <v>1.825</v>
-      </c>
-      <c r="V243">
-        <v>1.975</v>
-      </c>
-      <c r="W243">
+      <c r="T252">
+        <v>3</v>
+      </c>
+      <c r="U252">
+        <v>1.8</v>
+      </c>
+      <c r="V252">
+        <v>2</v>
+      </c>
+      <c r="W252">
         <v>0</v>
       </c>
-      <c r="X243">
+      <c r="X252">
         <v>0</v>
       </c>
-      <c r="Y243">
+      <c r="Y252">
         <v>0</v>
       </c>
-      <c r="Z243">
+      <c r="Z252">
         <v>0</v>
       </c>
-      <c r="AA243">
+      <c r="AA252">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC252"/>
+  <dimension ref="A1:AC254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q28">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P29">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
+        <v>1.333</v>
+      </c>
+      <c r="Q48">
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>3</v>
       </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
+        <v>2.375</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.5</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
         <v>3.5</v>
       </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>1.833</v>
-      </c>
-      <c r="N55">
-        <v>4.333</v>
-      </c>
-      <c r="O55">
-        <v>3.75</v>
-      </c>
       <c r="P55">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.95</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.181</v>
-      </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>1.181</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.1</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q132">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <v>23</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>1.03</v>
+      </c>
+      <c r="N149">
+        <v>29</v>
+      </c>
+      <c r="O149">
+        <v>12</v>
+      </c>
+      <c r="P149">
+        <v>1.055</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>2.1</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.7</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.75</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.1</v>
+      </c>
+      <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>23</v>
-      </c>
-      <c r="L150">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>1.03</v>
-      </c>
-      <c r="N150">
-        <v>29</v>
-      </c>
-      <c r="O150">
-        <v>12</v>
-      </c>
-      <c r="P150">
-        <v>1.055</v>
-      </c>
-      <c r="Q150">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>4</v>
-      </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L213">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N213">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q213">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>3.25</v>
+      </c>
+      <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.75</v>
       </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>3.75</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
       <c r="W213">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
+        <v>6</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>3</v>
-      </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M214">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N214">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P214">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L215">
+        <v>5.5</v>
+      </c>
+      <c r="M215">
         <v>7.5</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
       <c r="N215">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
       <c r="T215">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M216">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N216">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
       </c>
-      <c r="S216">
-        <v>1.825</v>
-      </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,55 +21104,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L232">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N232">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P232">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q232">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC232">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,56 +21193,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L233">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M233">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N233">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P233">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U233">
+        <v>1.925</v>
+      </c>
+      <c r="V233">
         <v>1.775</v>
       </c>
-      <c r="V233">
-        <v>2.025</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
+        <v>0.5</v>
+      </c>
+      <c r="AC246">
         <v>-0.5</v>
-      </c>
-      <c r="AC246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M248">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N248">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O248">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P248">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q248">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R248">
+        <v>1.775</v>
+      </c>
+      <c r="S248">
+        <v>1.925</v>
+      </c>
+      <c r="T248">
+        <v>5.75</v>
+      </c>
+      <c r="U248">
         <v>1.85</v>
       </c>
-      <c r="S248">
+      <c r="V248">
         <v>1.95</v>
       </c>
-      <c r="T248">
-        <v>4</v>
-      </c>
-      <c r="U248">
-        <v>1.8</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
       <c r="W248">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC248">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H249">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L249">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M249">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N249">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O249">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P249">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q249">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R249">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U249">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22711,6 +22711,15 @@
       <c r="G250" t="s">
         <v>45</v>
       </c>
+      <c r="H250">
+        <v>4</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250" t="s">
+        <v>48</v>
+      </c>
       <c r="K250">
         <v>1.03</v>
       </c>
@@ -22721,16 +22730,16 @@
         <v>23</v>
       </c>
       <c r="N250">
-        <v>1.062</v>
+        <v>1.09</v>
       </c>
       <c r="O250">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="P250">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q250">
-        <v>-3.25</v>
+        <v>-3</v>
       </c>
       <c r="R250">
         <v>1.95</v>
@@ -22742,25 +22751,31 @@
         <v>4.25</v>
       </c>
       <c r="U250">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V250">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W250">
-        <v>0</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>0</v>
       </c>
       <c r="AA250">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB250">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC250">
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22768,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22780,61 +22795,76 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251" t="s">
+        <v>47</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="Q251">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
       <c r="W251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22842,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22854,60 +22884,238 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>4</v>
+      </c>
+      <c r="J252" t="s">
+        <v>47</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N252">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
+        <v>1.825</v>
+      </c>
+      <c r="W252">
+        <v>-1</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z252">
+        <v>-1</v>
+      </c>
+      <c r="AA252">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB252">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC252">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>7645720</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45359.875</v>
+      </c>
+      <c r="F253" t="s">
+        <v>31</v>
+      </c>
+      <c r="G253" t="s">
+        <v>39</v>
+      </c>
+      <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253" t="s">
+        <v>48</v>
+      </c>
+      <c r="K253">
+        <v>1.05</v>
+      </c>
+      <c r="L253">
+        <v>12</v>
+      </c>
+      <c r="M253">
+        <v>41</v>
+      </c>
+      <c r="N253">
+        <v>1.05</v>
+      </c>
+      <c r="O253">
+        <v>12</v>
+      </c>
+      <c r="P253">
+        <v>41</v>
+      </c>
+      <c r="Q253">
+        <v>-3.25</v>
+      </c>
+      <c r="R253">
+        <v>1.95</v>
+      </c>
+      <c r="S253">
+        <v>1.85</v>
+      </c>
+      <c r="T253">
+        <v>4</v>
+      </c>
+      <c r="U253">
+        <v>1.95</v>
+      </c>
+      <c r="V253">
+        <v>1.85</v>
+      </c>
+      <c r="W253">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="X253">
+        <v>-1</v>
+      </c>
+      <c r="Y253">
+        <v>-1</v>
+      </c>
+      <c r="Z253">
+        <v>-1</v>
+      </c>
+      <c r="AA253">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB253">
+        <v>-1</v>
+      </c>
+      <c r="AC253">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>7645799</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F254" t="s">
+        <v>44</v>
+      </c>
+      <c r="G254" t="s">
+        <v>38</v>
+      </c>
+      <c r="K254">
+        <v>3.1</v>
+      </c>
+      <c r="L254">
+        <v>3.6</v>
+      </c>
+      <c r="M254">
+        <v>1.95</v>
+      </c>
+      <c r="N254">
+        <v>4</v>
+      </c>
+      <c r="O254">
+        <v>3.75</v>
+      </c>
+      <c r="P254">
+        <v>1.7</v>
+      </c>
+      <c r="Q254">
+        <v>0.75</v>
+      </c>
+      <c r="R254">
         <v>1.8</v>
       </c>
-      <c r="V252">
+      <c r="S254">
         <v>2</v>
       </c>
-      <c r="W252">
+      <c r="T254">
+        <v>3</v>
+      </c>
+      <c r="U254">
+        <v>1.975</v>
+      </c>
+      <c r="V254">
+        <v>1.825</v>
+      </c>
+      <c r="W254">
         <v>0</v>
       </c>
-      <c r="X252">
+      <c r="X254">
         <v>0</v>
       </c>
-      <c r="Y252">
+      <c r="Y254">
         <v>0</v>
       </c>
-      <c r="Z252">
+      <c r="Z254">
         <v>0</v>
       </c>
-      <c r="AA252">
+      <c r="AA254">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC254"/>
+  <dimension ref="A1:AC256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P28">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L29">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O29">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1.181</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.1</v>
+      </c>
+      <c r="O109">
+        <v>9</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.5</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>1.181</v>
-      </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O133">
+        <v>6.5</v>
+      </c>
+      <c r="P133">
+        <v>1.142</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>1.666</v>
-      </c>
-      <c r="Q133">
-        <v>0.75</v>
-      </c>
-      <c r="R133">
-        <v>1.925</v>
-      </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N134">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O134">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q134">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M213">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P213">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N214">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q214">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
         <v>1.75</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>3.75</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
+        <v>17</v>
+      </c>
+      <c r="P229">
+        <v>41</v>
+      </c>
+      <c r="Q229">
+        <v>-3.75</v>
+      </c>
+      <c r="R229">
+        <v>1.775</v>
+      </c>
+      <c r="S229">
+        <v>1.925</v>
+      </c>
+      <c r="T229">
         <v>4.75</v>
       </c>
-      <c r="P229">
-        <v>1.4</v>
-      </c>
-      <c r="Q229">
-        <v>1.25</v>
-      </c>
-      <c r="R229">
-        <v>1.925</v>
-      </c>
-      <c r="S229">
-        <v>1.875</v>
-      </c>
-      <c r="T229">
-        <v>3</v>
-      </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H248">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L248">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M248">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N248">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O248">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P248">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q248">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L249">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M249">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N249">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O249">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P249">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q249">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R249">
+        <v>1.775</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
+        <v>5.75</v>
+      </c>
+      <c r="U249">
         <v>1.85</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.95</v>
       </c>
-      <c r="T249">
-        <v>4</v>
-      </c>
-      <c r="U249">
-        <v>1.8</v>
-      </c>
-      <c r="V249">
-        <v>2</v>
-      </c>
       <c r="W249">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC249">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -23067,6 +23067,15 @@
       <c r="G254" t="s">
         <v>38</v>
       </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>4</v>
+      </c>
+      <c r="J254" t="s">
+        <v>47</v>
+      </c>
       <c r="K254">
         <v>3.1</v>
       </c>
@@ -23089,10 +23098,10 @@
         <v>0.75</v>
       </c>
       <c r="R254">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S254">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T254">
         <v>3</v>
@@ -23104,18 +23113,187 @@
         <v>1.825</v>
       </c>
       <c r="W254">
+        <v>-1</v>
+      </c>
+      <c r="X254">
+        <v>-1</v>
+      </c>
+      <c r="Y254">
+        <v>0.7</v>
+      </c>
+      <c r="Z254">
+        <v>-1</v>
+      </c>
+      <c r="AA254">
+        <v>0.95</v>
+      </c>
+      <c r="AB254">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC254">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>7645800</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45361.91666666666</v>
+      </c>
+      <c r="F255" t="s">
+        <v>36</v>
+      </c>
+      <c r="G255" t="s">
+        <v>41</v>
+      </c>
+      <c r="H255">
         <v>0</v>
       </c>
-      <c r="X254">
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255" t="s">
+        <v>47</v>
+      </c>
+      <c r="K255">
+        <v>41</v>
+      </c>
+      <c r="L255">
+        <v>10</v>
+      </c>
+      <c r="M255">
+        <v>1.062</v>
+      </c>
+      <c r="N255">
+        <v>26</v>
+      </c>
+      <c r="O255">
+        <v>9</v>
+      </c>
+      <c r="P255">
+        <v>1.055</v>
+      </c>
+      <c r="Q255">
+        <v>3.25</v>
+      </c>
+      <c r="R255">
+        <v>1.825</v>
+      </c>
+      <c r="S255">
+        <v>1.975</v>
+      </c>
+      <c r="T255">
+        <v>4</v>
+      </c>
+      <c r="U255">
+        <v>1.825</v>
+      </c>
+      <c r="V255">
+        <v>1.975</v>
+      </c>
+      <c r="W255">
+        <v>-1</v>
+      </c>
+      <c r="X255">
+        <v>-1</v>
+      </c>
+      <c r="Y255">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z255">
+        <v>0.825</v>
+      </c>
+      <c r="AA255">
+        <v>-1</v>
+      </c>
+      <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>7944122</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45362.91666666666</v>
+      </c>
+      <c r="F256" t="s">
+        <v>34</v>
+      </c>
+      <c r="G256" t="s">
+        <v>42</v>
+      </c>
+      <c r="K256">
+        <v>3.3</v>
+      </c>
+      <c r="L256">
+        <v>3.75</v>
+      </c>
+      <c r="M256">
+        <v>1.833</v>
+      </c>
+      <c r="N256">
+        <v>2.875</v>
+      </c>
+      <c r="O256">
+        <v>3.5</v>
+      </c>
+      <c r="P256">
+        <v>2.1</v>
+      </c>
+      <c r="Q256">
+        <v>0.25</v>
+      </c>
+      <c r="R256">
+        <v>1.9</v>
+      </c>
+      <c r="S256">
+        <v>1.9</v>
+      </c>
+      <c r="T256">
+        <v>3</v>
+      </c>
+      <c r="U256">
+        <v>2.05</v>
+      </c>
+      <c r="V256">
+        <v>1.75</v>
+      </c>
+      <c r="W256">
         <v>0</v>
       </c>
-      <c r="Y254">
+      <c r="X256">
         <v>0</v>
       </c>
-      <c r="Z254">
+      <c r="Y256">
         <v>0</v>
       </c>
-      <c r="AA254">
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC256"/>
+  <dimension ref="A1:AC264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q28">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P29">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.181</v>
-      </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>1.181</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.1</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>23</v>
-      </c>
-      <c r="L149">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>1.03</v>
-      </c>
-      <c r="N149">
-        <v>29</v>
-      </c>
-      <c r="O149">
-        <v>12</v>
-      </c>
-      <c r="P149">
-        <v>1.055</v>
-      </c>
-      <c r="Q149">
-        <v>3</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>4</v>
-      </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>1.03</v>
+      </c>
+      <c r="N150">
+        <v>29</v>
+      </c>
+      <c r="O150">
+        <v>12</v>
+      </c>
+      <c r="P150">
+        <v>1.055</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.1</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>2.875</v>
-      </c>
-      <c r="N150">
-        <v>1.7</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4</v>
-      </c>
-      <c r="Q150">
-        <v>-0.75</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.75</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L213">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N213">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q213">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>3.25</v>
+      </c>
+      <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.75</v>
       </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>3.75</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
       <c r="W213">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
+        <v>6</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>3</v>
-      </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M214">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N214">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P214">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N229">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N230">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q230">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
+        <v>0.5</v>
+      </c>
+      <c r="AC245">
         <v>-0.5</v>
-      </c>
-      <c r="AC245">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P246">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23228,72 +23228,739 @@
         <v>254</v>
       </c>
       <c r="B256">
+        <v>7645801</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45362.83333333334</v>
+      </c>
+      <c r="F256" t="s">
+        <v>32</v>
+      </c>
+      <c r="G256" t="s">
+        <v>46</v>
+      </c>
+      <c r="H256">
+        <v>5</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>48</v>
+      </c>
+      <c r="K256">
+        <v>1.125</v>
+      </c>
+      <c r="L256">
+        <v>8</v>
+      </c>
+      <c r="M256">
+        <v>17</v>
+      </c>
+      <c r="N256">
+        <v>1.222</v>
+      </c>
+      <c r="O256">
+        <v>6</v>
+      </c>
+      <c r="P256">
+        <v>12</v>
+      </c>
+      <c r="Q256">
+        <v>-1.75</v>
+      </c>
+      <c r="R256">
+        <v>1.725</v>
+      </c>
+      <c r="S256">
+        <v>2.075</v>
+      </c>
+      <c r="T256">
+        <v>3.5</v>
+      </c>
+      <c r="U256">
+        <v>1.925</v>
+      </c>
+      <c r="V256">
+        <v>1.875</v>
+      </c>
+      <c r="W256">
+        <v>0.222</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>-1</v>
+      </c>
+      <c r="Z256">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA256">
+        <v>-1</v>
+      </c>
+      <c r="AB256">
+        <v>0.925</v>
+      </c>
+      <c r="AC256">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
         <v>7944122</v>
       </c>
-      <c r="C256" t="s">
-        <v>28</v>
-      </c>
-      <c r="D256" t="s">
-        <v>28</v>
-      </c>
-      <c r="E256" s="2">
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
         <v>45362.91666666666</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F257" t="s">
         <v>34</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G257" t="s">
         <v>42</v>
       </c>
-      <c r="K256">
+      <c r="H257">
+        <v>3</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257" t="s">
+        <v>48</v>
+      </c>
+      <c r="K257">
         <v>3.3</v>
       </c>
-      <c r="L256">
+      <c r="L257">
         <v>3.75</v>
       </c>
-      <c r="M256">
+      <c r="M257">
         <v>1.833</v>
       </c>
-      <c r="N256">
+      <c r="N257">
         <v>2.875</v>
       </c>
-      <c r="O256">
+      <c r="O257">
         <v>3.5</v>
       </c>
-      <c r="P256">
+      <c r="P257">
         <v>2.1</v>
       </c>
-      <c r="Q256">
+      <c r="Q257">
         <v>0.25</v>
       </c>
-      <c r="R256">
+      <c r="R257">
         <v>1.9</v>
       </c>
-      <c r="S256">
+      <c r="S257">
         <v>1.9</v>
       </c>
-      <c r="T256">
+      <c r="T257">
+        <v>2.75</v>
+      </c>
+      <c r="U257">
+        <v>1.8</v>
+      </c>
+      <c r="V257">
+        <v>2</v>
+      </c>
+      <c r="W257">
+        <v>1.875</v>
+      </c>
+      <c r="X257">
+        <v>-1</v>
+      </c>
+      <c r="Y257">
+        <v>-1</v>
+      </c>
+      <c r="Z257">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA257">
+        <v>-1</v>
+      </c>
+      <c r="AB257">
+        <v>0.8</v>
+      </c>
+      <c r="AC257">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>7776741</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45364.83333333334</v>
+      </c>
+      <c r="F258" t="s">
+        <v>45</v>
+      </c>
+      <c r="G258" t="s">
+        <v>43</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>49</v>
+      </c>
+      <c r="K258">
         <v>3</v>
       </c>
-      <c r="U256">
+      <c r="L258">
+        <v>3.4</v>
+      </c>
+      <c r="M258">
+        <v>2.1</v>
+      </c>
+      <c r="N258">
+        <v>2.625</v>
+      </c>
+      <c r="O258">
+        <v>3</v>
+      </c>
+      <c r="P258">
+        <v>2.55</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1.95</v>
+      </c>
+      <c r="S258">
+        <v>1.85</v>
+      </c>
+      <c r="T258">
+        <v>2.5</v>
+      </c>
+      <c r="U258">
+        <v>1.775</v>
+      </c>
+      <c r="V258">
+        <v>1.925</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>2</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
+      <c r="AA258">
+        <v>-0</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>7645723</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45367</v>
+      </c>
+      <c r="F259" t="s">
+        <v>40</v>
+      </c>
+      <c r="G259" t="s">
+        <v>31</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259" t="s">
+        <v>49</v>
+      </c>
+      <c r="K259">
+        <v>2.8</v>
+      </c>
+      <c r="L259">
+        <v>3.4</v>
+      </c>
+      <c r="M259">
+        <v>2.15</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="O259">
+        <v>3.4</v>
+      </c>
+      <c r="P259">
         <v>2.05</v>
       </c>
-      <c r="V256">
-        <v>1.75</v>
-      </c>
-      <c r="W256">
+      <c r="Q259">
+        <v>0.25</v>
+      </c>
+      <c r="R259">
+        <v>1.9</v>
+      </c>
+      <c r="S259">
+        <v>1.9</v>
+      </c>
+      <c r="T259">
+        <v>2.75</v>
+      </c>
+      <c r="U259">
+        <v>1.875</v>
+      </c>
+      <c r="V259">
+        <v>1.925</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
+        <v>2.4</v>
+      </c>
+      <c r="Y259">
+        <v>-1</v>
+      </c>
+      <c r="Z259">
+        <v>0.45</v>
+      </c>
+      <c r="AA259">
+        <v>-0.5</v>
+      </c>
+      <c r="AB259">
+        <v>-1</v>
+      </c>
+      <c r="AC259">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>7645803</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45367.625</v>
+      </c>
+      <c r="F260" t="s">
+        <v>35</v>
+      </c>
+      <c r="G260" t="s">
+        <v>44</v>
+      </c>
+      <c r="H260">
+        <v>4</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260" t="s">
+        <v>48</v>
+      </c>
+      <c r="K260">
+        <v>1.333</v>
+      </c>
+      <c r="L260">
+        <v>4.75</v>
+      </c>
+      <c r="M260">
+        <v>7</v>
+      </c>
+      <c r="N260">
+        <v>1.363</v>
+      </c>
+      <c r="O260">
+        <v>4.5</v>
+      </c>
+      <c r="P260">
+        <v>6</v>
+      </c>
+      <c r="Q260">
+        <v>-1.25</v>
+      </c>
+      <c r="R260">
+        <v>1.775</v>
+      </c>
+      <c r="S260">
+        <v>1.925</v>
+      </c>
+      <c r="T260">
+        <v>3.5</v>
+      </c>
+      <c r="U260">
+        <v>1.85</v>
+      </c>
+      <c r="V260">
+        <v>1.95</v>
+      </c>
+      <c r="W260">
+        <v>0.363</v>
+      </c>
+      <c r="X260">
+        <v>-1</v>
+      </c>
+      <c r="Y260">
+        <v>-1</v>
+      </c>
+      <c r="Z260">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA260">
+        <v>-1</v>
+      </c>
+      <c r="AB260">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC260">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>7645805</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45368.92013888889</v>
+      </c>
+      <c r="F261" t="s">
+        <v>41</v>
+      </c>
+      <c r="G261" t="s">
+        <v>30</v>
+      </c>
+      <c r="K261">
+        <v>2.4</v>
+      </c>
+      <c r="L261">
+        <v>3.6</v>
+      </c>
+      <c r="M261">
+        <v>2.4</v>
+      </c>
+      <c r="N261">
+        <v>3.2</v>
+      </c>
+      <c r="O261">
+        <v>3.75</v>
+      </c>
+      <c r="P261">
+        <v>1.85</v>
+      </c>
+      <c r="Q261">
+        <v>0.5</v>
+      </c>
+      <c r="R261">
+        <v>1.875</v>
+      </c>
+      <c r="S261">
+        <v>1.925</v>
+      </c>
+      <c r="T261">
+        <v>3</v>
+      </c>
+      <c r="U261">
+        <v>1.975</v>
+      </c>
+      <c r="V261">
+        <v>1.825</v>
+      </c>
+      <c r="W261">
         <v>0</v>
       </c>
-      <c r="X256">
+      <c r="X261">
         <v>0</v>
       </c>
-      <c r="Y256">
+      <c r="Y261">
         <v>0</v>
       </c>
-      <c r="Z256">
+      <c r="Z261">
         <v>0</v>
       </c>
-      <c r="AA256">
+      <c r="AA261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>7645807</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45369.83333333334</v>
+      </c>
+      <c r="F262" t="s">
+        <v>42</v>
+      </c>
+      <c r="G262" t="s">
+        <v>33</v>
+      </c>
+      <c r="K262">
+        <v>4.333</v>
+      </c>
+      <c r="L262">
+        <v>4</v>
+      </c>
+      <c r="M262">
+        <v>1.571</v>
+      </c>
+      <c r="N262">
+        <v>6</v>
+      </c>
+      <c r="O262">
+        <v>4.2</v>
+      </c>
+      <c r="P262">
+        <v>1.4</v>
+      </c>
+      <c r="Q262">
+        <v>1.25</v>
+      </c>
+      <c r="R262">
+        <v>1.825</v>
+      </c>
+      <c r="S262">
+        <v>1.975</v>
+      </c>
+      <c r="T262">
+        <v>3</v>
+      </c>
+      <c r="U262">
+        <v>1.85</v>
+      </c>
+      <c r="V262">
+        <v>1.95</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
+      <c r="AA262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>7645804</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45369.83333333334</v>
+      </c>
+      <c r="F263" t="s">
+        <v>45</v>
+      </c>
+      <c r="G263" t="s">
+        <v>36</v>
+      </c>
+      <c r="K263">
+        <v>1.666</v>
+      </c>
+      <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>3.8</v>
+      </c>
+      <c r="N263">
+        <v>1.4</v>
+      </c>
+      <c r="O263">
+        <v>4.2</v>
+      </c>
+      <c r="P263">
+        <v>6.5</v>
+      </c>
+      <c r="Q263">
+        <v>-1.25</v>
+      </c>
+      <c r="R263">
+        <v>1.95</v>
+      </c>
+      <c r="S263">
+        <v>1.85</v>
+      </c>
+      <c r="T263">
+        <v>3</v>
+      </c>
+      <c r="U263">
+        <v>1.95</v>
+      </c>
+      <c r="V263">
+        <v>1.85</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>7645806</v>
+      </c>
+      <c r="C264" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45369.83333333334</v>
+      </c>
+      <c r="F264" t="s">
+        <v>46</v>
+      </c>
+      <c r="G264" t="s">
+        <v>43</v>
+      </c>
+      <c r="K264">
+        <v>3.2</v>
+      </c>
+      <c r="L264">
+        <v>3.6</v>
+      </c>
+      <c r="M264">
+        <v>1.909</v>
+      </c>
+      <c r="N264">
+        <v>3.1</v>
+      </c>
+      <c r="O264">
+        <v>3.6</v>
+      </c>
+      <c r="P264">
+        <v>1.95</v>
+      </c>
+      <c r="Q264">
+        <v>0.5</v>
+      </c>
+      <c r="R264">
+        <v>1.8</v>
+      </c>
+      <c r="S264">
+        <v>2</v>
+      </c>
+      <c r="T264">
+        <v>3</v>
+      </c>
+      <c r="U264">
+        <v>1.8</v>
+      </c>
+      <c r="V264">
+        <v>2</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AA264">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC264"/>
+  <dimension ref="A1:AC276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
+        <v>1.333</v>
+      </c>
+      <c r="Q47">
+        <v>1.5</v>
+      </c>
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1.181</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.1</v>
+      </c>
+      <c r="O109">
+        <v>9</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.5</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>1.181</v>
-      </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N133">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q133">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M134">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O134">
+        <v>6.5</v>
+      </c>
+      <c r="P134">
+        <v>1.142</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.75</v>
       </c>
-      <c r="P134">
-        <v>1.666</v>
-      </c>
-      <c r="Q134">
-        <v>0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <v>23</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>1.03</v>
+      </c>
+      <c r="N149">
+        <v>29</v>
+      </c>
+      <c r="O149">
+        <v>12</v>
+      </c>
+      <c r="P149">
+        <v>1.055</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>2.1</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.7</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.75</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.1</v>
+      </c>
+      <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>23</v>
-      </c>
-      <c r="L150">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>1.03</v>
-      </c>
-      <c r="N150">
-        <v>29</v>
-      </c>
-      <c r="O150">
-        <v>12</v>
-      </c>
-      <c r="P150">
-        <v>1.055</v>
-      </c>
-      <c r="Q150">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>4</v>
-      </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L215">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
         <v>1.975</v>
       </c>
-      <c r="S215">
-        <v>1.825</v>
-      </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L216">
+        <v>5.5</v>
+      </c>
+      <c r="M216">
         <v>7.5</v>
       </c>
-      <c r="M216">
-        <v>15</v>
-      </c>
       <c r="N216">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O216">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P216">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
         <v>1.825</v>
       </c>
-      <c r="S216">
-        <v>1.975</v>
-      </c>
       <c r="T216">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N221">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N222">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I230">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P230">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U230">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M248">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N248">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O248">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P248">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q248">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R248">
+        <v>1.775</v>
+      </c>
+      <c r="S248">
+        <v>1.925</v>
+      </c>
+      <c r="T248">
+        <v>5.75</v>
+      </c>
+      <c r="U248">
         <v>1.85</v>
       </c>
-      <c r="S248">
+      <c r="V248">
         <v>1.95</v>
       </c>
-      <c r="T248">
-        <v>4</v>
-      </c>
-      <c r="U248">
-        <v>1.8</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
       <c r="W248">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC248">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H249">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L249">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M249">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N249">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O249">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P249">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q249">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R249">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U249">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
         <v>1.975</v>
       </c>
-      <c r="V252">
-        <v>1.825</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
+        <v>0.875</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB252">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23673,7 +23673,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7645805</v>
+        <v>7645724</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23682,43 +23682,52 @@
         <v>28</v>
       </c>
       <c r="E261" s="2">
-        <v>45368.92013888889</v>
+        <v>45367.91666666666</v>
       </c>
       <c r="F261" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G261" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261" t="s">
+        <v>47</v>
       </c>
       <c r="K261">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L261">
+        <v>3.75</v>
+      </c>
+      <c r="M261">
+        <v>2.5</v>
+      </c>
+      <c r="N261">
+        <v>2.2</v>
+      </c>
+      <c r="O261">
         <v>3.6</v>
       </c>
-      <c r="M261">
-        <v>2.4</v>
-      </c>
-      <c r="N261">
-        <v>3.2</v>
-      </c>
-      <c r="O261">
-        <v>3.75</v>
-      </c>
       <c r="P261">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="Q261">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S261">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T261">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U261">
         <v>1.975</v>
@@ -23727,19 +23736,25 @@
         <v>1.825</v>
       </c>
       <c r="W261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB261">
+        <v>-0.5</v>
+      </c>
+      <c r="AC261">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23747,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7645807</v>
+        <v>7645805</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23756,64 +23771,79 @@
         <v>28</v>
       </c>
       <c r="E262" s="2">
-        <v>45369.83333333334</v>
+        <v>45368.92013888889</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G262" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>48</v>
       </c>
       <c r="K262">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M262">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N262">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O262">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P262">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q262">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R262">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S262">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T262">
         <v>3</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W262">
+        <v>2.6</v>
+      </c>
+      <c r="X262">
+        <v>-1</v>
+      </c>
+      <c r="Y262">
+        <v>-1</v>
+      </c>
+      <c r="Z262">
+        <v>0.925</v>
+      </c>
+      <c r="AA262">
+        <v>-1</v>
+      </c>
+      <c r="AB262">
         <v>0</v>
       </c>
-      <c r="X262">
-        <v>0</v>
-      </c>
-      <c r="Y262">
-        <v>0</v>
-      </c>
-      <c r="Z262">
-        <v>0</v>
-      </c>
-      <c r="AA262">
-        <v>0</v>
+      <c r="AC262">
+        <v>-0</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23821,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23833,61 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263" t="s">
+        <v>49</v>
       </c>
       <c r="K263">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M263">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="N263">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P263">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q263">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="U263">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA263">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB263">
+        <v>-1</v>
+      </c>
+      <c r="AC263">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23895,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645806</v>
+        <v>7645807</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23907,40 +23952,49 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="H264">
+        <v>2</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>48</v>
       </c>
       <c r="K264">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="N264">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
+        <v>1.363</v>
+      </c>
+      <c r="Q264">
+        <v>1.5</v>
+      </c>
+      <c r="R264">
+        <v>1.75</v>
+      </c>
+      <c r="S264">
         <v>1.95</v>
       </c>
-      <c r="Q264">
-        <v>0.5</v>
-      </c>
-      <c r="R264">
-        <v>1.8</v>
-      </c>
-      <c r="S264">
-        <v>2</v>
-      </c>
       <c r="T264">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U264">
         <v>1.8</v>
@@ -23949,19 +24003,1093 @@
         <v>2</v>
       </c>
       <c r="W264">
+        <v>6</v>
+      </c>
+      <c r="X264">
+        <v>-1</v>
+      </c>
+      <c r="Y264">
+        <v>-1</v>
+      </c>
+      <c r="Z264">
+        <v>0.75</v>
+      </c>
+      <c r="AA264">
+        <v>-1</v>
+      </c>
+      <c r="AB264">
+        <v>0.4</v>
+      </c>
+      <c r="AC264">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>7645804</v>
+      </c>
+      <c r="C265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45369.83333333334</v>
+      </c>
+      <c r="F265" t="s">
+        <v>45</v>
+      </c>
+      <c r="G265" t="s">
+        <v>36</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
+      </c>
+      <c r="J265" t="s">
+        <v>47</v>
+      </c>
+      <c r="K265">
+        <v>1.666</v>
+      </c>
+      <c r="L265">
+        <v>4</v>
+      </c>
+      <c r="M265">
+        <v>3.8</v>
+      </c>
+      <c r="N265">
+        <v>1.333</v>
+      </c>
+      <c r="O265">
+        <v>4.5</v>
+      </c>
+      <c r="P265">
+        <v>7.5</v>
+      </c>
+      <c r="Q265">
+        <v>-1.5</v>
+      </c>
+      <c r="R265">
+        <v>1.925</v>
+      </c>
+      <c r="S265">
+        <v>1.875</v>
+      </c>
+      <c r="T265">
+        <v>3</v>
+      </c>
+      <c r="U265">
+        <v>1.75</v>
+      </c>
+      <c r="V265">
+        <v>2.05</v>
+      </c>
+      <c r="W265">
+        <v>-1</v>
+      </c>
+      <c r="X265">
+        <v>-1</v>
+      </c>
+      <c r="Y265">
+        <v>6.5</v>
+      </c>
+      <c r="Z265">
+        <v>-1</v>
+      </c>
+      <c r="AA265">
+        <v>0.875</v>
+      </c>
+      <c r="AB265">
         <v>0</v>
       </c>
-      <c r="X264">
+      <c r="AC265">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>7645808</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45369.91666666666</v>
+      </c>
+      <c r="F266" t="s">
+        <v>29</v>
+      </c>
+      <c r="G266" t="s">
+        <v>32</v>
+      </c>
+      <c r="H266">
+        <v>4</v>
+      </c>
+      <c r="I266">
         <v>0</v>
       </c>
-      <c r="Y264">
+      <c r="J266" t="s">
+        <v>48</v>
+      </c>
+      <c r="K266">
+        <v>1.444</v>
+      </c>
+      <c r="L266">
+        <v>4.2</v>
+      </c>
+      <c r="M266">
+        <v>5.5</v>
+      </c>
+      <c r="N266">
+        <v>1.6</v>
+      </c>
+      <c r="O266">
+        <v>4</v>
+      </c>
+      <c r="P266">
+        <v>4.333</v>
+      </c>
+      <c r="Q266">
+        <v>-0.75</v>
+      </c>
+      <c r="R266">
+        <v>1.825</v>
+      </c>
+      <c r="S266">
+        <v>1.975</v>
+      </c>
+      <c r="T266">
+        <v>3.25</v>
+      </c>
+      <c r="U266">
+        <v>1.85</v>
+      </c>
+      <c r="V266">
+        <v>1.95</v>
+      </c>
+      <c r="W266">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X266">
+        <v>-1</v>
+      </c>
+      <c r="Y266">
+        <v>-1</v>
+      </c>
+      <c r="Z266">
+        <v>0.825</v>
+      </c>
+      <c r="AA266">
+        <v>-1</v>
+      </c>
+      <c r="AB266">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC266">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>7645725</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45370.00416666667</v>
+      </c>
+      <c r="F267" t="s">
+        <v>39</v>
+      </c>
+      <c r="G267" t="s">
+        <v>34</v>
+      </c>
+      <c r="H267">
+        <v>2</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267" t="s">
+        <v>48</v>
+      </c>
+      <c r="K267">
+        <v>1.2</v>
+      </c>
+      <c r="L267">
+        <v>6</v>
+      </c>
+      <c r="M267">
+        <v>9</v>
+      </c>
+      <c r="N267">
+        <v>1.1</v>
+      </c>
+      <c r="O267">
+        <v>9</v>
+      </c>
+      <c r="P267">
+        <v>17</v>
+      </c>
+      <c r="Q267">
+        <v>-2.25</v>
+      </c>
+      <c r="R267">
+        <v>1.7</v>
+      </c>
+      <c r="S267">
+        <v>2.1</v>
+      </c>
+      <c r="T267">
+        <v>3.5</v>
+      </c>
+      <c r="U267">
+        <v>1.825</v>
+      </c>
+      <c r="V267">
+        <v>1.975</v>
+      </c>
+      <c r="W267">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="X267">
+        <v>-1</v>
+      </c>
+      <c r="Y267">
+        <v>-1</v>
+      </c>
+      <c r="Z267">
+        <v>-1</v>
+      </c>
+      <c r="AA267">
+        <v>1.1</v>
+      </c>
+      <c r="AB267">
+        <v>-1</v>
+      </c>
+      <c r="AC267">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>7645726</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45374.00416666667</v>
+      </c>
+      <c r="F268" t="s">
+        <v>37</v>
+      </c>
+      <c r="G268" t="s">
+        <v>44</v>
+      </c>
+      <c r="H268">
         <v>0</v>
       </c>
-      <c r="Z264">
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268" t="s">
+        <v>47</v>
+      </c>
+      <c r="K268">
+        <v>1.3</v>
+      </c>
+      <c r="L268">
+        <v>5</v>
+      </c>
+      <c r="M268">
+        <v>6.5</v>
+      </c>
+      <c r="N268">
+        <v>1.333</v>
+      </c>
+      <c r="O268">
+        <v>5</v>
+      </c>
+      <c r="P268">
+        <v>7.5</v>
+      </c>
+      <c r="Q268">
+        <v>-1.5</v>
+      </c>
+      <c r="R268">
+        <v>1.875</v>
+      </c>
+      <c r="S268">
+        <v>1.925</v>
+      </c>
+      <c r="T268">
+        <v>3.5</v>
+      </c>
+      <c r="U268">
+        <v>1.9</v>
+      </c>
+      <c r="V268">
+        <v>1.9</v>
+      </c>
+      <c r="W268">
+        <v>-1</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
+        <v>6.5</v>
+      </c>
+      <c r="Z268">
+        <v>-1</v>
+      </c>
+      <c r="AA268">
+        <v>0.925</v>
+      </c>
+      <c r="AB268">
+        <v>-1</v>
+      </c>
+      <c r="AC268">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>7645810</v>
+      </c>
+      <c r="C269" t="s">
+        <v>28</v>
+      </c>
+      <c r="D269" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45374.625</v>
+      </c>
+      <c r="F269" t="s">
+        <v>35</v>
+      </c>
+      <c r="G269" t="s">
+        <v>45</v>
+      </c>
+      <c r="H269">
+        <v>3</v>
+      </c>
+      <c r="I269">
+        <v>3</v>
+      </c>
+      <c r="J269" t="s">
+        <v>49</v>
+      </c>
+      <c r="K269">
+        <v>1.333</v>
+      </c>
+      <c r="L269">
+        <v>5</v>
+      </c>
+      <c r="M269">
+        <v>6</v>
+      </c>
+      <c r="N269">
+        <v>1.363</v>
+      </c>
+      <c r="O269">
+        <v>5.75</v>
+      </c>
+      <c r="P269">
+        <v>5.25</v>
+      </c>
+      <c r="Q269">
+        <v>-1.5</v>
+      </c>
+      <c r="R269">
+        <v>1.975</v>
+      </c>
+      <c r="S269">
+        <v>1.825</v>
+      </c>
+      <c r="T269">
+        <v>3.5</v>
+      </c>
+      <c r="U269">
+        <v>1.9</v>
+      </c>
+      <c r="V269">
+        <v>1.9</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
+        <v>4.75</v>
+      </c>
+      <c r="Y269">
+        <v>-1</v>
+      </c>
+      <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
+        <v>0.825</v>
+      </c>
+      <c r="AB269">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC269">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>7645811</v>
+      </c>
+      <c r="C270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270" t="s">
+        <v>28</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45374.83333333334</v>
+      </c>
+      <c r="F270" t="s">
+        <v>32</v>
+      </c>
+      <c r="G270" t="s">
+        <v>33</v>
+      </c>
+      <c r="H270">
         <v>0</v>
       </c>
-      <c r="AA264">
+      <c r="I270">
         <v>0</v>
+      </c>
+      <c r="J270" t="s">
+        <v>49</v>
+      </c>
+      <c r="K270">
+        <v>2</v>
+      </c>
+      <c r="L270">
+        <v>3.6</v>
+      </c>
+      <c r="M270">
+        <v>3</v>
+      </c>
+      <c r="N270">
+        <v>1.75</v>
+      </c>
+      <c r="O270">
+        <v>3.8</v>
+      </c>
+      <c r="P270">
+        <v>3.6</v>
+      </c>
+      <c r="Q270">
+        <v>-0.5</v>
+      </c>
+      <c r="R270">
+        <v>1.825</v>
+      </c>
+      <c r="S270">
+        <v>1.975</v>
+      </c>
+      <c r="T270">
+        <v>3</v>
+      </c>
+      <c r="U270">
+        <v>1.925</v>
+      </c>
+      <c r="V270">
+        <v>1.875</v>
+      </c>
+      <c r="W270">
+        <v>-1</v>
+      </c>
+      <c r="X270">
+        <v>2.8</v>
+      </c>
+      <c r="Y270">
+        <v>-1</v>
+      </c>
+      <c r="Z270">
+        <v>-1</v>
+      </c>
+      <c r="AA270">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB270">
+        <v>-1</v>
+      </c>
+      <c r="AC270">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>7645812</v>
+      </c>
+      <c r="C271" t="s">
+        <v>28</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45374.91666666666</v>
+      </c>
+      <c r="F271" t="s">
+        <v>43</v>
+      </c>
+      <c r="G271" t="s">
+        <v>40</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>47</v>
+      </c>
+      <c r="K271">
+        <v>6.5</v>
+      </c>
+      <c r="L271">
+        <v>5</v>
+      </c>
+      <c r="M271">
+        <v>1.333</v>
+      </c>
+      <c r="N271">
+        <v>6.5</v>
+      </c>
+      <c r="O271">
+        <v>5</v>
+      </c>
+      <c r="P271">
+        <v>1.3</v>
+      </c>
+      <c r="Q271">
+        <v>1.5</v>
+      </c>
+      <c r="R271">
+        <v>1.875</v>
+      </c>
+      <c r="S271">
+        <v>1.925</v>
+      </c>
+      <c r="T271">
+        <v>3.25</v>
+      </c>
+      <c r="U271">
+        <v>2</v>
+      </c>
+      <c r="V271">
+        <v>1.8</v>
+      </c>
+      <c r="W271">
+        <v>-1</v>
+      </c>
+      <c r="X271">
+        <v>-1</v>
+      </c>
+      <c r="Y271">
+        <v>0.3</v>
+      </c>
+      <c r="Z271">
+        <v>0.875</v>
+      </c>
+      <c r="AA271">
+        <v>-1</v>
+      </c>
+      <c r="AB271">
+        <v>-1</v>
+      </c>
+      <c r="AC271">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>7645809</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45374.91666666666</v>
+      </c>
+      <c r="F272" t="s">
+        <v>36</v>
+      </c>
+      <c r="G272" t="s">
+        <v>39</v>
+      </c>
+      <c r="H272">
+        <v>2</v>
+      </c>
+      <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272" t="s">
+        <v>49</v>
+      </c>
+      <c r="K272">
+        <v>4.75</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272">
+        <v>1.533</v>
+      </c>
+      <c r="N272">
+        <v>4.75</v>
+      </c>
+      <c r="O272">
+        <v>3.75</v>
+      </c>
+      <c r="P272">
+        <v>1.571</v>
+      </c>
+      <c r="Q272">
+        <v>1</v>
+      </c>
+      <c r="R272">
+        <v>1.775</v>
+      </c>
+      <c r="S272">
+        <v>2.025</v>
+      </c>
+      <c r="T272">
+        <v>2.75</v>
+      </c>
+      <c r="U272">
+        <v>1.95</v>
+      </c>
+      <c r="V272">
+        <v>1.85</v>
+      </c>
+      <c r="W272">
+        <v>-1</v>
+      </c>
+      <c r="X272">
+        <v>2.75</v>
+      </c>
+      <c r="Y272">
+        <v>-1</v>
+      </c>
+      <c r="Z272">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA272">
+        <v>-1</v>
+      </c>
+      <c r="AB272">
+        <v>0.95</v>
+      </c>
+      <c r="AC272">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>7645727</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45375.00416666667</v>
+      </c>
+      <c r="F273" t="s">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>41</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273" t="s">
+        <v>48</v>
+      </c>
+      <c r="K273">
+        <v>1.571</v>
+      </c>
+      <c r="L273">
+        <v>3.75</v>
+      </c>
+      <c r="M273">
+        <v>4.75</v>
+      </c>
+      <c r="N273">
+        <v>1.4</v>
+      </c>
+      <c r="O273">
+        <v>4.333</v>
+      </c>
+      <c r="P273">
+        <v>6.5</v>
+      </c>
+      <c r="Q273">
+        <v>-1.25</v>
+      </c>
+      <c r="R273">
+        <v>1.9</v>
+      </c>
+      <c r="S273">
+        <v>1.9</v>
+      </c>
+      <c r="T273">
+        <v>3</v>
+      </c>
+      <c r="U273">
+        <v>2</v>
+      </c>
+      <c r="V273">
+        <v>1.8</v>
+      </c>
+      <c r="W273">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
+        <v>-1</v>
+      </c>
+      <c r="Z273">
+        <v>-0.5</v>
+      </c>
+      <c r="AA273">
+        <v>0.45</v>
+      </c>
+      <c r="AB273">
+        <v>-1</v>
+      </c>
+      <c r="AC273">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>7645813</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45375.78125</v>
+      </c>
+      <c r="F274" t="s">
+        <v>30</v>
+      </c>
+      <c r="G274" t="s">
+        <v>46</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274" t="s">
+        <v>48</v>
+      </c>
+      <c r="K274">
+        <v>1.05</v>
+      </c>
+      <c r="L274">
+        <v>11</v>
+      </c>
+      <c r="M274">
+        <v>15</v>
+      </c>
+      <c r="N274">
+        <v>1.035</v>
+      </c>
+      <c r="O274">
+        <v>15</v>
+      </c>
+      <c r="P274">
+        <v>41</v>
+      </c>
+      <c r="Q274">
+        <v>-3.75</v>
+      </c>
+      <c r="R274">
+        <v>1.775</v>
+      </c>
+      <c r="S274">
+        <v>1.925</v>
+      </c>
+      <c r="T274">
+        <v>5</v>
+      </c>
+      <c r="U274">
+        <v>1.9</v>
+      </c>
+      <c r="V274">
+        <v>1.9</v>
+      </c>
+      <c r="W274">
+        <v>0.03499999999999992</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
+        <v>-1</v>
+      </c>
+      <c r="Z274">
+        <v>-1</v>
+      </c>
+      <c r="AA274">
+        <v>0.925</v>
+      </c>
+      <c r="AB274">
+        <v>-1</v>
+      </c>
+      <c r="AC274">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>7645814</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45376.83333333334</v>
+      </c>
+      <c r="F275" t="s">
+        <v>42</v>
+      </c>
+      <c r="G275" t="s">
+        <v>38</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>4</v>
+      </c>
+      <c r="J275" t="s">
+        <v>47</v>
+      </c>
+      <c r="K275">
+        <v>7</v>
+      </c>
+      <c r="L275">
+        <v>5</v>
+      </c>
+      <c r="M275">
+        <v>1.3</v>
+      </c>
+      <c r="N275">
+        <v>6.5</v>
+      </c>
+      <c r="O275">
+        <v>5.25</v>
+      </c>
+      <c r="P275">
+        <v>1.333</v>
+      </c>
+      <c r="Q275">
+        <v>1.5</v>
+      </c>
+      <c r="R275">
+        <v>1.9</v>
+      </c>
+      <c r="S275">
+        <v>1.9</v>
+      </c>
+      <c r="T275">
+        <v>3</v>
+      </c>
+      <c r="U275">
+        <v>1.75</v>
+      </c>
+      <c r="V275">
+        <v>1.95</v>
+      </c>
+      <c r="W275">
+        <v>-1</v>
+      </c>
+      <c r="X275">
+        <v>-1</v>
+      </c>
+      <c r="Y275">
+        <v>0.333</v>
+      </c>
+      <c r="Z275">
+        <v>-1</v>
+      </c>
+      <c r="AA275">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB275">
+        <v>0.75</v>
+      </c>
+      <c r="AC275">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>7645728</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45376.92083333333</v>
+      </c>
+      <c r="F276" t="s">
+        <v>29</v>
+      </c>
+      <c r="G276" t="s">
+        <v>34</v>
+      </c>
+      <c r="H276">
+        <v>4</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276" t="s">
+        <v>48</v>
+      </c>
+      <c r="K276">
+        <v>1.015</v>
+      </c>
+      <c r="L276">
+        <v>17</v>
+      </c>
+      <c r="M276">
+        <v>34</v>
+      </c>
+      <c r="N276">
+        <v>1.02</v>
+      </c>
+      <c r="O276">
+        <v>19</v>
+      </c>
+      <c r="P276">
+        <v>51</v>
+      </c>
+      <c r="Q276">
+        <v>-4.25</v>
+      </c>
+      <c r="R276">
+        <v>1.85</v>
+      </c>
+      <c r="S276">
+        <v>1.95</v>
+      </c>
+      <c r="T276">
+        <v>5.25</v>
+      </c>
+      <c r="U276">
+        <v>1.775</v>
+      </c>
+      <c r="V276">
+        <v>1.925</v>
+      </c>
+      <c r="W276">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="X276">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
+        <v>-1</v>
+      </c>
+      <c r="Z276">
+        <v>-0.5</v>
+      </c>
+      <c r="AA276">
+        <v>0.475</v>
+      </c>
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC276"/>
+  <dimension ref="A1:AC281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
+        <v>1.333</v>
+      </c>
+      <c r="Q48">
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>3</v>
       </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.181</v>
-      </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>1.181</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.1</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N131">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>23</v>
-      </c>
-      <c r="L149">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>1.03</v>
-      </c>
-      <c r="N149">
-        <v>29</v>
-      </c>
-      <c r="O149">
-        <v>12</v>
-      </c>
-      <c r="P149">
-        <v>1.055</v>
-      </c>
-      <c r="Q149">
-        <v>3</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>4</v>
-      </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>1.03</v>
+      </c>
+      <c r="N150">
+        <v>29</v>
+      </c>
+      <c r="O150">
+        <v>12</v>
+      </c>
+      <c r="P150">
+        <v>1.055</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.1</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>2.875</v>
-      </c>
-      <c r="N150">
-        <v>1.7</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4</v>
-      </c>
-      <c r="Q150">
-        <v>-0.75</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.75</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
+        <v>17</v>
+      </c>
+      <c r="P229">
+        <v>41</v>
+      </c>
+      <c r="Q229">
+        <v>-3.75</v>
+      </c>
+      <c r="R229">
+        <v>1.775</v>
+      </c>
+      <c r="S229">
+        <v>1.925</v>
+      </c>
+      <c r="T229">
         <v>4.75</v>
       </c>
-      <c r="P229">
-        <v>1.4</v>
-      </c>
-      <c r="Q229">
-        <v>1.25</v>
-      </c>
-      <c r="R229">
-        <v>1.925</v>
-      </c>
-      <c r="S229">
-        <v>1.875</v>
-      </c>
-      <c r="T229">
-        <v>3</v>
-      </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
+        <v>0.5</v>
+      </c>
+      <c r="AC246">
         <v>-0.5</v>
-      </c>
-      <c r="AC246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H248">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L248">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M248">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N248">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O248">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P248">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q248">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L249">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M249">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N249">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O249">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P249">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q249">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R249">
+        <v>1.775</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
+        <v>5.75</v>
+      </c>
+      <c r="U249">
         <v>1.85</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.95</v>
       </c>
-      <c r="T249">
-        <v>4</v>
-      </c>
-      <c r="U249">
-        <v>1.8</v>
-      </c>
-      <c r="V249">
-        <v>2</v>
-      </c>
       <c r="W249">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC249">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645806</v>
+        <v>7645807</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K263">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="N263">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="O263">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
+        <v>1.363</v>
+      </c>
+      <c r="Q263">
+        <v>1.5</v>
+      </c>
+      <c r="R263">
+        <v>1.75</v>
+      </c>
+      <c r="S263">
+        <v>1.95</v>
+      </c>
+      <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
+        <v>1.8</v>
+      </c>
+      <c r="V263">
         <v>2</v>
       </c>
-      <c r="Q263">
-        <v>0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.975</v>
-      </c>
-      <c r="S263">
-        <v>1.825</v>
-      </c>
-      <c r="T263">
-        <v>3</v>
-      </c>
-      <c r="U263">
-        <v>1.9</v>
-      </c>
-      <c r="V263">
-        <v>1.9</v>
-      </c>
       <c r="W263">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.4875</v>
+        <v>0.75</v>
       </c>
       <c r="AA263">
+        <v>-1</v>
+      </c>
+      <c r="AB263">
+        <v>0.4</v>
+      </c>
+      <c r="AC263">
         <v>-0.5</v>
-      </c>
-      <c r="AB263">
-        <v>-1</v>
-      </c>
-      <c r="AC263">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645807</v>
+        <v>7645806</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264" t="s">
+        <v>49</v>
+      </c>
+      <c r="K264">
+        <v>3.2</v>
+      </c>
+      <c r="L264">
+        <v>3.6</v>
+      </c>
+      <c r="M264">
+        <v>1.909</v>
+      </c>
+      <c r="N264">
+        <v>3.1</v>
+      </c>
+      <c r="O264">
+        <v>3.6</v>
+      </c>
+      <c r="P264">
         <v>2</v>
       </c>
-      <c r="I264">
-        <v>1</v>
-      </c>
-      <c r="J264" t="s">
-        <v>48</v>
-      </c>
-      <c r="K264">
-        <v>4.333</v>
-      </c>
-      <c r="L264">
-        <v>4</v>
-      </c>
-      <c r="M264">
-        <v>1.571</v>
-      </c>
-      <c r="N264">
-        <v>7</v>
-      </c>
-      <c r="O264">
-        <v>4.2</v>
-      </c>
-      <c r="P264">
-        <v>1.363</v>
-      </c>
       <c r="Q264">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U264">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>49</v>
+      </c>
+      <c r="K271">
+        <v>4.75</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271">
+        <v>1.533</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
+        <v>3.75</v>
+      </c>
+      <c r="P271">
+        <v>1.571</v>
+      </c>
+      <c r="Q271">
         <v>1</v>
       </c>
-      <c r="J271" t="s">
-        <v>47</v>
-      </c>
-      <c r="K271">
-        <v>6.5</v>
-      </c>
-      <c r="L271">
-        <v>5</v>
-      </c>
-      <c r="M271">
-        <v>1.333</v>
-      </c>
-      <c r="N271">
-        <v>6.5</v>
-      </c>
-      <c r="O271">
-        <v>5</v>
-      </c>
-      <c r="P271">
-        <v>1.3</v>
-      </c>
-      <c r="Q271">
-        <v>1.5</v>
-      </c>
       <c r="R271">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S271">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T271">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y271">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>47</v>
+      </c>
+      <c r="K272">
+        <v>6.5</v>
+      </c>
+      <c r="L272">
+        <v>5</v>
+      </c>
+      <c r="M272">
+        <v>1.333</v>
+      </c>
+      <c r="N272">
+        <v>6.5</v>
+      </c>
+      <c r="O272">
+        <v>5</v>
+      </c>
+      <c r="P272">
+        <v>1.3</v>
+      </c>
+      <c r="Q272">
+        <v>1.5</v>
+      </c>
+      <c r="R272">
+        <v>1.875</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
+        <v>3.25</v>
+      </c>
+      <c r="U272">
         <v>2</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
-      <c r="J272" t="s">
-        <v>49</v>
-      </c>
-      <c r="K272">
-        <v>4.75</v>
-      </c>
-      <c r="L272">
-        <v>4</v>
-      </c>
-      <c r="M272">
-        <v>1.533</v>
-      </c>
-      <c r="N272">
-        <v>4.75</v>
-      </c>
-      <c r="O272">
-        <v>3.75</v>
-      </c>
-      <c r="P272">
-        <v>1.571</v>
-      </c>
-      <c r="Q272">
-        <v>1</v>
-      </c>
-      <c r="R272">
-        <v>1.775</v>
-      </c>
-      <c r="S272">
-        <v>2.025</v>
-      </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
-        <v>1.95</v>
-      </c>
       <c r="V272">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z272">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -25090,6 +25090,391 @@
       </c>
       <c r="AC276">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>7645729</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45380</v>
+      </c>
+      <c r="F277" t="s">
+        <v>40</v>
+      </c>
+      <c r="G277" t="s">
+        <v>37</v>
+      </c>
+      <c r="H277">
+        <v>3</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>48</v>
+      </c>
+      <c r="K277">
+        <v>1.285</v>
+      </c>
+      <c r="L277">
+        <v>5</v>
+      </c>
+      <c r="M277">
+        <v>7.5</v>
+      </c>
+      <c r="N277">
+        <v>1.2</v>
+      </c>
+      <c r="O277">
+        <v>7</v>
+      </c>
+      <c r="P277">
+        <v>8.5</v>
+      </c>
+      <c r="Q277">
+        <v>-1.75</v>
+      </c>
+      <c r="R277">
+        <v>1.95</v>
+      </c>
+      <c r="S277">
+        <v>1.85</v>
+      </c>
+      <c r="T277">
+        <v>3.25</v>
+      </c>
+      <c r="U277">
+        <v>1.85</v>
+      </c>
+      <c r="V277">
+        <v>1.95</v>
+      </c>
+      <c r="W277">
+        <v>0.2</v>
+      </c>
+      <c r="X277">
+        <v>-1</v>
+      </c>
+      <c r="Y277">
+        <v>-1</v>
+      </c>
+      <c r="Z277">
+        <v>0.475</v>
+      </c>
+      <c r="AA277">
+        <v>-0.5</v>
+      </c>
+      <c r="AB277">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC277">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>7645815</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45380.78125</v>
+      </c>
+      <c r="F278" t="s">
+        <v>44</v>
+      </c>
+      <c r="G278" t="s">
+        <v>30</v>
+      </c>
+      <c r="K278">
+        <v>10</v>
+      </c>
+      <c r="L278">
+        <v>8</v>
+      </c>
+      <c r="M278">
+        <v>1.125</v>
+      </c>
+      <c r="N278">
+        <v>19</v>
+      </c>
+      <c r="O278">
+        <v>9</v>
+      </c>
+      <c r="P278">
+        <v>1.1</v>
+      </c>
+      <c r="Q278">
+        <v>2.75</v>
+      </c>
+      <c r="R278">
+        <v>1.8</v>
+      </c>
+      <c r="S278">
+        <v>2</v>
+      </c>
+      <c r="T278">
+        <v>3.75</v>
+      </c>
+      <c r="U278">
+        <v>1.825</v>
+      </c>
+      <c r="V278">
+        <v>1.975</v>
+      </c>
+      <c r="W278">
+        <v>0</v>
+      </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
+      <c r="Y278">
+        <v>0</v>
+      </c>
+      <c r="Z278">
+        <v>0</v>
+      </c>
+      <c r="AA278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>7645816</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45380.83333333334</v>
+      </c>
+      <c r="F279" t="s">
+        <v>39</v>
+      </c>
+      <c r="G279" t="s">
+        <v>42</v>
+      </c>
+      <c r="K279">
+        <v>1.333</v>
+      </c>
+      <c r="L279">
+        <v>4.75</v>
+      </c>
+      <c r="M279">
+        <v>6.5</v>
+      </c>
+      <c r="N279">
+        <v>1.285</v>
+      </c>
+      <c r="O279">
+        <v>5.75</v>
+      </c>
+      <c r="P279">
+        <v>7.5</v>
+      </c>
+      <c r="Q279">
+        <v>-1.75</v>
+      </c>
+      <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
+        <v>1.8</v>
+      </c>
+      <c r="T279">
+        <v>3</v>
+      </c>
+      <c r="U279">
+        <v>1.825</v>
+      </c>
+      <c r="V279">
+        <v>1.975</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>0</v>
+      </c>
+      <c r="Z279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>7645817</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45380.92083333333</v>
+      </c>
+      <c r="F280" t="s">
+        <v>33</v>
+      </c>
+      <c r="G280" t="s">
+        <v>36</v>
+      </c>
+      <c r="K280">
+        <v>1.333</v>
+      </c>
+      <c r="L280">
+        <v>4.75</v>
+      </c>
+      <c r="M280">
+        <v>6.5</v>
+      </c>
+      <c r="N280">
+        <v>1.2</v>
+      </c>
+      <c r="O280">
+        <v>6</v>
+      </c>
+      <c r="P280">
+        <v>11</v>
+      </c>
+      <c r="Q280">
+        <v>-2</v>
+      </c>
+      <c r="R280">
+        <v>1.9</v>
+      </c>
+      <c r="S280">
+        <v>1.9</v>
+      </c>
+      <c r="T280">
+        <v>3.5</v>
+      </c>
+      <c r="U280">
+        <v>1.95</v>
+      </c>
+      <c r="V280">
+        <v>1.85</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>7645820</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45381.83333333334</v>
+      </c>
+      <c r="F281" t="s">
+        <v>46</v>
+      </c>
+      <c r="G281" t="s">
+        <v>29</v>
+      </c>
+      <c r="K281">
+        <v>9</v>
+      </c>
+      <c r="L281">
+        <v>4</v>
+      </c>
+      <c r="M281">
+        <v>1.333</v>
+      </c>
+      <c r="N281">
+        <v>8</v>
+      </c>
+      <c r="O281">
+        <v>4.2</v>
+      </c>
+      <c r="P281">
+        <v>1.333</v>
+      </c>
+      <c r="Q281">
+        <v>1.25</v>
+      </c>
+      <c r="R281">
+        <v>2.05</v>
+      </c>
+      <c r="S281">
+        <v>1.75</v>
+      </c>
+      <c r="T281">
+        <v>3.25</v>
+      </c>
+      <c r="U281">
+        <v>2.025</v>
+      </c>
+      <c r="V281">
+        <v>1.775</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1.181</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.1</v>
+      </c>
+      <c r="O109">
+        <v>9</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.5</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>1.181</v>
-      </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L215">
+        <v>5.5</v>
+      </c>
+      <c r="M215">
         <v>7.5</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
       <c r="N215">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
       <c r="T215">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M216">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N216">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
       </c>
-      <c r="S216">
-        <v>1.825</v>
-      </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N229">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z229">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
+        <v>0.5</v>
+      </c>
+      <c r="AC245">
         <v>-0.5</v>
-      </c>
-      <c r="AC245">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P246">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
+        <v>0.875</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
         <v>1.825</v>
       </c>
-      <c r="V252">
-        <v>1.975</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645807</v>
+        <v>7645804</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
         <v>2</v>
       </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="N263">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>1.363</v>
+        <v>7.5</v>
       </c>
       <c r="Q263">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
+        <v>1.925</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
+        <v>3</v>
+      </c>
+      <c r="U263">
         <v>1.75</v>
       </c>
-      <c r="S263">
-        <v>1.95</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.8</v>
-      </c>
       <c r="V263">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W263">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z263">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645806</v>
+        <v>7645807</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K264">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="N264">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
+        <v>1.363</v>
+      </c>
+      <c r="Q264">
+        <v>1.5</v>
+      </c>
+      <c r="R264">
+        <v>1.75</v>
+      </c>
+      <c r="S264">
+        <v>1.95</v>
+      </c>
+      <c r="T264">
+        <v>2.75</v>
+      </c>
+      <c r="U264">
+        <v>1.8</v>
+      </c>
+      <c r="V264">
         <v>2</v>
       </c>
-      <c r="Q264">
-        <v>0.25</v>
-      </c>
-      <c r="R264">
-        <v>1.975</v>
-      </c>
-      <c r="S264">
-        <v>1.825</v>
-      </c>
-      <c r="T264">
-        <v>3</v>
-      </c>
-      <c r="U264">
-        <v>1.9</v>
-      </c>
-      <c r="V264">
-        <v>1.9</v>
-      </c>
       <c r="W264">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X264">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.4875</v>
+        <v>0.75</v>
       </c>
       <c r="AA264">
+        <v>-1</v>
+      </c>
+      <c r="AB264">
+        <v>0.4</v>
+      </c>
+      <c r="AC264">
         <v>-0.5</v>
-      </c>
-      <c r="AB264">
-        <v>-1</v>
-      </c>
-      <c r="AC264">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>49</v>
+      </c>
+      <c r="K265">
+        <v>3.2</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>1.909</v>
+      </c>
+      <c r="N265">
+        <v>3.1</v>
+      </c>
+      <c r="O265">
+        <v>3.6</v>
+      </c>
+      <c r="P265">
         <v>2</v>
       </c>
-      <c r="J265" t="s">
-        <v>47</v>
-      </c>
-      <c r="K265">
-        <v>1.666</v>
-      </c>
-      <c r="L265">
-        <v>4</v>
-      </c>
-      <c r="M265">
-        <v>3.8</v>
-      </c>
-      <c r="N265">
-        <v>1.333</v>
-      </c>
-      <c r="O265">
-        <v>4.5</v>
-      </c>
-      <c r="P265">
-        <v>7.5</v>
-      </c>
       <c r="Q265">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S265">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y265">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA265">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -25225,19 +25225,19 @@
         <v>2.75</v>
       </c>
       <c r="R278">
+        <v>1.825</v>
+      </c>
+      <c r="S278">
+        <v>1.975</v>
+      </c>
+      <c r="T278">
+        <v>4</v>
+      </c>
+      <c r="U278">
+        <v>2</v>
+      </c>
+      <c r="V278">
         <v>1.8</v>
-      </c>
-      <c r="S278">
-        <v>2</v>
-      </c>
-      <c r="T278">
-        <v>3.75</v>
-      </c>
-      <c r="U278">
-        <v>1.825</v>
-      </c>
-      <c r="V278">
-        <v>1.975</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25435,22 +25435,22 @@
         <v>1.333</v>
       </c>
       <c r="N281">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O281">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P281">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="Q281">
         <v>1.25</v>
       </c>
       <c r="R281">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S281">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T281">
         <v>3.25</v>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC281"/>
+  <dimension ref="A1:AC282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>2.375</v>
+      </c>
+      <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>2.5</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
         <v>3.5</v>
       </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>1.833</v>
-      </c>
-      <c r="N56">
-        <v>4.333</v>
-      </c>
-      <c r="O56">
-        <v>3.75</v>
-      </c>
       <c r="P56">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.181</v>
-      </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>1.181</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.1</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
+        <v>0.5</v>
+      </c>
+      <c r="AC246">
         <v>-0.5</v>
-      </c>
-      <c r="AC246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
         <v>1.975</v>
       </c>
-      <c r="V252">
-        <v>1.825</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
+        <v>0.875</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB252">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -25186,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7645815</v>
+        <v>7645820</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25195,49 +25195,49 @@
         <v>28</v>
       </c>
       <c r="E278" s="2">
-        <v>45380.78125</v>
+        <v>45381.83333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G278" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K278">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L278">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M278">
-        <v>1.125</v>
+        <v>1.333</v>
       </c>
       <c r="N278">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="O278">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P278">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q278">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="R278">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S278">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T278">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U278">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V278">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25260,7 +25260,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7645816</v>
+        <v>8030105</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25269,40 +25269,40 @@
         <v>28</v>
       </c>
       <c r="E279" s="2">
-        <v>45380.83333333334</v>
+        <v>45382.00694444445</v>
       </c>
       <c r="F279" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G279" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K279">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L279">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M279">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N279">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O279">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P279">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q279">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S279">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T279">
         <v>3</v>
@@ -25334,7 +25334,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7645817</v>
+        <v>7645819</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25343,22 +25343,22 @@
         <v>28</v>
       </c>
       <c r="E280" s="2">
-        <v>45380.92083333333</v>
+        <v>45382.625</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G280" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K280">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="L280">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M280">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N280">
         <v>1.2</v>
@@ -25367,25 +25367,25 @@
         <v>6</v>
       </c>
       <c r="P280">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Q280">
         <v>-2</v>
       </c>
       <c r="R280">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S280">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T280">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U280">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V280">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W280">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7645820</v>
+        <v>7645730</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25417,49 +25417,49 @@
         <v>28</v>
       </c>
       <c r="E281" s="2">
-        <v>45381.83333333334</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G281" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K281">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M281">
-        <v>1.333</v>
+        <v>1.166</v>
       </c>
       <c r="N281">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="O281">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P281">
-        <v>1.4</v>
+        <v>1.111</v>
       </c>
       <c r="Q281">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R281">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S281">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T281">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U281">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25474,6 +25474,80 @@
         <v>0</v>
       </c>
       <c r="AA281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>7645731</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45382.92083333333</v>
+      </c>
+      <c r="F282" t="s">
+        <v>34</v>
+      </c>
+      <c r="G282" t="s">
+        <v>35</v>
+      </c>
+      <c r="K282">
+        <v>17</v>
+      </c>
+      <c r="L282">
+        <v>7</v>
+      </c>
+      <c r="M282">
+        <v>1.125</v>
+      </c>
+      <c r="N282">
+        <v>17</v>
+      </c>
+      <c r="O282">
+        <v>7</v>
+      </c>
+      <c r="P282">
+        <v>1.125</v>
+      </c>
+      <c r="Q282">
+        <v>2.25</v>
+      </c>
+      <c r="R282">
+        <v>1.9</v>
+      </c>
+      <c r="S282">
+        <v>1.9</v>
+      </c>
+      <c r="T282">
+        <v>3.25</v>
+      </c>
+      <c r="U282">
+        <v>1.9</v>
+      </c>
+      <c r="V282">
+        <v>1.9</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>0</v>
+      </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
+        <v>1.333</v>
+      </c>
+      <c r="Q47">
+        <v>1.5</v>
+      </c>
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1.181</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.1</v>
+      </c>
+      <c r="O109">
+        <v>9</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.5</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>1.181</v>
-      </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O133">
+        <v>6.5</v>
+      </c>
+      <c r="P133">
+        <v>1.142</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>1.666</v>
-      </c>
-      <c r="Q133">
-        <v>0.75</v>
-      </c>
-      <c r="R133">
-        <v>1.925</v>
-      </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N134">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O134">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q134">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <v>23</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>1.03</v>
+      </c>
+      <c r="N149">
+        <v>29</v>
+      </c>
+      <c r="O149">
+        <v>12</v>
+      </c>
+      <c r="P149">
+        <v>1.055</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>2.1</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.7</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.75</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.1</v>
+      </c>
+      <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>23</v>
-      </c>
-      <c r="L150">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>1.03</v>
-      </c>
-      <c r="N150">
-        <v>29</v>
-      </c>
-      <c r="O150">
-        <v>12</v>
-      </c>
-      <c r="P150">
-        <v>1.055</v>
-      </c>
-      <c r="Q150">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>4</v>
-      </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L215">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
         <v>1.975</v>
       </c>
-      <c r="S215">
-        <v>1.825</v>
-      </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L216">
+        <v>5.5</v>
+      </c>
+      <c r="M216">
         <v>7.5</v>
       </c>
-      <c r="M216">
-        <v>15</v>
-      </c>
       <c r="N216">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O216">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P216">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
         <v>1.825</v>
       </c>
-      <c r="S216">
-        <v>1.975</v>
-      </c>
       <c r="T216">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N229">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N230">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q230">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,56 +21104,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N232">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P232">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U232">
+        <v>1.925</v>
+      </c>
+      <c r="V232">
         <v>1.775</v>
       </c>
-      <c r="V232">
-        <v>2.025</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,55 +21193,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L233">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N233">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V233">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
+        <v>0.5</v>
+      </c>
+      <c r="AC245">
         <v>-0.5</v>
-      </c>
-      <c r="AC245">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P246">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263" t="s">
+        <v>49</v>
+      </c>
+      <c r="K263">
+        <v>3.2</v>
+      </c>
+      <c r="L263">
+        <v>3.6</v>
+      </c>
+      <c r="M263">
+        <v>1.909</v>
+      </c>
+      <c r="N263">
+        <v>3.1</v>
+      </c>
+      <c r="O263">
+        <v>3.6</v>
+      </c>
+      <c r="P263">
         <v>2</v>
       </c>
-      <c r="J263" t="s">
-        <v>47</v>
-      </c>
-      <c r="K263">
-        <v>1.666</v>
-      </c>
-      <c r="L263">
-        <v>4</v>
-      </c>
-      <c r="M263">
-        <v>3.8</v>
-      </c>
-      <c r="N263">
-        <v>1.333</v>
-      </c>
-      <c r="O263">
-        <v>4.5</v>
-      </c>
-      <c r="P263">
-        <v>7.5</v>
-      </c>
       <c r="Q263">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y263">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K265">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N265">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P265">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q265">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z265">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>47</v>
+      </c>
+      <c r="K271">
+        <v>6.5</v>
+      </c>
+      <c r="L271">
+        <v>5</v>
+      </c>
+      <c r="M271">
+        <v>1.333</v>
+      </c>
+      <c r="N271">
+        <v>6.5</v>
+      </c>
+      <c r="O271">
+        <v>5</v>
+      </c>
+      <c r="P271">
+        <v>1.3</v>
+      </c>
+      <c r="Q271">
+        <v>1.5</v>
+      </c>
+      <c r="R271">
+        <v>1.875</v>
+      </c>
+      <c r="S271">
+        <v>1.925</v>
+      </c>
+      <c r="T271">
+        <v>3.25</v>
+      </c>
+      <c r="U271">
         <v>2</v>
       </c>
-      <c r="I271">
-        <v>2</v>
-      </c>
-      <c r="J271" t="s">
-        <v>49</v>
-      </c>
-      <c r="K271">
-        <v>4.75</v>
-      </c>
-      <c r="L271">
-        <v>4</v>
-      </c>
-      <c r="M271">
-        <v>1.533</v>
-      </c>
-      <c r="N271">
-        <v>4.75</v>
-      </c>
-      <c r="O271">
-        <v>3.75</v>
-      </c>
-      <c r="P271">
-        <v>1.571</v>
-      </c>
-      <c r="Q271">
-        <v>1</v>
-      </c>
-      <c r="R271">
-        <v>1.775</v>
-      </c>
-      <c r="S271">
-        <v>2.025</v>
-      </c>
-      <c r="T271">
-        <v>2.75</v>
-      </c>
-      <c r="U271">
-        <v>1.95</v>
-      </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z271">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272" t="s">
+        <v>49</v>
+      </c>
+      <c r="K272">
+        <v>4.75</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272">
+        <v>1.533</v>
+      </c>
+      <c r="N272">
+        <v>4.75</v>
+      </c>
+      <c r="O272">
+        <v>3.75</v>
+      </c>
+      <c r="P272">
+        <v>1.571</v>
+      </c>
+      <c r="Q272">
         <v>1</v>
       </c>
-      <c r="J272" t="s">
-        <v>47</v>
-      </c>
-      <c r="K272">
-        <v>6.5</v>
-      </c>
-      <c r="L272">
-        <v>5</v>
-      </c>
-      <c r="M272">
-        <v>1.333</v>
-      </c>
-      <c r="N272">
-        <v>6.5</v>
-      </c>
-      <c r="O272">
-        <v>5</v>
-      </c>
-      <c r="P272">
-        <v>1.3</v>
-      </c>
-      <c r="Q272">
-        <v>1.5</v>
-      </c>
       <c r="R272">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S272">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T272">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y272">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -25186,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7645820</v>
+        <v>7645815</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25195,64 +25195,79 @@
         <v>28</v>
       </c>
       <c r="E278" s="2">
-        <v>45381.83333333334</v>
+        <v>45380.78125</v>
       </c>
       <c r="F278" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G278" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>5</v>
+      </c>
+      <c r="J278" t="s">
+        <v>47</v>
       </c>
       <c r="K278">
+        <v>10</v>
+      </c>
+      <c r="L278">
+        <v>8</v>
+      </c>
+      <c r="M278">
+        <v>1.125</v>
+      </c>
+      <c r="N278">
+        <v>21</v>
+      </c>
+      <c r="O278">
         <v>9</v>
       </c>
-      <c r="L278">
-        <v>4</v>
-      </c>
-      <c r="M278">
-        <v>1.333</v>
-      </c>
-      <c r="N278">
-        <v>8.5</v>
-      </c>
-      <c r="O278">
-        <v>5</v>
-      </c>
       <c r="P278">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="Q278">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="R278">
+        <v>1.85</v>
+      </c>
+      <c r="S278">
         <v>1.95</v>
       </c>
-      <c r="S278">
-        <v>1.85</v>
-      </c>
       <c r="T278">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="Z278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB278">
+        <v>0.8</v>
+      </c>
+      <c r="AC278">
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25260,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>8030105</v>
+        <v>7645816</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25269,64 +25284,79 @@
         <v>28</v>
       </c>
       <c r="E279" s="2">
-        <v>45382.00694444445</v>
+        <v>45380.83333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G279" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>49</v>
       </c>
       <c r="K279">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L279">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M279">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N279">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O279">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P279">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R279">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S279">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T279">
         <v>3</v>
       </c>
       <c r="U279">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V279">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X279">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Y279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB279">
+        <v>-1</v>
+      </c>
+      <c r="AC279">
+        <v>0.75</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25334,7 +25364,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7645819</v>
+        <v>7645817</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25343,64 +25373,79 @@
         <v>28</v>
       </c>
       <c r="E280" s="2">
-        <v>45382.625</v>
+        <v>45380.92083333333</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G280" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="H280">
+        <v>3</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280" t="s">
+        <v>48</v>
       </c>
       <c r="K280">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="L280">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M280">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N280">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="O280">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="P280">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Q280">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="R280">
+        <v>1.8</v>
+      </c>
+      <c r="S280">
+        <v>2</v>
+      </c>
+      <c r="T280">
+        <v>3.75</v>
+      </c>
+      <c r="U280">
+        <v>1.825</v>
+      </c>
+      <c r="V280">
         <v>1.975</v>
       </c>
-      <c r="S280">
-        <v>1.825</v>
-      </c>
-      <c r="T280">
-        <v>3.25</v>
-      </c>
-      <c r="U280">
-        <v>1.925</v>
-      </c>
-      <c r="V280">
-        <v>1.875</v>
-      </c>
       <c r="W280">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA280">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25435,13 +25480,13 @@
         <v>1.166</v>
       </c>
       <c r="N281">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O281">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="P281">
-        <v>1.111</v>
+        <v>1.125</v>
       </c>
       <c r="Q281">
         <v>2.5</v>
@@ -25453,13 +25498,13 @@
         <v>2</v>
       </c>
       <c r="T281">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U281">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V281">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25509,16 +25554,16 @@
         <v>1.125</v>
       </c>
       <c r="N282">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O282">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="P282">
-        <v>1.125</v>
+        <v>1.222</v>
       </c>
       <c r="Q282">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="R282">
         <v>1.9</v>
@@ -25527,13 +25572,13 @@
         <v>1.9</v>
       </c>
       <c r="T282">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
         <v>0</v>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC282"/>
+  <dimension ref="A1:AC285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
+        <v>1.333</v>
+      </c>
+      <c r="Q48">
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>3</v>
       </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
+        <v>2.375</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.5</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
         <v>3.5</v>
       </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>1.833</v>
-      </c>
-      <c r="N55">
-        <v>4.333</v>
-      </c>
-      <c r="O55">
-        <v>3.75</v>
-      </c>
       <c r="P55">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.95</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>23</v>
-      </c>
-      <c r="L149">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>1.03</v>
-      </c>
-      <c r="N149">
-        <v>29</v>
-      </c>
-      <c r="O149">
-        <v>12</v>
-      </c>
-      <c r="P149">
-        <v>1.055</v>
-      </c>
-      <c r="Q149">
-        <v>3</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>4</v>
-      </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>1.03</v>
+      </c>
+      <c r="N150">
+        <v>29</v>
+      </c>
+      <c r="O150">
+        <v>12</v>
+      </c>
+      <c r="P150">
+        <v>1.055</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.1</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>2.875</v>
-      </c>
-      <c r="N150">
-        <v>1.7</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4</v>
-      </c>
-      <c r="Q150">
-        <v>-0.75</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.75</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M213">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P213">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N214">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q214">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
         <v>1.75</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>3.75</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N222">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X222">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC222">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,49 +20837,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N229">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
         <v>1.75</v>
@@ -20894,13 +20894,13 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB229">
         <v>0.75</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
+        <v>0.5</v>
+      </c>
+      <c r="AC246">
         <v>-0.5</v>
-      </c>
-      <c r="AC246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N263">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O263">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S263">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V263">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z263">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>49</v>
+      </c>
+      <c r="K265">
+        <v>3.2</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>1.909</v>
+      </c>
+      <c r="N265">
+        <v>3.1</v>
+      </c>
+      <c r="O265">
+        <v>3.6</v>
+      </c>
+      <c r="P265">
         <v>2</v>
       </c>
-      <c r="J265" t="s">
-        <v>47</v>
-      </c>
-      <c r="K265">
-        <v>1.666</v>
-      </c>
-      <c r="L265">
-        <v>4</v>
-      </c>
-      <c r="M265">
-        <v>3.8</v>
-      </c>
-      <c r="N265">
-        <v>1.333</v>
-      </c>
-      <c r="O265">
-        <v>4.5</v>
-      </c>
-      <c r="P265">
-        <v>7.5</v>
-      </c>
       <c r="Q265">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S265">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y265">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA265">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -25453,7 +25453,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7645730</v>
+        <v>7645820</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25462,64 +25462,79 @@
         <v>28</v>
       </c>
       <c r="E281" s="2">
-        <v>45382.83333333334</v>
+        <v>45381.83333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G281" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>3</v>
+      </c>
+      <c r="J281" t="s">
+        <v>47</v>
       </c>
       <c r="K281">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L281">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M281">
-        <v>1.166</v>
+        <v>1.333</v>
       </c>
       <c r="N281">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O281">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P281">
-        <v>1.125</v>
+        <v>1.2</v>
       </c>
       <c r="Q281">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R281">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T281">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U281">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V281">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W281">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z281">
         <v>0</v>
       </c>
       <c r="AA281">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB281">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC281">
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25527,73 +25542,355 @@
         <v>280</v>
       </c>
       <c r="B282">
+        <v>8030105</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45382.00694444445</v>
+      </c>
+      <c r="F282" t="s">
+        <v>38</v>
+      </c>
+      <c r="G282" t="s">
+        <v>32</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282" t="s">
+        <v>49</v>
+      </c>
+      <c r="K282">
+        <v>1.8</v>
+      </c>
+      <c r="L282">
+        <v>3.75</v>
+      </c>
+      <c r="M282">
+        <v>3.75</v>
+      </c>
+      <c r="N282">
+        <v>1.7</v>
+      </c>
+      <c r="O282">
+        <v>3.8</v>
+      </c>
+      <c r="P282">
+        <v>4.2</v>
+      </c>
+      <c r="Q282">
+        <v>-0.75</v>
+      </c>
+      <c r="R282">
+        <v>1.925</v>
+      </c>
+      <c r="S282">
+        <v>1.875</v>
+      </c>
+      <c r="T282">
+        <v>3</v>
+      </c>
+      <c r="U282">
+        <v>1.825</v>
+      </c>
+      <c r="V282">
+        <v>1.975</v>
+      </c>
+      <c r="W282">
+        <v>-1</v>
+      </c>
+      <c r="X282">
+        <v>2.8</v>
+      </c>
+      <c r="Y282">
+        <v>-1</v>
+      </c>
+      <c r="Z282">
+        <v>-1</v>
+      </c>
+      <c r="AA282">
+        <v>0.875</v>
+      </c>
+      <c r="AB282">
+        <v>-1</v>
+      </c>
+      <c r="AC282">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>7645819</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45382.62847222222</v>
+      </c>
+      <c r="F283" t="s">
+        <v>41</v>
+      </c>
+      <c r="G283" t="s">
+        <v>43</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283" t="s">
+        <v>49</v>
+      </c>
+      <c r="K283">
+        <v>1.222</v>
+      </c>
+      <c r="L283">
+        <v>6</v>
+      </c>
+      <c r="M283">
+        <v>8</v>
+      </c>
+      <c r="N283">
+        <v>1.222</v>
+      </c>
+      <c r="O283">
+        <v>5.75</v>
+      </c>
+      <c r="P283">
+        <v>9</v>
+      </c>
+      <c r="Q283">
+        <v>-1.75</v>
+      </c>
+      <c r="R283">
+        <v>1.825</v>
+      </c>
+      <c r="S283">
+        <v>1.975</v>
+      </c>
+      <c r="T283">
+        <v>3.25</v>
+      </c>
+      <c r="U283">
+        <v>1.9</v>
+      </c>
+      <c r="V283">
+        <v>1.9</v>
+      </c>
+      <c r="W283">
+        <v>-1</v>
+      </c>
+      <c r="X283">
+        <v>4.75</v>
+      </c>
+      <c r="Y283">
+        <v>-1</v>
+      </c>
+      <c r="Z283">
+        <v>-1</v>
+      </c>
+      <c r="AA283">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>7645730</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45382.83333333334</v>
+      </c>
+      <c r="F284" t="s">
+        <v>45</v>
+      </c>
+      <c r="G284" t="s">
+        <v>31</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>6</v>
+      </c>
+      <c r="J284" t="s">
+        <v>47</v>
+      </c>
+      <c r="K284">
+        <v>13</v>
+      </c>
+      <c r="L284">
+        <v>6.5</v>
+      </c>
+      <c r="M284">
+        <v>1.166</v>
+      </c>
+      <c r="N284">
+        <v>17</v>
+      </c>
+      <c r="O284">
+        <v>7</v>
+      </c>
+      <c r="P284">
+        <v>1.125</v>
+      </c>
+      <c r="Q284">
+        <v>2.5</v>
+      </c>
+      <c r="R284">
+        <v>1.825</v>
+      </c>
+      <c r="S284">
+        <v>1.975</v>
+      </c>
+      <c r="T284">
+        <v>3.75</v>
+      </c>
+      <c r="U284">
+        <v>1.975</v>
+      </c>
+      <c r="V284">
+        <v>1.825</v>
+      </c>
+      <c r="W284">
+        <v>-1</v>
+      </c>
+      <c r="X284">
+        <v>-1</v>
+      </c>
+      <c r="Y284">
+        <v>0.125</v>
+      </c>
+      <c r="Z284">
+        <v>-1</v>
+      </c>
+      <c r="AA284">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB284">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC284">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
         <v>7645731</v>
       </c>
-      <c r="C282" t="s">
-        <v>28</v>
-      </c>
-      <c r="D282" t="s">
-        <v>28</v>
-      </c>
-      <c r="E282" s="2">
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2">
         <v>45382.92083333333</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F285" t="s">
         <v>34</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G285" t="s">
         <v>35</v>
       </c>
-      <c r="K282">
+      <c r="H285">
+        <v>2</v>
+      </c>
+      <c r="I285">
+        <v>3</v>
+      </c>
+      <c r="J285" t="s">
+        <v>47</v>
+      </c>
+      <c r="K285">
         <v>17</v>
       </c>
-      <c r="L282">
+      <c r="L285">
         <v>7</v>
       </c>
-      <c r="M282">
+      <c r="M285">
         <v>1.125</v>
       </c>
-      <c r="N282">
+      <c r="N285">
         <v>11</v>
       </c>
-      <c r="O282">
-        <v>5.75</v>
-      </c>
-      <c r="P282">
-        <v>1.222</v>
-      </c>
-      <c r="Q282">
+      <c r="O285">
+        <v>6</v>
+      </c>
+      <c r="P285">
+        <v>1.2</v>
+      </c>
+      <c r="Q285">
         <v>2</v>
       </c>
-      <c r="R282">
-        <v>1.9</v>
-      </c>
-      <c r="S282">
-        <v>1.9</v>
-      </c>
-      <c r="T282">
-        <v>3.5</v>
-      </c>
-      <c r="U282">
-        <v>1.85</v>
-      </c>
-      <c r="V282">
-        <v>1.95</v>
-      </c>
-      <c r="W282">
-        <v>0</v>
-      </c>
-      <c r="X282">
-        <v>0</v>
-      </c>
-      <c r="Y282">
-        <v>0</v>
-      </c>
-      <c r="Z282">
-        <v>0</v>
-      </c>
-      <c r="AA282">
-        <v>0</v>
+      <c r="R285">
+        <v>1.925</v>
+      </c>
+      <c r="S285">
+        <v>1.875</v>
+      </c>
+      <c r="T285">
+        <v>3.75</v>
+      </c>
+      <c r="U285">
+        <v>1.975</v>
+      </c>
+      <c r="V285">
+        <v>1.825</v>
+      </c>
+      <c r="W285">
+        <v>-1</v>
+      </c>
+      <c r="X285">
+        <v>-1</v>
+      </c>
+      <c r="Y285">
+        <v>0.2</v>
+      </c>
+      <c r="Z285">
+        <v>0.925</v>
+      </c>
+      <c r="AA285">
+        <v>-1</v>
+      </c>
+      <c r="AB285">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC285">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
+        <v>1.333</v>
+      </c>
+      <c r="Q47">
+        <v>1.5</v>
+      </c>
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>2.375</v>
+      </c>
+      <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>2.5</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
         <v>3.5</v>
       </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>1.833</v>
-      </c>
-      <c r="N56">
-        <v>4.333</v>
-      </c>
-      <c r="O56">
-        <v>3.75</v>
-      </c>
       <c r="P56">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q132">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N133">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q133">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M134">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O134">
+        <v>6.5</v>
+      </c>
+      <c r="P134">
+        <v>1.142</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.75</v>
       </c>
-      <c r="P134">
-        <v>1.666</v>
-      </c>
-      <c r="Q134">
-        <v>0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <v>23</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>1.03</v>
+      </c>
+      <c r="N149">
+        <v>29</v>
+      </c>
+      <c r="O149">
+        <v>12</v>
+      </c>
+      <c r="P149">
+        <v>1.055</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>2.1</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.7</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.75</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.1</v>
+      </c>
+      <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>23</v>
-      </c>
-      <c r="L150">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>1.03</v>
-      </c>
-      <c r="N150">
-        <v>29</v>
-      </c>
-      <c r="O150">
-        <v>12</v>
-      </c>
-      <c r="P150">
-        <v>1.055</v>
-      </c>
-      <c r="Q150">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>4</v>
-      </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L213">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N213">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q213">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>3.25</v>
+      </c>
+      <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.75</v>
       </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>3.75</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
       <c r="W213">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
+        <v>6</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>3</v>
-      </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M214">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N214">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P214">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L215">
+        <v>5.5</v>
+      </c>
+      <c r="M215">
         <v>7.5</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
       <c r="N215">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
       <c r="T215">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M216">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N216">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
       </c>
-      <c r="S216">
-        <v>1.825</v>
-      </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,55 +21104,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L232">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N232">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P232">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q232">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC232">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,56 +21193,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L233">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M233">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N233">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P233">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U233">
+        <v>1.925</v>
+      </c>
+      <c r="V233">
         <v>1.775</v>
       </c>
-      <c r="V233">
-        <v>2.025</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
+        <v>0.875</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
         <v>1.825</v>
       </c>
-      <c r="V252">
-        <v>1.975</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M213">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P213">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N214">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q214">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
         <v>1.75</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>3.75</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L215">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
         <v>1.975</v>
       </c>
-      <c r="S215">
-        <v>1.825</v>
-      </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L216">
+        <v>5.5</v>
+      </c>
+      <c r="M216">
         <v>7.5</v>
       </c>
-      <c r="M216">
-        <v>15</v>
-      </c>
       <c r="N216">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O216">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P216">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
         <v>1.825</v>
       </c>
-      <c r="S216">
-        <v>1.975</v>
-      </c>
       <c r="T216">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N229">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z229">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,56 +21104,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N232">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P232">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U232">
+        <v>1.925</v>
+      </c>
+      <c r="V232">
         <v>1.775</v>
       </c>
-      <c r="V232">
-        <v>2.025</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,55 +21193,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L233">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N233">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V233">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
         <v>1.975</v>
       </c>
-      <c r="V252">
-        <v>1.825</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
+        <v>0.875</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB252">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263" t="s">
+        <v>49</v>
+      </c>
+      <c r="K263">
+        <v>3.2</v>
+      </c>
+      <c r="L263">
+        <v>3.6</v>
+      </c>
+      <c r="M263">
+        <v>1.909</v>
+      </c>
+      <c r="N263">
+        <v>3.1</v>
+      </c>
+      <c r="O263">
+        <v>3.6</v>
+      </c>
+      <c r="P263">
         <v>2</v>
       </c>
-      <c r="J263" t="s">
-        <v>47</v>
-      </c>
-      <c r="K263">
-        <v>1.666</v>
-      </c>
-      <c r="L263">
-        <v>4</v>
-      </c>
-      <c r="M263">
-        <v>3.8</v>
-      </c>
-      <c r="N263">
-        <v>1.333</v>
-      </c>
-      <c r="O263">
-        <v>4.5</v>
-      </c>
-      <c r="P263">
-        <v>7.5</v>
-      </c>
       <c r="Q263">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y263">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K265">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N265">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P265">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q265">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z265">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L213">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N213">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q213">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>3.25</v>
+      </c>
+      <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.75</v>
       </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>3.75</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
       <c r="W213">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
+        <v>6</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>3</v>
-      </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M214">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N214">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P214">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L215">
+        <v>5.5</v>
+      </c>
+      <c r="M215">
         <v>7.5</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
       <c r="N215">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
       <c r="T215">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M216">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N216">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
       </c>
-      <c r="S216">
-        <v>1.825</v>
-      </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,55 +21104,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L232">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N232">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P232">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q232">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC232">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,56 +21193,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L233">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M233">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N233">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P233">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U233">
+        <v>1.925</v>
+      </c>
+      <c r="V233">
         <v>1.775</v>
       </c>
-      <c r="V233">
-        <v>2.025</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
+        <v>0.875</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
         <v>1.825</v>
       </c>
-      <c r="V252">
-        <v>1.975</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N263">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O263">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S263">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V263">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z263">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>49</v>
+      </c>
+      <c r="K265">
+        <v>3.2</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>1.909</v>
+      </c>
+      <c r="N265">
+        <v>3.1</v>
+      </c>
+      <c r="O265">
+        <v>3.6</v>
+      </c>
+      <c r="P265">
         <v>2</v>
       </c>
-      <c r="J265" t="s">
-        <v>47</v>
-      </c>
-      <c r="K265">
-        <v>1.666</v>
-      </c>
-      <c r="L265">
-        <v>4</v>
-      </c>
-      <c r="M265">
-        <v>3.8</v>
-      </c>
-      <c r="N265">
-        <v>1.333</v>
-      </c>
-      <c r="O265">
-        <v>4.5</v>
-      </c>
-      <c r="P265">
-        <v>7.5</v>
-      </c>
       <c r="Q265">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S265">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y265">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA265">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P28">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L29">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O29">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
+        <v>1.333</v>
+      </c>
+      <c r="Q48">
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>3</v>
       </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
+        <v>2.375</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.5</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
         <v>3.5</v>
       </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>1.833</v>
-      </c>
-      <c r="N55">
-        <v>4.333</v>
-      </c>
-      <c r="O55">
-        <v>3.75</v>
-      </c>
       <c r="P55">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.95</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N71">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P71">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X72">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O133">
+        <v>6.5</v>
+      </c>
+      <c r="P133">
+        <v>1.142</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>1.666</v>
-      </c>
-      <c r="Q133">
-        <v>0.75</v>
-      </c>
-      <c r="R133">
-        <v>1.925</v>
-      </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N134">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O134">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q134">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>23</v>
-      </c>
-      <c r="L149">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>1.03</v>
-      </c>
-      <c r="N149">
-        <v>29</v>
-      </c>
-      <c r="O149">
-        <v>12</v>
-      </c>
-      <c r="P149">
-        <v>1.055</v>
-      </c>
-      <c r="Q149">
-        <v>3</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>4</v>
-      </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>1.03</v>
+      </c>
+      <c r="N150">
+        <v>29</v>
+      </c>
+      <c r="O150">
+        <v>12</v>
+      </c>
+      <c r="P150">
+        <v>1.055</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.1</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>2.875</v>
-      </c>
-      <c r="N150">
-        <v>1.7</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4</v>
-      </c>
-      <c r="Q150">
-        <v>-0.75</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.75</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M213">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P213">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N214">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q214">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
         <v>1.75</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>3.75</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N229">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N230">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q230">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
         <v>1.975</v>
       </c>
-      <c r="V252">
-        <v>1.825</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
+        <v>0.875</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB252">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645804</v>
+        <v>7645807</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="I263">
         <v>1</v>
       </c>
-      <c r="I263">
-        <v>2</v>
-      </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N263">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="O263">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
-        <v>7.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q263">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645807</v>
+        <v>7645806</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264" t="s">
+        <v>49</v>
+      </c>
+      <c r="K264">
+        <v>3.2</v>
+      </c>
+      <c r="L264">
+        <v>3.6</v>
+      </c>
+      <c r="M264">
+        <v>1.909</v>
+      </c>
+      <c r="N264">
+        <v>3.1</v>
+      </c>
+      <c r="O264">
+        <v>3.6</v>
+      </c>
+      <c r="P264">
         <v>2</v>
       </c>
-      <c r="I264">
-        <v>1</v>
-      </c>
-      <c r="J264" t="s">
-        <v>48</v>
-      </c>
-      <c r="K264">
-        <v>4.333</v>
-      </c>
-      <c r="L264">
-        <v>4</v>
-      </c>
-      <c r="M264">
-        <v>1.571</v>
-      </c>
-      <c r="N264">
-        <v>7</v>
-      </c>
-      <c r="O264">
-        <v>4.2</v>
-      </c>
-      <c r="P264">
-        <v>1.363</v>
-      </c>
       <c r="Q264">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U264">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K265">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N265">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P265">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q265">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z265">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>49</v>
+      </c>
+      <c r="K271">
+        <v>4.75</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271">
+        <v>1.533</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
+        <v>3.75</v>
+      </c>
+      <c r="P271">
+        <v>1.571</v>
+      </c>
+      <c r="Q271">
         <v>1</v>
       </c>
-      <c r="J271" t="s">
-        <v>47</v>
-      </c>
-      <c r="K271">
-        <v>6.5</v>
-      </c>
-      <c r="L271">
-        <v>5</v>
-      </c>
-      <c r="M271">
-        <v>1.333</v>
-      </c>
-      <c r="N271">
-        <v>6.5</v>
-      </c>
-      <c r="O271">
-        <v>5</v>
-      </c>
-      <c r="P271">
-        <v>1.3</v>
-      </c>
-      <c r="Q271">
-        <v>1.5</v>
-      </c>
       <c r="R271">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S271">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T271">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y271">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>47</v>
+      </c>
+      <c r="K272">
+        <v>6.5</v>
+      </c>
+      <c r="L272">
+        <v>5</v>
+      </c>
+      <c r="M272">
+        <v>1.333</v>
+      </c>
+      <c r="N272">
+        <v>6.5</v>
+      </c>
+      <c r="O272">
+        <v>5</v>
+      </c>
+      <c r="P272">
+        <v>1.3</v>
+      </c>
+      <c r="Q272">
+        <v>1.5</v>
+      </c>
+      <c r="R272">
+        <v>1.875</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
+        <v>3.25</v>
+      </c>
+      <c r="U272">
         <v>2</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
-      <c r="J272" t="s">
-        <v>49</v>
-      </c>
-      <c r="K272">
-        <v>4.75</v>
-      </c>
-      <c r="L272">
-        <v>4</v>
-      </c>
-      <c r="M272">
-        <v>1.533</v>
-      </c>
-      <c r="N272">
-        <v>4.75</v>
-      </c>
-      <c r="O272">
-        <v>3.75</v>
-      </c>
-      <c r="P272">
-        <v>1.571</v>
-      </c>
-      <c r="Q272">
-        <v>1</v>
-      </c>
-      <c r="R272">
-        <v>1.775</v>
-      </c>
-      <c r="S272">
-        <v>2.025</v>
-      </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
-        <v>1.95</v>
-      </c>
       <c r="V272">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z272">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
+        <v>1.333</v>
+      </c>
+      <c r="Q47">
+        <v>1.5</v>
+      </c>
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L215">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
         <v>1.975</v>
       </c>
-      <c r="S215">
-        <v>1.825</v>
-      </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L216">
+        <v>5.5</v>
+      </c>
+      <c r="M216">
         <v>7.5</v>
       </c>
-      <c r="M216">
-        <v>15</v>
-      </c>
       <c r="N216">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O216">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P216">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
         <v>1.825</v>
       </c>
-      <c r="S216">
-        <v>1.975</v>
-      </c>
       <c r="T216">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
+        <v>17</v>
+      </c>
+      <c r="P229">
+        <v>41</v>
+      </c>
+      <c r="Q229">
+        <v>-3.75</v>
+      </c>
+      <c r="R229">
+        <v>1.775</v>
+      </c>
+      <c r="S229">
+        <v>1.925</v>
+      </c>
+      <c r="T229">
         <v>4.75</v>
       </c>
-      <c r="P229">
-        <v>1.4</v>
-      </c>
-      <c r="Q229">
-        <v>1.25</v>
-      </c>
-      <c r="R229">
-        <v>1.925</v>
-      </c>
-      <c r="S229">
-        <v>1.875</v>
-      </c>
-      <c r="T229">
-        <v>3</v>
-      </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,56 +21104,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N232">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P232">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U232">
+        <v>1.925</v>
+      </c>
+      <c r="V232">
         <v>1.775</v>
       </c>
-      <c r="V232">
-        <v>2.025</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,55 +21193,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L233">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N233">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V233">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
+        <v>0.5</v>
+      </c>
+      <c r="AC245">
         <v>-0.5</v>
-      </c>
-      <c r="AC245">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P246">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
+        <v>0.875</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
         <v>1.825</v>
       </c>
-      <c r="V252">
-        <v>1.975</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>47</v>
+      </c>
+      <c r="K271">
+        <v>6.5</v>
+      </c>
+      <c r="L271">
+        <v>5</v>
+      </c>
+      <c r="M271">
+        <v>1.333</v>
+      </c>
+      <c r="N271">
+        <v>6.5</v>
+      </c>
+      <c r="O271">
+        <v>5</v>
+      </c>
+      <c r="P271">
+        <v>1.3</v>
+      </c>
+      <c r="Q271">
+        <v>1.5</v>
+      </c>
+      <c r="R271">
+        <v>1.875</v>
+      </c>
+      <c r="S271">
+        <v>1.925</v>
+      </c>
+      <c r="T271">
+        <v>3.25</v>
+      </c>
+      <c r="U271">
         <v>2</v>
       </c>
-      <c r="I271">
-        <v>2</v>
-      </c>
-      <c r="J271" t="s">
-        <v>49</v>
-      </c>
-      <c r="K271">
-        <v>4.75</v>
-      </c>
-      <c r="L271">
-        <v>4</v>
-      </c>
-      <c r="M271">
-        <v>1.533</v>
-      </c>
-      <c r="N271">
-        <v>4.75</v>
-      </c>
-      <c r="O271">
-        <v>3.75</v>
-      </c>
-      <c r="P271">
-        <v>1.571</v>
-      </c>
-      <c r="Q271">
-        <v>1</v>
-      </c>
-      <c r="R271">
-        <v>1.775</v>
-      </c>
-      <c r="S271">
-        <v>2.025</v>
-      </c>
-      <c r="T271">
-        <v>2.75</v>
-      </c>
-      <c r="U271">
-        <v>1.95</v>
-      </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z271">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272" t="s">
+        <v>49</v>
+      </c>
+      <c r="K272">
+        <v>4.75</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272">
+        <v>1.533</v>
+      </c>
+      <c r="N272">
+        <v>4.75</v>
+      </c>
+      <c r="O272">
+        <v>3.75</v>
+      </c>
+      <c r="P272">
+        <v>1.571</v>
+      </c>
+      <c r="Q272">
         <v>1</v>
       </c>
-      <c r="J272" t="s">
-        <v>47</v>
-      </c>
-      <c r="K272">
-        <v>6.5</v>
-      </c>
-      <c r="L272">
-        <v>5</v>
-      </c>
-      <c r="M272">
-        <v>1.333</v>
-      </c>
-      <c r="N272">
-        <v>6.5</v>
-      </c>
-      <c r="O272">
-        <v>5</v>
-      </c>
-      <c r="P272">
-        <v>1.3</v>
-      </c>
-      <c r="Q272">
-        <v>1.5</v>
-      </c>
       <c r="R272">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S272">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T272">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y272">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
+        <v>1.333</v>
+      </c>
+      <c r="Q48">
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>3</v>
       </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.181</v>
-      </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>1.181</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.1</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N131">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L215">
+        <v>5.5</v>
+      </c>
+      <c r="M215">
         <v>7.5</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
       <c r="N215">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
       <c r="T215">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M216">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N216">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
       </c>
-      <c r="S216">
-        <v>1.825</v>
-      </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N229">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I230">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L230">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M230">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N230">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O230">
+        <v>17</v>
+      </c>
+      <c r="P230">
+        <v>41</v>
+      </c>
+      <c r="Q230">
+        <v>-3.75</v>
+      </c>
+      <c r="R230">
+        <v>1.775</v>
+      </c>
+      <c r="S230">
+        <v>1.925</v>
+      </c>
+      <c r="T230">
         <v>4.75</v>
       </c>
-      <c r="P230">
-        <v>1.4</v>
-      </c>
-      <c r="Q230">
-        <v>1.25</v>
-      </c>
-      <c r="R230">
-        <v>1.925</v>
-      </c>
-      <c r="S230">
-        <v>1.875</v>
-      </c>
-      <c r="T230">
-        <v>3</v>
-      </c>
       <c r="U230">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
         <v>1.975</v>
       </c>
-      <c r="V252">
-        <v>1.825</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
+        <v>0.875</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB252">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>49</v>
+      </c>
+      <c r="K271">
+        <v>4.75</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271">
+        <v>1.533</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
+        <v>3.75</v>
+      </c>
+      <c r="P271">
+        <v>1.571</v>
+      </c>
+      <c r="Q271">
         <v>1</v>
       </c>
-      <c r="J271" t="s">
-        <v>47</v>
-      </c>
-      <c r="K271">
-        <v>6.5</v>
-      </c>
-      <c r="L271">
-        <v>5</v>
-      </c>
-      <c r="M271">
-        <v>1.333</v>
-      </c>
-      <c r="N271">
-        <v>6.5</v>
-      </c>
-      <c r="O271">
-        <v>5</v>
-      </c>
-      <c r="P271">
-        <v>1.3</v>
-      </c>
-      <c r="Q271">
-        <v>1.5</v>
-      </c>
       <c r="R271">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S271">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T271">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y271">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>47</v>
+      </c>
+      <c r="K272">
+        <v>6.5</v>
+      </c>
+      <c r="L272">
+        <v>5</v>
+      </c>
+      <c r="M272">
+        <v>1.333</v>
+      </c>
+      <c r="N272">
+        <v>6.5</v>
+      </c>
+      <c r="O272">
+        <v>5</v>
+      </c>
+      <c r="P272">
+        <v>1.3</v>
+      </c>
+      <c r="Q272">
+        <v>1.5</v>
+      </c>
+      <c r="R272">
+        <v>1.875</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
+        <v>3.25</v>
+      </c>
+      <c r="U272">
         <v>2</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
-      <c r="J272" t="s">
-        <v>49</v>
-      </c>
-      <c r="K272">
-        <v>4.75</v>
-      </c>
-      <c r="L272">
-        <v>4</v>
-      </c>
-      <c r="M272">
-        <v>1.533</v>
-      </c>
-      <c r="N272">
-        <v>4.75</v>
-      </c>
-      <c r="O272">
-        <v>3.75</v>
-      </c>
-      <c r="P272">
-        <v>1.571</v>
-      </c>
-      <c r="Q272">
-        <v>1</v>
-      </c>
-      <c r="R272">
-        <v>1.775</v>
-      </c>
-      <c r="S272">
-        <v>2.025</v>
-      </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
-        <v>1.95</v>
-      </c>
       <c r="V272">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z272">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q132">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N133">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q133">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M134">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O134">
+        <v>6.5</v>
+      </c>
+      <c r="P134">
+        <v>1.142</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.75</v>
       </c>
-      <c r="P134">
-        <v>1.666</v>
-      </c>
-      <c r="Q134">
-        <v>0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L213">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N213">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q213">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>3.25</v>
+      </c>
+      <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.75</v>
       </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>3.75</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
       <c r="W213">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
+        <v>6</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>3</v>
-      </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M214">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N214">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P214">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L215">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
         <v>1.975</v>
       </c>
-      <c r="S215">
-        <v>1.825</v>
-      </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L216">
+        <v>5.5</v>
+      </c>
+      <c r="M216">
         <v>7.5</v>
       </c>
-      <c r="M216">
-        <v>15</v>
-      </c>
       <c r="N216">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O216">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P216">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
         <v>1.825</v>
       </c>
-      <c r="S216">
-        <v>1.975</v>
-      </c>
       <c r="T216">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
+        <v>17</v>
+      </c>
+      <c r="P229">
+        <v>41</v>
+      </c>
+      <c r="Q229">
+        <v>-3.75</v>
+      </c>
+      <c r="R229">
+        <v>1.775</v>
+      </c>
+      <c r="S229">
+        <v>1.925</v>
+      </c>
+      <c r="T229">
         <v>4.75</v>
       </c>
-      <c r="P229">
-        <v>1.4</v>
-      </c>
-      <c r="Q229">
-        <v>1.25</v>
-      </c>
-      <c r="R229">
-        <v>1.925</v>
-      </c>
-      <c r="S229">
-        <v>1.875</v>
-      </c>
-      <c r="T229">
-        <v>3</v>
-      </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,55 +21104,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L232">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N232">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P232">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q232">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC232">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,56 +21193,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L233">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M233">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N233">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P233">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U233">
+        <v>1.925</v>
+      </c>
+      <c r="V233">
         <v>1.775</v>
       </c>
-      <c r="V233">
-        <v>2.025</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M248">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N248">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O248">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P248">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q248">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R248">
+        <v>1.775</v>
+      </c>
+      <c r="S248">
+        <v>1.925</v>
+      </c>
+      <c r="T248">
+        <v>5.75</v>
+      </c>
+      <c r="U248">
         <v>1.85</v>
       </c>
-      <c r="S248">
+      <c r="V248">
         <v>1.95</v>
       </c>
-      <c r="T248">
-        <v>4</v>
-      </c>
-      <c r="U248">
-        <v>1.8</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
       <c r="W248">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC248">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H249">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L249">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M249">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N249">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O249">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P249">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q249">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R249">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U249">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
+        <v>0.875</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
         <v>1.825</v>
       </c>
-      <c r="V252">
-        <v>1.975</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>47</v>
+      </c>
+      <c r="K271">
+        <v>6.5</v>
+      </c>
+      <c r="L271">
+        <v>5</v>
+      </c>
+      <c r="M271">
+        <v>1.333</v>
+      </c>
+      <c r="N271">
+        <v>6.5</v>
+      </c>
+      <c r="O271">
+        <v>5</v>
+      </c>
+      <c r="P271">
+        <v>1.3</v>
+      </c>
+      <c r="Q271">
+        <v>1.5</v>
+      </c>
+      <c r="R271">
+        <v>1.875</v>
+      </c>
+      <c r="S271">
+        <v>1.925</v>
+      </c>
+      <c r="T271">
+        <v>3.25</v>
+      </c>
+      <c r="U271">
         <v>2</v>
       </c>
-      <c r="I271">
-        <v>2</v>
-      </c>
-      <c r="J271" t="s">
-        <v>49</v>
-      </c>
-      <c r="K271">
-        <v>4.75</v>
-      </c>
-      <c r="L271">
-        <v>4</v>
-      </c>
-      <c r="M271">
-        <v>1.533</v>
-      </c>
-      <c r="N271">
-        <v>4.75</v>
-      </c>
-      <c r="O271">
-        <v>3.75</v>
-      </c>
-      <c r="P271">
-        <v>1.571</v>
-      </c>
-      <c r="Q271">
-        <v>1</v>
-      </c>
-      <c r="R271">
-        <v>1.775</v>
-      </c>
-      <c r="S271">
-        <v>2.025</v>
-      </c>
-      <c r="T271">
-        <v>2.75</v>
-      </c>
-      <c r="U271">
-        <v>1.95</v>
-      </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z271">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272" t="s">
+        <v>49</v>
+      </c>
+      <c r="K272">
+        <v>4.75</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272">
+        <v>1.533</v>
+      </c>
+      <c r="N272">
+        <v>4.75</v>
+      </c>
+      <c r="O272">
+        <v>3.75</v>
+      </c>
+      <c r="P272">
+        <v>1.571</v>
+      </c>
+      <c r="Q272">
         <v>1</v>
       </c>
-      <c r="J272" t="s">
-        <v>47</v>
-      </c>
-      <c r="K272">
-        <v>6.5</v>
-      </c>
-      <c r="L272">
-        <v>5</v>
-      </c>
-      <c r="M272">
-        <v>1.333</v>
-      </c>
-      <c r="N272">
-        <v>6.5</v>
-      </c>
-      <c r="O272">
-        <v>5</v>
-      </c>
-      <c r="P272">
-        <v>1.3</v>
-      </c>
-      <c r="Q272">
-        <v>1.5</v>
-      </c>
       <c r="R272">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S272">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T272">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y272">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>2.375</v>
+      </c>
+      <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>2.5</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
         <v>3.5</v>
       </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>1.833</v>
-      </c>
-      <c r="N56">
-        <v>4.333</v>
-      </c>
-      <c r="O56">
-        <v>3.75</v>
-      </c>
       <c r="P56">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1.181</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.1</v>
+      </c>
+      <c r="O109">
+        <v>9</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.5</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>1.181</v>
-      </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M213">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P213">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N214">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q214">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
         <v>1.75</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>3.75</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L215">
+        <v>5.5</v>
+      </c>
+      <c r="M215">
         <v>7.5</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
       <c r="N215">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
       <c r="T215">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M216">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N216">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
       </c>
-      <c r="S216">
-        <v>1.825</v>
-      </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H248">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L248">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M248">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N248">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O248">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P248">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q248">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L249">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M249">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N249">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O249">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P249">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q249">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R249">
+        <v>1.775</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
+        <v>5.75</v>
+      </c>
+      <c r="U249">
         <v>1.85</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.95</v>
       </c>
-      <c r="T249">
-        <v>4</v>
-      </c>
-      <c r="U249">
-        <v>1.8</v>
-      </c>
-      <c r="V249">
-        <v>2</v>
-      </c>
       <c r="W249">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC249">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645807</v>
+        <v>7645804</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
         <v>2</v>
       </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="N263">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>1.363</v>
+        <v>7.5</v>
       </c>
       <c r="Q263">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
+        <v>1.925</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
+        <v>3</v>
+      </c>
+      <c r="U263">
         <v>1.75</v>
       </c>
-      <c r="S263">
-        <v>1.95</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.8</v>
-      </c>
       <c r="V263">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W263">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z263">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645804</v>
+        <v>7645807</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H265">
+        <v>2</v>
+      </c>
+      <c r="I265">
         <v>1</v>
       </c>
-      <c r="I265">
-        <v>2</v>
-      </c>
       <c r="J265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K265">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L265">
         <v>4</v>
       </c>
       <c r="M265">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N265">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="O265">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P265">
-        <v>7.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q265">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R265">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S265">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T265">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V265">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="266" spans="1:29">

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC285"/>
+  <dimension ref="A1:AC286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
+        <v>1.333</v>
+      </c>
+      <c r="Q47">
+        <v>1.5</v>
+      </c>
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O133">
+        <v>6.5</v>
+      </c>
+      <c r="P133">
+        <v>1.142</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>1.666</v>
-      </c>
-      <c r="Q133">
-        <v>0.75</v>
-      </c>
-      <c r="R133">
-        <v>1.925</v>
-      </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N134">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O134">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q134">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L215">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
         <v>1.975</v>
       </c>
-      <c r="S215">
-        <v>1.825</v>
-      </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L216">
+        <v>5.5</v>
+      </c>
+      <c r="M216">
         <v>7.5</v>
       </c>
-      <c r="M216">
-        <v>15</v>
-      </c>
       <c r="N216">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O216">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P216">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
         <v>1.825</v>
       </c>
-      <c r="S216">
-        <v>1.975</v>
-      </c>
       <c r="T216">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N221">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N222">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M248">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N248">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O248">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P248">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q248">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R248">
+        <v>1.775</v>
+      </c>
+      <c r="S248">
+        <v>1.925</v>
+      </c>
+      <c r="T248">
+        <v>5.75</v>
+      </c>
+      <c r="U248">
         <v>1.85</v>
       </c>
-      <c r="S248">
+      <c r="V248">
         <v>1.95</v>
       </c>
-      <c r="T248">
-        <v>4</v>
-      </c>
-      <c r="U248">
-        <v>1.8</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
       <c r="W248">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC248">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H249">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L249">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M249">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N249">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O249">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P249">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q249">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R249">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U249">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
         <v>1.975</v>
       </c>
-      <c r="V252">
-        <v>1.825</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
+        <v>0.875</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB252">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -25891,6 +25891,80 @@
       </c>
       <c r="AC285">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>8076757</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45393.78125</v>
+      </c>
+      <c r="F286" t="s">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>39</v>
+      </c>
+      <c r="K286">
+        <v>1.909</v>
+      </c>
+      <c r="L286">
+        <v>4</v>
+      </c>
+      <c r="M286">
+        <v>2.9</v>
+      </c>
+      <c r="N286">
+        <v>1.85</v>
+      </c>
+      <c r="O286">
+        <v>4</v>
+      </c>
+      <c r="P286">
+        <v>3.25</v>
+      </c>
+      <c r="Q286">
+        <v>-0.5</v>
+      </c>
+      <c r="R286">
+        <v>1.9</v>
+      </c>
+      <c r="S286">
+        <v>1.9</v>
+      </c>
+      <c r="T286">
+        <v>2.75</v>
+      </c>
+      <c r="U286">
+        <v>1.775</v>
+      </c>
+      <c r="V286">
+        <v>2.025</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
+      <c r="AA286">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC286"/>
+  <dimension ref="A1:AC285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q28">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P29">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
+        <v>1.333</v>
+      </c>
+      <c r="Q48">
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>3</v>
       </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N133">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q133">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M134">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O134">
+        <v>6.5</v>
+      </c>
+      <c r="P134">
+        <v>1.142</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.75</v>
       </c>
-      <c r="P134">
-        <v>1.666</v>
-      </c>
-      <c r="Q134">
-        <v>0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <v>23</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>1.03</v>
+      </c>
+      <c r="N149">
+        <v>29</v>
+      </c>
+      <c r="O149">
+        <v>12</v>
+      </c>
+      <c r="P149">
+        <v>1.055</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>2.1</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.7</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.75</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.1</v>
+      </c>
+      <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>23</v>
-      </c>
-      <c r="L150">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>1.03</v>
-      </c>
-      <c r="N150">
-        <v>29</v>
-      </c>
-      <c r="O150">
-        <v>12</v>
-      </c>
-      <c r="P150">
-        <v>1.055</v>
-      </c>
-      <c r="Q150">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>4</v>
-      </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N229">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N230">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q230">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,56 +21104,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N232">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P232">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U232">
+        <v>1.925</v>
+      </c>
+      <c r="V232">
         <v>1.775</v>
       </c>
-      <c r="V232">
-        <v>2.025</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,55 +21193,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L233">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N233">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V233">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
+        <v>0.5</v>
+      </c>
+      <c r="AC246">
         <v>-0.5</v>
-      </c>
-      <c r="AC246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
+        <v>0.875</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
         <v>1.825</v>
       </c>
-      <c r="V252">
-        <v>1.975</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>49</v>
+      </c>
+      <c r="K271">
+        <v>4.75</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271">
+        <v>1.533</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
+        <v>3.75</v>
+      </c>
+      <c r="P271">
+        <v>1.571</v>
+      </c>
+      <c r="Q271">
         <v>1</v>
       </c>
-      <c r="J271" t="s">
-        <v>47</v>
-      </c>
-      <c r="K271">
-        <v>6.5</v>
-      </c>
-      <c r="L271">
-        <v>5</v>
-      </c>
-      <c r="M271">
-        <v>1.333</v>
-      </c>
-      <c r="N271">
-        <v>6.5</v>
-      </c>
-      <c r="O271">
-        <v>5</v>
-      </c>
-      <c r="P271">
-        <v>1.3</v>
-      </c>
-      <c r="Q271">
-        <v>1.5</v>
-      </c>
       <c r="R271">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S271">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T271">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y271">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>47</v>
+      </c>
+      <c r="K272">
+        <v>6.5</v>
+      </c>
+      <c r="L272">
+        <v>5</v>
+      </c>
+      <c r="M272">
+        <v>1.333</v>
+      </c>
+      <c r="N272">
+        <v>6.5</v>
+      </c>
+      <c r="O272">
+        <v>5</v>
+      </c>
+      <c r="P272">
+        <v>1.3</v>
+      </c>
+      <c r="Q272">
+        <v>1.5</v>
+      </c>
+      <c r="R272">
+        <v>1.875</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
+        <v>3.25</v>
+      </c>
+      <c r="U272">
         <v>2</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
-      <c r="J272" t="s">
-        <v>49</v>
-      </c>
-      <c r="K272">
-        <v>4.75</v>
-      </c>
-      <c r="L272">
-        <v>4</v>
-      </c>
-      <c r="M272">
-        <v>1.533</v>
-      </c>
-      <c r="N272">
-        <v>4.75</v>
-      </c>
-      <c r="O272">
-        <v>3.75</v>
-      </c>
-      <c r="P272">
-        <v>1.571</v>
-      </c>
-      <c r="Q272">
-        <v>1</v>
-      </c>
-      <c r="R272">
-        <v>1.775</v>
-      </c>
-      <c r="S272">
-        <v>2.025</v>
-      </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
-        <v>1.95</v>
-      </c>
       <c r="V272">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z272">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -25891,80 +25891,6 @@
       </c>
       <c r="AC285">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:29">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286">
-        <v>8076757</v>
-      </c>
-      <c r="C286" t="s">
-        <v>28</v>
-      </c>
-      <c r="D286" t="s">
-        <v>28</v>
-      </c>
-      <c r="E286" s="2">
-        <v>45393.78125</v>
-      </c>
-      <c r="F286" t="s">
-        <v>32</v>
-      </c>
-      <c r="G286" t="s">
-        <v>39</v>
-      </c>
-      <c r="K286">
-        <v>1.909</v>
-      </c>
-      <c r="L286">
-        <v>4</v>
-      </c>
-      <c r="M286">
-        <v>2.9</v>
-      </c>
-      <c r="N286">
-        <v>1.85</v>
-      </c>
-      <c r="O286">
-        <v>4</v>
-      </c>
-      <c r="P286">
-        <v>3.25</v>
-      </c>
-      <c r="Q286">
-        <v>-0.5</v>
-      </c>
-      <c r="R286">
-        <v>1.9</v>
-      </c>
-      <c r="S286">
-        <v>1.9</v>
-      </c>
-      <c r="T286">
-        <v>2.75</v>
-      </c>
-      <c r="U286">
-        <v>1.775</v>
-      </c>
-      <c r="V286">
-        <v>2.025</v>
-      </c>
-      <c r="W286">
-        <v>0</v>
-      </c>
-      <c r="X286">
-        <v>0</v>
-      </c>
-      <c r="Y286">
-        <v>0</v>
-      </c>
-      <c r="Z286">
-        <v>0</v>
-      </c>
-      <c r="AA286">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC285"/>
+  <dimension ref="A1:AC288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P28">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L29">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O29">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
+        <v>2.375</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.5</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
         <v>3.5</v>
       </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>1.833</v>
-      </c>
-      <c r="N55">
-        <v>4.333</v>
-      </c>
-      <c r="O55">
-        <v>3.75</v>
-      </c>
       <c r="P55">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.95</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N71">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P71">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X72">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.181</v>
-      </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>1.181</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.1</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N131">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>23</v>
-      </c>
-      <c r="L149">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>1.03</v>
-      </c>
-      <c r="N149">
-        <v>29</v>
-      </c>
-      <c r="O149">
-        <v>12</v>
-      </c>
-      <c r="P149">
-        <v>1.055</v>
-      </c>
-      <c r="Q149">
-        <v>3</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>4</v>
-      </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>1.03</v>
+      </c>
+      <c r="N150">
+        <v>29</v>
+      </c>
+      <c r="O150">
+        <v>12</v>
+      </c>
+      <c r="P150">
+        <v>1.055</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.1</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>2.875</v>
-      </c>
-      <c r="N150">
-        <v>1.7</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4</v>
-      </c>
-      <c r="Q150">
-        <v>-0.75</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.75</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,49 +20837,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N229">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
         <v>1.75</v>
@@ -20894,13 +20894,13 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB229">
         <v>0.75</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I230">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P230">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U230">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
         <v>1.975</v>
       </c>
-      <c r="V252">
-        <v>1.825</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
+        <v>0.875</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB252">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263" t="s">
+        <v>49</v>
+      </c>
+      <c r="K263">
+        <v>3.2</v>
+      </c>
+      <c r="L263">
+        <v>3.6</v>
+      </c>
+      <c r="M263">
+        <v>1.909</v>
+      </c>
+      <c r="N263">
+        <v>3.1</v>
+      </c>
+      <c r="O263">
+        <v>3.6</v>
+      </c>
+      <c r="P263">
         <v>2</v>
       </c>
-      <c r="J263" t="s">
-        <v>47</v>
-      </c>
-      <c r="K263">
-        <v>1.666</v>
-      </c>
-      <c r="L263">
-        <v>4</v>
-      </c>
-      <c r="M263">
-        <v>3.8</v>
-      </c>
-      <c r="N263">
-        <v>1.333</v>
-      </c>
-      <c r="O263">
-        <v>4.5</v>
-      </c>
-      <c r="P263">
-        <v>7.5</v>
-      </c>
       <c r="Q263">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y263">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G264" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K264">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N264">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P264">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q264">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R264">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V264">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z264">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC264">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -25891,6 +25891,243 @@
       </c>
       <c r="AC285">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>8076757</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45393.78125</v>
+      </c>
+      <c r="F286" t="s">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>39</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286" t="s">
+        <v>47</v>
+      </c>
+      <c r="K286">
+        <v>1.909</v>
+      </c>
+      <c r="L286">
+        <v>4</v>
+      </c>
+      <c r="M286">
+        <v>2.9</v>
+      </c>
+      <c r="N286">
+        <v>1.5</v>
+      </c>
+      <c r="O286">
+        <v>4.5</v>
+      </c>
+      <c r="P286">
+        <v>4.75</v>
+      </c>
+      <c r="Q286">
+        <v>-1</v>
+      </c>
+      <c r="R286">
+        <v>1.85</v>
+      </c>
+      <c r="S286">
+        <v>1.95</v>
+      </c>
+      <c r="T286">
+        <v>3</v>
+      </c>
+      <c r="U286">
+        <v>1.825</v>
+      </c>
+      <c r="V286">
+        <v>1.975</v>
+      </c>
+      <c r="W286">
+        <v>-1</v>
+      </c>
+      <c r="X286">
+        <v>-1</v>
+      </c>
+      <c r="Y286">
+        <v>3.75</v>
+      </c>
+      <c r="Z286">
+        <v>-1</v>
+      </c>
+      <c r="AA286">
+        <v>0.95</v>
+      </c>
+      <c r="AB286">
+        <v>0</v>
+      </c>
+      <c r="AC286">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>7645821</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45395.625</v>
+      </c>
+      <c r="F287" t="s">
+        <v>35</v>
+      </c>
+      <c r="G287" t="s">
+        <v>41</v>
+      </c>
+      <c r="K287">
+        <v>4.5</v>
+      </c>
+      <c r="L287">
+        <v>3.75</v>
+      </c>
+      <c r="M287">
+        <v>1.615</v>
+      </c>
+      <c r="N287">
+        <v>4</v>
+      </c>
+      <c r="O287">
+        <v>3.75</v>
+      </c>
+      <c r="P287">
+        <v>1.7</v>
+      </c>
+      <c r="Q287">
+        <v>0.75</v>
+      </c>
+      <c r="R287">
+        <v>1.85</v>
+      </c>
+      <c r="S287">
+        <v>1.95</v>
+      </c>
+      <c r="T287">
+        <v>2.75</v>
+      </c>
+      <c r="U287">
+        <v>1.825</v>
+      </c>
+      <c r="V287">
+        <v>1.975</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>8089991</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45395.92083333333</v>
+      </c>
+      <c r="F288" t="s">
+        <v>33</v>
+      </c>
+      <c r="G288" t="s">
+        <v>44</v>
+      </c>
+      <c r="K288">
+        <v>1.4</v>
+      </c>
+      <c r="L288">
+        <v>4</v>
+      </c>
+      <c r="M288">
+        <v>7</v>
+      </c>
+      <c r="N288">
+        <v>1.533</v>
+      </c>
+      <c r="O288">
+        <v>3.75</v>
+      </c>
+      <c r="P288">
+        <v>5.5</v>
+      </c>
+      <c r="Q288">
+        <v>-1</v>
+      </c>
+      <c r="R288">
+        <v>1.925</v>
+      </c>
+      <c r="S288">
+        <v>1.875</v>
+      </c>
+      <c r="T288">
+        <v>2.5</v>
+      </c>
+      <c r="U288">
+        <v>1.8</v>
+      </c>
+      <c r="V288">
+        <v>2</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
+      <c r="AA288">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC288"/>
+  <dimension ref="A1:AC287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q28">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P29">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>2.375</v>
+      </c>
+      <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>2.5</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
         <v>3.5</v>
       </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>1.833</v>
-      </c>
-      <c r="N56">
-        <v>4.333</v>
-      </c>
-      <c r="O56">
-        <v>3.75</v>
-      </c>
       <c r="P56">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <v>23</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>1.03</v>
+      </c>
+      <c r="N149">
+        <v>29</v>
+      </c>
+      <c r="O149">
+        <v>12</v>
+      </c>
+      <c r="P149">
+        <v>1.055</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>2.1</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.7</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.75</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.1</v>
+      </c>
+      <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>23</v>
-      </c>
-      <c r="L150">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>1.03</v>
-      </c>
-      <c r="N150">
-        <v>29</v>
-      </c>
-      <c r="O150">
-        <v>12</v>
-      </c>
-      <c r="P150">
-        <v>1.055</v>
-      </c>
-      <c r="Q150">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>4</v>
-      </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L213">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N213">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q213">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>3.25</v>
+      </c>
+      <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.75</v>
       </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>3.75</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
       <c r="W213">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
+        <v>6</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>3</v>
-      </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M214">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N214">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P214">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N222">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X222">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC222">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
+        <v>17</v>
+      </c>
+      <c r="P231">
+        <v>41</v>
+      </c>
+      <c r="Q231">
+        <v>-3.75</v>
+      </c>
+      <c r="R231">
+        <v>1.775</v>
+      </c>
+      <c r="S231">
+        <v>1.925</v>
+      </c>
+      <c r="T231">
         <v>4.75</v>
       </c>
-      <c r="P231">
-        <v>1.4</v>
-      </c>
-      <c r="Q231">
-        <v>1.25</v>
-      </c>
-      <c r="R231">
-        <v>1.925</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>3</v>
-      </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
+        <v>0.5</v>
+      </c>
+      <c r="AC245">
         <v>-0.5</v>
-      </c>
-      <c r="AC245">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P246">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H248">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L248">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M248">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N248">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O248">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P248">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q248">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L249">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M249">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N249">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O249">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P249">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q249">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R249">
+        <v>1.775</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
+        <v>5.75</v>
+      </c>
+      <c r="U249">
         <v>1.85</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.95</v>
       </c>
-      <c r="T249">
-        <v>4</v>
-      </c>
-      <c r="U249">
-        <v>1.8</v>
-      </c>
-      <c r="V249">
-        <v>2</v>
-      </c>
       <c r="W249">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC249">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
+        <v>0.875</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
         <v>1.825</v>
       </c>
-      <c r="V252">
-        <v>1.975</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N263">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O263">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S263">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V263">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z263">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645804</v>
+        <v>7645807</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H264">
+        <v>2</v>
+      </c>
+      <c r="I264">
         <v>1</v>
       </c>
-      <c r="I264">
-        <v>2</v>
-      </c>
       <c r="J264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K264">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L264">
         <v>4</v>
       </c>
       <c r="M264">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N264">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="O264">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
-        <v>7.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q264">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R264">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S264">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T264">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V264">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA264">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645807</v>
+        <v>7645806</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G265" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>49</v>
+      </c>
+      <c r="K265">
+        <v>3.2</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>1.909</v>
+      </c>
+      <c r="N265">
+        <v>3.1</v>
+      </c>
+      <c r="O265">
+        <v>3.6</v>
+      </c>
+      <c r="P265">
         <v>2</v>
       </c>
-      <c r="I265">
-        <v>1</v>
-      </c>
-      <c r="J265" t="s">
-        <v>48</v>
-      </c>
-      <c r="K265">
-        <v>4.333</v>
-      </c>
-      <c r="L265">
-        <v>4</v>
-      </c>
-      <c r="M265">
-        <v>1.571</v>
-      </c>
-      <c r="N265">
-        <v>7</v>
-      </c>
-      <c r="O265">
-        <v>4.2</v>
-      </c>
-      <c r="P265">
-        <v>1.363</v>
-      </c>
       <c r="Q265">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S265">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U265">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>47</v>
+      </c>
+      <c r="K271">
+        <v>6.5</v>
+      </c>
+      <c r="L271">
+        <v>5</v>
+      </c>
+      <c r="M271">
+        <v>1.333</v>
+      </c>
+      <c r="N271">
+        <v>6.5</v>
+      </c>
+      <c r="O271">
+        <v>5</v>
+      </c>
+      <c r="P271">
+        <v>1.3</v>
+      </c>
+      <c r="Q271">
+        <v>1.5</v>
+      </c>
+      <c r="R271">
+        <v>1.875</v>
+      </c>
+      <c r="S271">
+        <v>1.925</v>
+      </c>
+      <c r="T271">
+        <v>3.25</v>
+      </c>
+      <c r="U271">
         <v>2</v>
       </c>
-      <c r="I271">
-        <v>2</v>
-      </c>
-      <c r="J271" t="s">
-        <v>49</v>
-      </c>
-      <c r="K271">
-        <v>4.75</v>
-      </c>
-      <c r="L271">
-        <v>4</v>
-      </c>
-      <c r="M271">
-        <v>1.533</v>
-      </c>
-      <c r="N271">
-        <v>4.75</v>
-      </c>
-      <c r="O271">
-        <v>3.75</v>
-      </c>
-      <c r="P271">
-        <v>1.571</v>
-      </c>
-      <c r="Q271">
-        <v>1</v>
-      </c>
-      <c r="R271">
-        <v>1.775</v>
-      </c>
-      <c r="S271">
-        <v>2.025</v>
-      </c>
-      <c r="T271">
-        <v>2.75</v>
-      </c>
-      <c r="U271">
-        <v>1.95</v>
-      </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z271">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272" t="s">
+        <v>49</v>
+      </c>
+      <c r="K272">
+        <v>4.75</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272">
+        <v>1.533</v>
+      </c>
+      <c r="N272">
+        <v>4.75</v>
+      </c>
+      <c r="O272">
+        <v>3.75</v>
+      </c>
+      <c r="P272">
+        <v>1.571</v>
+      </c>
+      <c r="Q272">
         <v>1</v>
       </c>
-      <c r="J272" t="s">
-        <v>47</v>
-      </c>
-      <c r="K272">
-        <v>6.5</v>
-      </c>
-      <c r="L272">
-        <v>5</v>
-      </c>
-      <c r="M272">
-        <v>1.333</v>
-      </c>
-      <c r="N272">
-        <v>6.5</v>
-      </c>
-      <c r="O272">
-        <v>5</v>
-      </c>
-      <c r="P272">
-        <v>1.3</v>
-      </c>
-      <c r="Q272">
-        <v>1.5</v>
-      </c>
       <c r="R272">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S272">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T272">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y272">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -25987,7 +25987,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7645821</v>
+        <v>8089991</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25996,49 +25996,49 @@
         <v>28</v>
       </c>
       <c r="E287" s="2">
-        <v>45395.625</v>
+        <v>45395.92083333333</v>
       </c>
       <c r="F287" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G287" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K287">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L287">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M287">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N287">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O287">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P287">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="Q287">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R287">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S287">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T287">
         <v>2.75</v>
       </c>
       <c r="U287">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V287">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W287">
         <v>0</v>
@@ -26053,80 +26053,6 @@
         <v>0</v>
       </c>
       <c r="AA287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:29">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288">
-        <v>8089991</v>
-      </c>
-      <c r="C288" t="s">
-        <v>28</v>
-      </c>
-      <c r="D288" t="s">
-        <v>28</v>
-      </c>
-      <c r="E288" s="2">
-        <v>45395.92083333333</v>
-      </c>
-      <c r="F288" t="s">
-        <v>33</v>
-      </c>
-      <c r="G288" t="s">
-        <v>44</v>
-      </c>
-      <c r="K288">
-        <v>1.4</v>
-      </c>
-      <c r="L288">
-        <v>4</v>
-      </c>
-      <c r="M288">
-        <v>7</v>
-      </c>
-      <c r="N288">
-        <v>1.533</v>
-      </c>
-      <c r="O288">
-        <v>3.75</v>
-      </c>
-      <c r="P288">
-        <v>5.5</v>
-      </c>
-      <c r="Q288">
-        <v>-1</v>
-      </c>
-      <c r="R288">
-        <v>1.925</v>
-      </c>
-      <c r="S288">
-        <v>1.875</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
-      </c>
-      <c r="U288">
-        <v>1.8</v>
-      </c>
-      <c r="V288">
-        <v>2</v>
-      </c>
-      <c r="W288">
-        <v>0</v>
-      </c>
-      <c r="X288">
-        <v>0</v>
-      </c>
-      <c r="Y288">
-        <v>0</v>
-      </c>
-      <c r="Z288">
-        <v>0</v>
-      </c>
-      <c r="AA288">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC287"/>
+  <dimension ref="A1:AC286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
+        <v>1.333</v>
+      </c>
+      <c r="Q47">
+        <v>1.5</v>
+      </c>
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
+        <v>2.375</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.5</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
         <v>3.5</v>
       </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>1.833</v>
-      </c>
-      <c r="N55">
-        <v>4.333</v>
-      </c>
-      <c r="O55">
-        <v>3.75</v>
-      </c>
       <c r="P55">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.95</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O133">
+        <v>6.5</v>
+      </c>
+      <c r="P133">
+        <v>1.142</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>1.666</v>
-      </c>
-      <c r="Q133">
-        <v>0.75</v>
-      </c>
-      <c r="R133">
-        <v>1.925</v>
-      </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N134">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O134">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q134">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M213">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P213">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N214">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q214">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
         <v>1.75</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>3.75</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N221">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N222">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645781</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>41</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,55 +21104,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L232">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N232">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P232">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q232">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC232">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,56 +21193,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L233">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M233">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N233">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P233">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U233">
+        <v>1.925</v>
+      </c>
+      <c r="V233">
         <v>1.775</v>
       </c>
-      <c r="V233">
-        <v>2.025</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M248">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N248">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O248">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P248">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q248">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R248">
+        <v>1.775</v>
+      </c>
+      <c r="S248">
+        <v>1.925</v>
+      </c>
+      <c r="T248">
+        <v>5.75</v>
+      </c>
+      <c r="U248">
         <v>1.85</v>
       </c>
-      <c r="S248">
+      <c r="V248">
         <v>1.95</v>
       </c>
-      <c r="T248">
-        <v>4</v>
-      </c>
-      <c r="U248">
-        <v>1.8</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
       <c r="W248">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC248">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H249">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L249">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M249">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N249">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O249">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P249">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q249">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R249">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U249">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
         <v>1.975</v>
       </c>
-      <c r="V252">
-        <v>1.825</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
+        <v>0.875</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB252">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645804</v>
+        <v>7645807</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="I263">
         <v>1</v>
       </c>
-      <c r="I263">
-        <v>2</v>
-      </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N263">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="O263">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
-        <v>7.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q263">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645807</v>
+        <v>7645806</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264" t="s">
+        <v>49</v>
+      </c>
+      <c r="K264">
+        <v>3.2</v>
+      </c>
+      <c r="L264">
+        <v>3.6</v>
+      </c>
+      <c r="M264">
+        <v>1.909</v>
+      </c>
+      <c r="N264">
+        <v>3.1</v>
+      </c>
+      <c r="O264">
+        <v>3.6</v>
+      </c>
+      <c r="P264">
         <v>2</v>
       </c>
-      <c r="I264">
-        <v>1</v>
-      </c>
-      <c r="J264" t="s">
-        <v>48</v>
-      </c>
-      <c r="K264">
-        <v>4.333</v>
-      </c>
-      <c r="L264">
-        <v>4</v>
-      </c>
-      <c r="M264">
-        <v>1.571</v>
-      </c>
-      <c r="N264">
-        <v>7</v>
-      </c>
-      <c r="O264">
-        <v>4.2</v>
-      </c>
-      <c r="P264">
-        <v>1.363</v>
-      </c>
       <c r="Q264">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U264">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K265">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N265">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P265">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q265">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z265">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>49</v>
+      </c>
+      <c r="K271">
+        <v>4.75</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271">
+        <v>1.533</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
+        <v>3.75</v>
+      </c>
+      <c r="P271">
+        <v>1.571</v>
+      </c>
+      <c r="Q271">
         <v>1</v>
       </c>
-      <c r="J271" t="s">
-        <v>47</v>
-      </c>
-      <c r="K271">
-        <v>6.5</v>
-      </c>
-      <c r="L271">
-        <v>5</v>
-      </c>
-      <c r="M271">
-        <v>1.333</v>
-      </c>
-      <c r="N271">
-        <v>6.5</v>
-      </c>
-      <c r="O271">
-        <v>5</v>
-      </c>
-      <c r="P271">
-        <v>1.3</v>
-      </c>
-      <c r="Q271">
-        <v>1.5</v>
-      </c>
       <c r="R271">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S271">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T271">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y271">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>47</v>
+      </c>
+      <c r="K272">
+        <v>6.5</v>
+      </c>
+      <c r="L272">
+        <v>5</v>
+      </c>
+      <c r="M272">
+        <v>1.333</v>
+      </c>
+      <c r="N272">
+        <v>6.5</v>
+      </c>
+      <c r="O272">
+        <v>5</v>
+      </c>
+      <c r="P272">
+        <v>1.3</v>
+      </c>
+      <c r="Q272">
+        <v>1.5</v>
+      </c>
+      <c r="R272">
+        <v>1.875</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
+        <v>3.25</v>
+      </c>
+      <c r="U272">
         <v>2</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
-      <c r="J272" t="s">
-        <v>49</v>
-      </c>
-      <c r="K272">
-        <v>4.75</v>
-      </c>
-      <c r="L272">
-        <v>4</v>
-      </c>
-      <c r="M272">
-        <v>1.533</v>
-      </c>
-      <c r="N272">
-        <v>4.75</v>
-      </c>
-      <c r="O272">
-        <v>3.75</v>
-      </c>
-      <c r="P272">
-        <v>1.571</v>
-      </c>
-      <c r="Q272">
-        <v>1</v>
-      </c>
-      <c r="R272">
-        <v>1.775</v>
-      </c>
-      <c r="S272">
-        <v>2.025</v>
-      </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
-        <v>1.95</v>
-      </c>
       <c r="V272">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z272">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -25980,80 +25980,6 @@
       </c>
       <c r="AC286">
         <v>-0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:29">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287">
-        <v>8089991</v>
-      </c>
-      <c r="C287" t="s">
-        <v>28</v>
-      </c>
-      <c r="D287" t="s">
-        <v>28</v>
-      </c>
-      <c r="E287" s="2">
-        <v>45395.92083333333</v>
-      </c>
-      <c r="F287" t="s">
-        <v>33</v>
-      </c>
-      <c r="G287" t="s">
-        <v>44</v>
-      </c>
-      <c r="K287">
-        <v>1.4</v>
-      </c>
-      <c r="L287">
-        <v>4</v>
-      </c>
-      <c r="M287">
-        <v>7</v>
-      </c>
-      <c r="N287">
-        <v>1.363</v>
-      </c>
-      <c r="O287">
-        <v>4.2</v>
-      </c>
-      <c r="P287">
-        <v>7</v>
-      </c>
-      <c r="Q287">
-        <v>-1.25</v>
-      </c>
-      <c r="R287">
-        <v>1.9</v>
-      </c>
-      <c r="S287">
-        <v>1.9</v>
-      </c>
-      <c r="T287">
-        <v>2.75</v>
-      </c>
-      <c r="U287">
-        <v>1.85</v>
-      </c>
-      <c r="V287">
-        <v>1.95</v>
-      </c>
-      <c r="W287">
-        <v>0</v>
-      </c>
-      <c r="X287">
-        <v>0</v>
-      </c>
-      <c r="Y287">
-        <v>0</v>
-      </c>
-      <c r="Z287">
-        <v>0</v>
-      </c>
-      <c r="AA287">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC286"/>
+  <dimension ref="A1:AC291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N71">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P71">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X72">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1.181</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.1</v>
+      </c>
+      <c r="O109">
+        <v>9</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.5</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>1.181</v>
-      </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N133">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q133">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M134">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O134">
+        <v>6.5</v>
+      </c>
+      <c r="P134">
+        <v>1.142</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.75</v>
       </c>
-      <c r="P134">
-        <v>1.666</v>
-      </c>
-      <c r="Q134">
-        <v>0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>23</v>
-      </c>
-      <c r="L149">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>1.03</v>
-      </c>
-      <c r="N149">
-        <v>29</v>
-      </c>
-      <c r="O149">
-        <v>12</v>
-      </c>
-      <c r="P149">
-        <v>1.055</v>
-      </c>
-      <c r="Q149">
-        <v>3</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>4</v>
-      </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>1.03</v>
+      </c>
+      <c r="N150">
+        <v>29</v>
+      </c>
+      <c r="O150">
+        <v>12</v>
+      </c>
+      <c r="P150">
+        <v>1.055</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.1</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>2.875</v>
-      </c>
-      <c r="N150">
-        <v>1.7</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4</v>
-      </c>
-      <c r="Q150">
-        <v>-0.75</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.75</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L213">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N213">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q213">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>3.25</v>
+      </c>
+      <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.75</v>
       </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>3.75</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
       <c r="W213">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
+        <v>6</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>3</v>
-      </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M214">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N214">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P214">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L215">
+        <v>5.5</v>
+      </c>
+      <c r="M215">
         <v>7.5</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
       <c r="N215">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
       <c r="T215">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M216">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N216">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
       </c>
-      <c r="S216">
-        <v>1.825</v>
-      </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="N230">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q230">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,49 +21015,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U231">
         <v>1.75</v>
@@ -21072,13 +21072,13 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
         <v>0.75</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
+        <v>0.5</v>
+      </c>
+      <c r="AC246">
         <v>-0.5</v>
-      </c>
-      <c r="AC246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H248">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L248">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M248">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N248">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O248">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P248">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q248">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L249">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M249">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N249">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O249">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P249">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q249">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R249">
+        <v>1.775</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
+        <v>5.75</v>
+      </c>
+      <c r="U249">
         <v>1.85</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.95</v>
       </c>
-      <c r="T249">
-        <v>4</v>
-      </c>
-      <c r="U249">
-        <v>1.8</v>
-      </c>
-      <c r="V249">
-        <v>2</v>
-      </c>
       <c r="W249">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC249">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
+        <v>0.875</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
         <v>1.825</v>
       </c>
-      <c r="V252">
-        <v>1.975</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645807</v>
+        <v>7645804</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
         <v>2</v>
       </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="N263">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>1.363</v>
+        <v>7.5</v>
       </c>
       <c r="Q263">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
+        <v>1.925</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
+        <v>3</v>
+      </c>
+      <c r="U263">
         <v>1.75</v>
       </c>
-      <c r="S263">
-        <v>1.95</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.8</v>
-      </c>
       <c r="V263">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W263">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z263">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645804</v>
+        <v>7645807</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H265">
+        <v>2</v>
+      </c>
+      <c r="I265">
         <v>1</v>
       </c>
-      <c r="I265">
-        <v>2</v>
-      </c>
       <c r="J265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K265">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L265">
         <v>4</v>
       </c>
       <c r="M265">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N265">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="O265">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P265">
-        <v>7.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q265">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R265">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S265">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T265">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V265">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -25980,6 +25980,406 @@
       </c>
       <c r="AC286">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>7645821</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45395.625</v>
+      </c>
+      <c r="F287" t="s">
+        <v>35</v>
+      </c>
+      <c r="G287" t="s">
+        <v>41</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287" t="s">
+        <v>49</v>
+      </c>
+      <c r="K287">
+        <v>4.5</v>
+      </c>
+      <c r="L287">
+        <v>3.75</v>
+      </c>
+      <c r="M287">
+        <v>1.615</v>
+      </c>
+      <c r="N287">
+        <v>4.333</v>
+      </c>
+      <c r="O287">
+        <v>4</v>
+      </c>
+      <c r="P287">
+        <v>1.571</v>
+      </c>
+      <c r="Q287">
+        <v>1</v>
+      </c>
+      <c r="R287">
+        <v>1.775</v>
+      </c>
+      <c r="S287">
+        <v>2.025</v>
+      </c>
+      <c r="T287">
+        <v>3.25</v>
+      </c>
+      <c r="U287">
+        <v>2</v>
+      </c>
+      <c r="V287">
+        <v>1.8</v>
+      </c>
+      <c r="W287">
+        <v>-1</v>
+      </c>
+      <c r="X287">
+        <v>3</v>
+      </c>
+      <c r="Y287">
+        <v>-1</v>
+      </c>
+      <c r="Z287">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA287">
+        <v>-1</v>
+      </c>
+      <c r="AB287">
+        <v>-1</v>
+      </c>
+      <c r="AC287">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>8089991</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45395.92083333333</v>
+      </c>
+      <c r="F288" t="s">
+        <v>33</v>
+      </c>
+      <c r="G288" t="s">
+        <v>44</v>
+      </c>
+      <c r="H288">
+        <v>2</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288" t="s">
+        <v>48</v>
+      </c>
+      <c r="K288">
+        <v>1.4</v>
+      </c>
+      <c r="L288">
+        <v>4</v>
+      </c>
+      <c r="M288">
+        <v>7</v>
+      </c>
+      <c r="N288">
+        <v>1.4</v>
+      </c>
+      <c r="O288">
+        <v>4.333</v>
+      </c>
+      <c r="P288">
+        <v>6.5</v>
+      </c>
+      <c r="Q288">
+        <v>-1.25</v>
+      </c>
+      <c r="R288">
+        <v>1.825</v>
+      </c>
+      <c r="S288">
+        <v>1.975</v>
+      </c>
+      <c r="T288">
+        <v>3</v>
+      </c>
+      <c r="U288">
+        <v>1.9</v>
+      </c>
+      <c r="V288">
+        <v>1.9</v>
+      </c>
+      <c r="W288">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X288">
+        <v>-1</v>
+      </c>
+      <c r="Y288">
+        <v>-1</v>
+      </c>
+      <c r="Z288">
+        <v>-0.5</v>
+      </c>
+      <c r="AA288">
+        <v>0.4875</v>
+      </c>
+      <c r="AB288">
+        <v>0</v>
+      </c>
+      <c r="AC288">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>7645732</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45397.91666666666</v>
+      </c>
+      <c r="F289" t="s">
+        <v>31</v>
+      </c>
+      <c r="G289" t="s">
+        <v>30</v>
+      </c>
+      <c r="K289">
+        <v>2.25</v>
+      </c>
+      <c r="L289">
+        <v>3.75</v>
+      </c>
+      <c r="M289">
+        <v>2.5</v>
+      </c>
+      <c r="N289">
+        <v>1.615</v>
+      </c>
+      <c r="O289">
+        <v>4.5</v>
+      </c>
+      <c r="P289">
+        <v>3.6</v>
+      </c>
+      <c r="Q289">
+        <v>-0.75</v>
+      </c>
+      <c r="R289">
+        <v>1.825</v>
+      </c>
+      <c r="S289">
+        <v>1.975</v>
+      </c>
+      <c r="T289">
+        <v>3</v>
+      </c>
+      <c r="U289">
+        <v>1.9</v>
+      </c>
+      <c r="V289">
+        <v>1.9</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>7645733</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45397.92013888889</v>
+      </c>
+      <c r="F290" t="s">
+        <v>34</v>
+      </c>
+      <c r="G290" t="s">
+        <v>45</v>
+      </c>
+      <c r="K290">
+        <v>6</v>
+      </c>
+      <c r="L290">
+        <v>5</v>
+      </c>
+      <c r="M290">
+        <v>1.333</v>
+      </c>
+      <c r="N290">
+        <v>4.333</v>
+      </c>
+      <c r="O290">
+        <v>4.5</v>
+      </c>
+      <c r="P290">
+        <v>1.5</v>
+      </c>
+      <c r="Q290">
+        <v>1</v>
+      </c>
+      <c r="R290">
+        <v>1.9</v>
+      </c>
+      <c r="S290">
+        <v>1.9</v>
+      </c>
+      <c r="T290">
+        <v>3</v>
+      </c>
+      <c r="U290">
+        <v>1.85</v>
+      </c>
+      <c r="V290">
+        <v>1.95</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>7645734</v>
+      </c>
+      <c r="C291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45398.00694444445</v>
+      </c>
+      <c r="F291" t="s">
+        <v>37</v>
+      </c>
+      <c r="G291" t="s">
+        <v>42</v>
+      </c>
+      <c r="K291">
+        <v>1.166</v>
+      </c>
+      <c r="L291">
+        <v>6.5</v>
+      </c>
+      <c r="M291">
+        <v>10</v>
+      </c>
+      <c r="N291">
+        <v>1.125</v>
+      </c>
+      <c r="O291">
+        <v>9</v>
+      </c>
+      <c r="P291">
+        <v>11</v>
+      </c>
+      <c r="Q291">
+        <v>-2.5</v>
+      </c>
+      <c r="R291">
+        <v>1.875</v>
+      </c>
+      <c r="S291">
+        <v>1.925</v>
+      </c>
+      <c r="T291">
+        <v>3.75</v>
+      </c>
+      <c r="U291">
+        <v>1.95</v>
+      </c>
+      <c r="V291">
+        <v>1.85</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>0</v>
+      </c>
+      <c r="Z291">
+        <v>0</v>
+      </c>
+      <c r="AA291">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC291"/>
+  <dimension ref="A1:AC294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P28">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L29">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O29">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.181</v>
-      </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>1.181</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.1</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q132">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O133">
+        <v>6.5</v>
+      </c>
+      <c r="P133">
+        <v>1.142</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>1.666</v>
-      </c>
-      <c r="Q133">
-        <v>0.75</v>
-      </c>
-      <c r="R133">
-        <v>1.925</v>
-      </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N134">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O134">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q134">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N229">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
+        <v>17</v>
+      </c>
+      <c r="P231">
+        <v>41</v>
+      </c>
+      <c r="Q231">
+        <v>-3.75</v>
+      </c>
+      <c r="R231">
+        <v>1.775</v>
+      </c>
+      <c r="S231">
+        <v>1.925</v>
+      </c>
+      <c r="T231">
         <v>4.75</v>
       </c>
-      <c r="P231">
-        <v>1.4</v>
-      </c>
-      <c r="Q231">
-        <v>1.25</v>
-      </c>
-      <c r="R231">
-        <v>1.925</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>3</v>
-      </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,56 +21104,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N232">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P232">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U232">
+        <v>1.925</v>
+      </c>
+      <c r="V232">
         <v>1.775</v>
       </c>
-      <c r="V232">
-        <v>2.025</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,55 +21193,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L233">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N233">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V233">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
+        <v>0.5</v>
+      </c>
+      <c r="AC245">
         <v>-0.5</v>
-      </c>
-      <c r="AC245">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P246">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M248">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N248">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O248">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P248">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q248">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R248">
+        <v>1.775</v>
+      </c>
+      <c r="S248">
+        <v>1.925</v>
+      </c>
+      <c r="T248">
+        <v>5.75</v>
+      </c>
+      <c r="U248">
         <v>1.85</v>
       </c>
-      <c r="S248">
+      <c r="V248">
         <v>1.95</v>
       </c>
-      <c r="T248">
-        <v>4</v>
-      </c>
-      <c r="U248">
-        <v>1.8</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
       <c r="W248">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC248">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H249">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L249">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M249">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N249">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O249">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P249">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q249">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R249">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U249">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263" t="s">
+        <v>49</v>
+      </c>
+      <c r="K263">
+        <v>3.2</v>
+      </c>
+      <c r="L263">
+        <v>3.6</v>
+      </c>
+      <c r="M263">
+        <v>1.909</v>
+      </c>
+      <c r="N263">
+        <v>3.1</v>
+      </c>
+      <c r="O263">
+        <v>3.6</v>
+      </c>
+      <c r="P263">
         <v>2</v>
       </c>
-      <c r="J263" t="s">
-        <v>47</v>
-      </c>
-      <c r="K263">
-        <v>1.666</v>
-      </c>
-      <c r="L263">
-        <v>4</v>
-      </c>
-      <c r="M263">
-        <v>3.8</v>
-      </c>
-      <c r="N263">
-        <v>1.333</v>
-      </c>
-      <c r="O263">
-        <v>4.5</v>
-      </c>
-      <c r="P263">
-        <v>7.5</v>
-      </c>
       <c r="Q263">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y263">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G264" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K264">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N264">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P264">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q264">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R264">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V264">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z264">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC264">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -26160,12 +26160,12 @@
         <v>-0</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:29">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7645732</v>
+        <v>7645822</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26174,72 +26174,87 @@
         <v>28</v>
       </c>
       <c r="E289" s="2">
-        <v>45397.91666666666</v>
+        <v>45396.83333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G289" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>3</v>
+      </c>
+      <c r="J289" t="s">
+        <v>47</v>
       </c>
       <c r="K289">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L289">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M289">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N289">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="O289">
         <v>4.5</v>
       </c>
       <c r="P289">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q289">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R289">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S289">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T289">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U289">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V289">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W289">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z289">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB289">
+        <v>-0.5</v>
+      </c>
+      <c r="AC289">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7645733</v>
+        <v>7645824</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26248,138 +26263,435 @@
         <v>28</v>
       </c>
       <c r="E290" s="2">
-        <v>45397.92013888889</v>
+        <v>45396.92083333333</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G290" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>3</v>
+      </c>
+      <c r="J290" t="s">
+        <v>47</v>
       </c>
       <c r="K290">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="L290">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M290">
-        <v>1.333</v>
+        <v>1.071</v>
       </c>
       <c r="N290">
-        <v>4.333</v>
+        <v>23</v>
       </c>
       <c r="O290">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="P290">
-        <v>1.5</v>
+        <v>1.062</v>
       </c>
       <c r="Q290">
-        <v>1</v>
+        <v>3.25</v>
       </c>
       <c r="R290">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S290">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T290">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V290">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
-        <v>0</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z290">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB290">
+        <v>-1</v>
+      </c>
+      <c r="AC290">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291">
+        <v>7645825</v>
+      </c>
+      <c r="C291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45397.83333333334</v>
+      </c>
+      <c r="F291" t="s">
+        <v>43</v>
+      </c>
+      <c r="G291" t="s">
+        <v>29</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+      <c r="I291">
+        <v>3</v>
+      </c>
+      <c r="J291" t="s">
+        <v>47</v>
+      </c>
+      <c r="K291">
+        <v>7</v>
+      </c>
+      <c r="L291">
+        <v>5</v>
+      </c>
+      <c r="M291">
+        <v>1.285</v>
+      </c>
+      <c r="N291">
+        <v>4.5</v>
+      </c>
+      <c r="O291">
+        <v>4.5</v>
+      </c>
+      <c r="P291">
+        <v>1.5</v>
+      </c>
+      <c r="Q291">
+        <v>1</v>
+      </c>
+      <c r="R291">
+        <v>2</v>
+      </c>
+      <c r="S291">
+        <v>1.8</v>
+      </c>
+      <c r="T291">
+        <v>3.25</v>
+      </c>
+      <c r="U291">
+        <v>1.875</v>
+      </c>
+      <c r="V291">
+        <v>1.925</v>
+      </c>
+      <c r="W291">
+        <v>-1</v>
+      </c>
+      <c r="X291">
+        <v>-1</v>
+      </c>
+      <c r="Y291">
+        <v>0.5</v>
+      </c>
+      <c r="Z291">
+        <v>-1</v>
+      </c>
+      <c r="AA291">
+        <v>0.8</v>
+      </c>
+      <c r="AB291">
+        <v>0.875</v>
+      </c>
+      <c r="AC291">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>7645732</v>
+      </c>
+      <c r="C292" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45397.91666666666</v>
+      </c>
+      <c r="F292" t="s">
+        <v>31</v>
+      </c>
+      <c r="G292" t="s">
+        <v>30</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292" t="s">
+        <v>47</v>
+      </c>
+      <c r="K292">
+        <v>2.25</v>
+      </c>
+      <c r="L292">
+        <v>3.75</v>
+      </c>
+      <c r="M292">
+        <v>2.5</v>
+      </c>
+      <c r="N292">
+        <v>1.615</v>
+      </c>
+      <c r="O292">
+        <v>4.5</v>
+      </c>
+      <c r="P292">
+        <v>3.6</v>
+      </c>
+      <c r="Q292">
+        <v>-1</v>
+      </c>
+      <c r="R292">
+        <v>1.95</v>
+      </c>
+      <c r="S292">
+        <v>1.75</v>
+      </c>
+      <c r="T292">
+        <v>3</v>
+      </c>
+      <c r="U292">
+        <v>1.9</v>
+      </c>
+      <c r="V292">
+        <v>1.9</v>
+      </c>
+      <c r="W292">
+        <v>-1</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
+        <v>2.6</v>
+      </c>
+      <c r="Z292">
+        <v>-1</v>
+      </c>
+      <c r="AA292">
+        <v>0.75</v>
+      </c>
+      <c r="AB292">
+        <v>0</v>
+      </c>
+      <c r="AC292">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>7645733</v>
+      </c>
+      <c r="C293" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" t="s">
+        <v>28</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45397.92083333333</v>
+      </c>
+      <c r="F293" t="s">
+        <v>34</v>
+      </c>
+      <c r="G293" t="s">
+        <v>45</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293" t="s">
+        <v>47</v>
+      </c>
+      <c r="K293">
+        <v>6</v>
+      </c>
+      <c r="L293">
+        <v>5</v>
+      </c>
+      <c r="M293">
+        <v>1.333</v>
+      </c>
+      <c r="N293">
+        <v>4</v>
+      </c>
+      <c r="O293">
+        <v>4.5</v>
+      </c>
+      <c r="P293">
+        <v>1.55</v>
+      </c>
+      <c r="Q293">
+        <v>1</v>
+      </c>
+      <c r="R293">
+        <v>1.85</v>
+      </c>
+      <c r="S293">
+        <v>1.95</v>
+      </c>
+      <c r="T293">
+        <v>3.25</v>
+      </c>
+      <c r="U293">
+        <v>1.85</v>
+      </c>
+      <c r="V293">
+        <v>1.95</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
+        <v>-1</v>
+      </c>
+      <c r="Y293">
+        <v>0.55</v>
+      </c>
+      <c r="Z293">
+        <v>0</v>
+      </c>
+      <c r="AA293">
+        <v>-0</v>
+      </c>
+      <c r="AB293">
+        <v>-1</v>
+      </c>
+      <c r="AC293">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
         <v>7645734</v>
       </c>
-      <c r="C291" t="s">
-        <v>28</v>
-      </c>
-      <c r="D291" t="s">
-        <v>28</v>
-      </c>
-      <c r="E291" s="2">
+      <c r="C294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D294" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" s="2">
         <v>45398.00694444445</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F294" t="s">
         <v>37</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G294" t="s">
         <v>42</v>
       </c>
-      <c r="K291">
+      <c r="H294">
+        <v>3</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294" t="s">
+        <v>48</v>
+      </c>
+      <c r="K294">
         <v>1.166</v>
       </c>
-      <c r="L291">
+      <c r="L294">
         <v>6.5</v>
       </c>
-      <c r="M291">
+      <c r="M294">
         <v>10</v>
       </c>
-      <c r="N291">
-        <v>1.125</v>
-      </c>
-      <c r="O291">
-        <v>9</v>
-      </c>
-      <c r="P291">
-        <v>11</v>
-      </c>
-      <c r="Q291">
-        <v>-2.5</v>
-      </c>
-      <c r="R291">
+      <c r="N294">
+        <v>1.166</v>
+      </c>
+      <c r="O294">
+        <v>7</v>
+      </c>
+      <c r="P294">
+        <v>12</v>
+      </c>
+      <c r="Q294">
+        <v>-2.25</v>
+      </c>
+      <c r="R294">
+        <v>1.925</v>
+      </c>
+      <c r="S294">
         <v>1.875</v>
       </c>
-      <c r="S291">
-        <v>1.925</v>
-      </c>
-      <c r="T291">
+      <c r="T294">
         <v>3.75</v>
       </c>
-      <c r="U291">
+      <c r="U294">
         <v>1.95</v>
       </c>
-      <c r="V291">
+      <c r="V294">
         <v>1.85</v>
       </c>
-      <c r="W291">
-        <v>0</v>
-      </c>
-      <c r="X291">
-        <v>0</v>
-      </c>
-      <c r="Y291">
-        <v>0</v>
-      </c>
-      <c r="Z291">
-        <v>0</v>
-      </c>
-      <c r="AA291">
-        <v>0</v>
+      <c r="W294">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X294">
+        <v>-1</v>
+      </c>
+      <c r="Y294">
+        <v>-1</v>
+      </c>
+      <c r="Z294">
+        <v>0.925</v>
+      </c>
+      <c r="AA294">
+        <v>-1</v>
+      </c>
+      <c r="AB294">
+        <v>-1</v>
+      </c>
+      <c r="AC294">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC294"/>
+  <dimension ref="A1:AC296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
+        <v>2.375</v>
+      </c>
+      <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>2.5</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
         <v>3.5</v>
       </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>1.833</v>
-      </c>
-      <c r="N56">
-        <v>4.333</v>
-      </c>
-      <c r="O56">
-        <v>3.75</v>
-      </c>
       <c r="P56">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N131">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N222">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X222">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC222">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
+        <v>17</v>
+      </c>
+      <c r="P229">
+        <v>41</v>
+      </c>
+      <c r="Q229">
+        <v>-3.75</v>
+      </c>
+      <c r="R229">
+        <v>1.775</v>
+      </c>
+      <c r="S229">
+        <v>1.925</v>
+      </c>
+      <c r="T229">
         <v>4.75</v>
       </c>
-      <c r="P229">
-        <v>1.4</v>
-      </c>
-      <c r="Q229">
-        <v>1.25</v>
-      </c>
-      <c r="R229">
-        <v>1.925</v>
-      </c>
-      <c r="S229">
-        <v>1.875</v>
-      </c>
-      <c r="T229">
-        <v>3</v>
-      </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
+        <v>0.5</v>
+      </c>
+      <c r="AC246">
         <v>-0.5</v>
-      </c>
-      <c r="AC246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N263">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O263">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S263">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V263">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z263">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264" t="s">
+        <v>49</v>
+      </c>
+      <c r="K264">
+        <v>3.2</v>
+      </c>
+      <c r="L264">
+        <v>3.6</v>
+      </c>
+      <c r="M264">
+        <v>1.909</v>
+      </c>
+      <c r="N264">
+        <v>3.1</v>
+      </c>
+      <c r="O264">
+        <v>3.6</v>
+      </c>
+      <c r="P264">
         <v>2</v>
       </c>
-      <c r="J264" t="s">
-        <v>47</v>
-      </c>
-      <c r="K264">
-        <v>1.666</v>
-      </c>
-      <c r="L264">
-        <v>4</v>
-      </c>
-      <c r="M264">
-        <v>3.8</v>
-      </c>
-      <c r="N264">
-        <v>1.333</v>
-      </c>
-      <c r="O264">
-        <v>4.5</v>
-      </c>
-      <c r="P264">
-        <v>7.5</v>
-      </c>
       <c r="Q264">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y264">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA264">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>47</v>
+      </c>
+      <c r="K271">
+        <v>6.5</v>
+      </c>
+      <c r="L271">
+        <v>5</v>
+      </c>
+      <c r="M271">
+        <v>1.333</v>
+      </c>
+      <c r="N271">
+        <v>6.5</v>
+      </c>
+      <c r="O271">
+        <v>5</v>
+      </c>
+      <c r="P271">
+        <v>1.3</v>
+      </c>
+      <c r="Q271">
+        <v>1.5</v>
+      </c>
+      <c r="R271">
+        <v>1.875</v>
+      </c>
+      <c r="S271">
+        <v>1.925</v>
+      </c>
+      <c r="T271">
+        <v>3.25</v>
+      </c>
+      <c r="U271">
         <v>2</v>
       </c>
-      <c r="I271">
-        <v>2</v>
-      </c>
-      <c r="J271" t="s">
-        <v>49</v>
-      </c>
-      <c r="K271">
-        <v>4.75</v>
-      </c>
-      <c r="L271">
-        <v>4</v>
-      </c>
-      <c r="M271">
-        <v>1.533</v>
-      </c>
-      <c r="N271">
-        <v>4.75</v>
-      </c>
-      <c r="O271">
-        <v>3.75</v>
-      </c>
-      <c r="P271">
-        <v>1.571</v>
-      </c>
-      <c r="Q271">
-        <v>1</v>
-      </c>
-      <c r="R271">
-        <v>1.775</v>
-      </c>
-      <c r="S271">
-        <v>2.025</v>
-      </c>
-      <c r="T271">
-        <v>2.75</v>
-      </c>
-      <c r="U271">
-        <v>1.95</v>
-      </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z271">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272" t="s">
+        <v>49</v>
+      </c>
+      <c r="K272">
+        <v>4.75</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272">
+        <v>1.533</v>
+      </c>
+      <c r="N272">
+        <v>4.75</v>
+      </c>
+      <c r="O272">
+        <v>3.75</v>
+      </c>
+      <c r="P272">
+        <v>1.571</v>
+      </c>
+      <c r="Q272">
         <v>1</v>
       </c>
-      <c r="J272" t="s">
-        <v>47</v>
-      </c>
-      <c r="K272">
-        <v>6.5</v>
-      </c>
-      <c r="L272">
-        <v>5</v>
-      </c>
-      <c r="M272">
-        <v>1.333</v>
-      </c>
-      <c r="N272">
-        <v>6.5</v>
-      </c>
-      <c r="O272">
-        <v>5</v>
-      </c>
-      <c r="P272">
-        <v>1.3</v>
-      </c>
-      <c r="Q272">
-        <v>1.5</v>
-      </c>
       <c r="R272">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S272">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T272">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y272">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -26692,6 +26692,154 @@
       </c>
       <c r="AC294">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:29">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>7811117</v>
+      </c>
+      <c r="C295" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" t="s">
+        <v>28</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45401</v>
+      </c>
+      <c r="F295" t="s">
+        <v>40</v>
+      </c>
+      <c r="G295" t="s">
+        <v>32</v>
+      </c>
+      <c r="K295">
+        <v>1.4</v>
+      </c>
+      <c r="L295">
+        <v>4.6</v>
+      </c>
+      <c r="M295">
+        <v>5.5</v>
+      </c>
+      <c r="N295">
+        <v>1.111</v>
+      </c>
+      <c r="O295">
+        <v>7.5</v>
+      </c>
+      <c r="P295">
+        <v>19</v>
+      </c>
+      <c r="Q295">
+        <v>-2.25</v>
+      </c>
+      <c r="R295">
+        <v>2</v>
+      </c>
+      <c r="S295">
+        <v>1.8</v>
+      </c>
+      <c r="T295">
+        <v>3.5</v>
+      </c>
+      <c r="U295">
+        <v>1.9</v>
+      </c>
+      <c r="V295">
+        <v>1.9</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
+      <c r="Z295">
+        <v>0</v>
+      </c>
+      <c r="AA295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>7645828</v>
+      </c>
+      <c r="C296" t="s">
+        <v>28</v>
+      </c>
+      <c r="D296" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45401.83333333334</v>
+      </c>
+      <c r="F296" t="s">
+        <v>39</v>
+      </c>
+      <c r="G296" t="s">
+        <v>33</v>
+      </c>
+      <c r="K296">
+        <v>2.35</v>
+      </c>
+      <c r="L296">
+        <v>3.6</v>
+      </c>
+      <c r="M296">
+        <v>2.45</v>
+      </c>
+      <c r="N296">
+        <v>2.4</v>
+      </c>
+      <c r="O296">
+        <v>3.6</v>
+      </c>
+      <c r="P296">
+        <v>2.4</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>1.925</v>
+      </c>
+      <c r="S296">
+        <v>1.875</v>
+      </c>
+      <c r="T296">
+        <v>2.75</v>
+      </c>
+      <c r="U296">
+        <v>1.95</v>
+      </c>
+      <c r="V296">
+        <v>1.85</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>0</v>
+      </c>
+      <c r="Z296">
+        <v>0</v>
+      </c>
+      <c r="AA296">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC296"/>
+  <dimension ref="A1:AC295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q28">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P29">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
+        <v>1.333</v>
+      </c>
+      <c r="Q48">
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
         <v>3</v>
       </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N131">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q132">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N133">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q133">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M134">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O134">
+        <v>6.5</v>
+      </c>
+      <c r="P134">
+        <v>1.142</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.75</v>
       </c>
-      <c r="P134">
-        <v>1.666</v>
-      </c>
-      <c r="Q134">
-        <v>0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7645770</v>
+        <v>7645771</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M213">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>1.071</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P213">
-        <v>1.833</v>
+        <v>23</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7645771</v>
+        <v>7645770</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45317.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="N214">
-        <v>1.071</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>23</v>
+        <v>1.833</v>
       </c>
       <c r="Q214">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>3.25</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
         <v>1.75</v>
       </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>3.75</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L215">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
         <v>1.975</v>
       </c>
-      <c r="S215">
-        <v>1.825</v>
-      </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L216">
+        <v>5.5</v>
+      </c>
+      <c r="M216">
         <v>7.5</v>
       </c>
-      <c r="M216">
-        <v>15</v>
-      </c>
       <c r="N216">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O216">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P216">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
         <v>1.825</v>
       </c>
-      <c r="S216">
-        <v>1.975</v>
-      </c>
       <c r="T216">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7645776</v>
+        <v>7645775</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,49 +20125,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N221">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
         <v>1.8</v>
@@ -20176,25 +20176,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7645775</v>
+        <v>7645776</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,49 +20214,49 @@
         <v>45324.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N222">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
         <v>1.8</v>
@@ -20265,25 +20265,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N229">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z229">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,49 +20926,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
         <v>1.75</v>
@@ -20983,13 +20983,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
         <v>0.75</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I231">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L231">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M231">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N231">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O231">
+        <v>17</v>
+      </c>
+      <c r="P231">
+        <v>41</v>
+      </c>
+      <c r="Q231">
+        <v>-3.75</v>
+      </c>
+      <c r="R231">
+        <v>1.775</v>
+      </c>
+      <c r="S231">
+        <v>1.925</v>
+      </c>
+      <c r="T231">
         <v>4.75</v>
       </c>
-      <c r="P231">
-        <v>1.4</v>
-      </c>
-      <c r="Q231">
-        <v>1.25</v>
-      </c>
-      <c r="R231">
-        <v>1.925</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>3</v>
-      </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
+        <v>0.5</v>
+      </c>
+      <c r="AC245">
         <v>-0.5</v>
-      </c>
-      <c r="AC245">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P246">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H248">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L248">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M248">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N248">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O248">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P248">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q248">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L249">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M249">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N249">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O249">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P249">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q249">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R249">
+        <v>1.775</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
+        <v>5.75</v>
+      </c>
+      <c r="U249">
         <v>1.85</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.95</v>
       </c>
-      <c r="T249">
-        <v>4</v>
-      </c>
-      <c r="U249">
-        <v>1.8</v>
-      </c>
-      <c r="V249">
-        <v>2</v>
-      </c>
       <c r="W249">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC249">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,56 +22795,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
         <v>47</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
       <c r="W251">
         <v>-1</v>
       </c>
@@ -22852,19 +22852,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,56 +22884,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>47</v>
       </c>
       <c r="K252">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M252">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
         <v>1.975</v>
       </c>
-      <c r="V252">
-        <v>1.825</v>
-      </c>
       <c r="W252">
         <v>-1</v>
       </c>
@@ -22941,19 +22941,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
+        <v>0.875</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB252">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -26699,7 +26699,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7811117</v>
+        <v>7645735</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26708,43 +26708,43 @@
         <v>28</v>
       </c>
       <c r="E295" s="2">
-        <v>45401</v>
+        <v>45401.91666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G295" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K295">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="L295">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="M295">
-        <v>5.5</v>
+        <v>1.142</v>
       </c>
       <c r="N295">
-        <v>1.111</v>
+        <v>12</v>
       </c>
       <c r="O295">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P295">
-        <v>19</v>
+        <v>1.142</v>
       </c>
       <c r="Q295">
-        <v>-2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R295">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S295">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T295">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U295">
         <v>1.9</v>
@@ -26765,80 +26765,6 @@
         <v>0</v>
       </c>
       <c r="AA295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:29">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296">
-        <v>7645828</v>
-      </c>
-      <c r="C296" t="s">
-        <v>28</v>
-      </c>
-      <c r="D296" t="s">
-        <v>28</v>
-      </c>
-      <c r="E296" s="2">
-        <v>45401.83333333334</v>
-      </c>
-      <c r="F296" t="s">
-        <v>39</v>
-      </c>
-      <c r="G296" t="s">
-        <v>33</v>
-      </c>
-      <c r="K296">
-        <v>2.35</v>
-      </c>
-      <c r="L296">
-        <v>3.6</v>
-      </c>
-      <c r="M296">
-        <v>2.45</v>
-      </c>
-      <c r="N296">
-        <v>2.4</v>
-      </c>
-      <c r="O296">
-        <v>3.6</v>
-      </c>
-      <c r="P296">
-        <v>2.4</v>
-      </c>
-      <c r="Q296">
-        <v>0</v>
-      </c>
-      <c r="R296">
-        <v>1.925</v>
-      </c>
-      <c r="S296">
-        <v>1.875</v>
-      </c>
-      <c r="T296">
-        <v>2.75</v>
-      </c>
-      <c r="U296">
-        <v>1.95</v>
-      </c>
-      <c r="V296">
-        <v>1.85</v>
-      </c>
-      <c r="W296">
-        <v>0</v>
-      </c>
-      <c r="X296">
-        <v>0</v>
-      </c>
-      <c r="Y296">
-        <v>0</v>
-      </c>
-      <c r="Z296">
-        <v>0</v>
-      </c>
-      <c r="AA296">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P28">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L29">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O29">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N71">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P71">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X72">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109">
+        <v>1.181</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.1</v>
+      </c>
+      <c r="O109">
+        <v>9</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.5</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
         <v>2</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>4</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>1.181</v>
-      </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45214.625</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>6</v>
@@ -12130,40 +12130,40 @@
         <v>47</v>
       </c>
       <c r="K131">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="N131">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,16 +12172,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45214.625</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>6</v>
@@ -12219,40 +12219,40 @@
         <v>47</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O133">
+        <v>6.5</v>
+      </c>
+      <c r="P133">
+        <v>1.142</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>1.666</v>
-      </c>
-      <c r="Q133">
-        <v>0.75</v>
-      </c>
-      <c r="R133">
-        <v>1.925</v>
-      </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N134">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O134">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q134">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7645707</v>
+        <v>7645772</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="L215">
+        <v>5.5</v>
+      </c>
+      <c r="M215">
         <v>7.5</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
       <c r="N215">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
       <c r="T215">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.1659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7645772</v>
+        <v>7645707</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,58 +19680,58 @@
         <v>45317.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>48</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M216">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N216">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
       </c>
-      <c r="S216">
-        <v>1.825</v>
-      </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.2849999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19740,16 +19740,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,49 +20837,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
         <v>1.75</v>
@@ -20894,13 +20894,13 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
         <v>0.75</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I230">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L230">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M230">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N230">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O230">
+        <v>17</v>
+      </c>
+      <c r="P230">
+        <v>41</v>
+      </c>
+      <c r="Q230">
+        <v>-3.75</v>
+      </c>
+      <c r="R230">
+        <v>1.775</v>
+      </c>
+      <c r="S230">
+        <v>1.925</v>
+      </c>
+      <c r="T230">
         <v>4.75</v>
       </c>
-      <c r="P230">
-        <v>1.4</v>
-      </c>
-      <c r="Q230">
-        <v>1.25</v>
-      </c>
-      <c r="R230">
-        <v>1.925</v>
-      </c>
-      <c r="S230">
-        <v>1.875</v>
-      </c>
-      <c r="T230">
-        <v>3</v>
-      </c>
       <c r="U230">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7645712</v>
+        <v>7645781</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,73 +21015,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.03</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>41</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
+        <v>0.5</v>
+      </c>
+      <c r="AC246">
         <v>-0.5</v>
-      </c>
-      <c r="AC246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,13 +22528,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -22543,43 +22543,43 @@
         <v>48</v>
       </c>
       <c r="K248">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M248">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N248">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="O248">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P248">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="Q248">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="R248">
+        <v>1.775</v>
+      </c>
+      <c r="S248">
+        <v>1.925</v>
+      </c>
+      <c r="T248">
+        <v>5.75</v>
+      </c>
+      <c r="U248">
         <v>1.85</v>
       </c>
-      <c r="S248">
+      <c r="V248">
         <v>1.95</v>
       </c>
-      <c r="T248">
-        <v>4</v>
-      </c>
-      <c r="U248">
-        <v>1.8</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
       <c r="W248">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC248">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,13 +22617,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H249">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -22632,43 +22632,43 @@
         <v>48</v>
       </c>
       <c r="K249">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="L249">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M249">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N249">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="O249">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P249">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="Q249">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="R249">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="U249">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22677,16 +22677,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645804</v>
+        <v>7645807</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="I263">
         <v>1</v>
       </c>
-      <c r="I263">
-        <v>2</v>
-      </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N263">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="O263">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
-        <v>7.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q263">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645806</v>
+        <v>7645804</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G264" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K264">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N264">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P264">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q264">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R264">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V264">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z264">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC264">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645807</v>
+        <v>7645806</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G265" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>49</v>
+      </c>
+      <c r="K265">
+        <v>3.2</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>1.909</v>
+      </c>
+      <c r="N265">
+        <v>3.1</v>
+      </c>
+      <c r="O265">
+        <v>3.6</v>
+      </c>
+      <c r="P265">
         <v>2</v>
       </c>
-      <c r="I265">
-        <v>1</v>
-      </c>
-      <c r="J265" t="s">
-        <v>48</v>
-      </c>
-      <c r="K265">
-        <v>4.333</v>
-      </c>
-      <c r="L265">
-        <v>4</v>
-      </c>
-      <c r="M265">
-        <v>1.571</v>
-      </c>
-      <c r="N265">
-        <v>7</v>
-      </c>
-      <c r="O265">
-        <v>4.2</v>
-      </c>
-      <c r="P265">
-        <v>1.363</v>
-      </c>
       <c r="Q265">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S265">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U265">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -26699,7 +26699,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7645735</v>
+        <v>7811117</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26708,43 +26708,52 @@
         <v>28</v>
       </c>
       <c r="E295" s="2">
-        <v>45401.91666666666</v>
+        <v>45401</v>
       </c>
       <c r="F295" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G295" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295" t="s">
+        <v>48</v>
       </c>
       <c r="K295">
-        <v>12</v>
+        <v>1.4</v>
       </c>
       <c r="L295">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="M295">
-        <v>1.142</v>
+        <v>5.5</v>
       </c>
       <c r="N295">
-        <v>12</v>
+        <v>1.111</v>
       </c>
       <c r="O295">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="P295">
-        <v>1.142</v>
+        <v>19</v>
       </c>
       <c r="Q295">
-        <v>2.5</v>
+        <v>-2</v>
       </c>
       <c r="R295">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S295">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T295">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U295">
         <v>1.9</v>
@@ -26753,19 +26762,25 @@
         <v>1.9</v>
       </c>
       <c r="W295">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="X295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB295">
+        <v>-1</v>
+      </c>
+      <c r="AC295">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC295"/>
+  <dimension ref="A1:AC297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6830649</v>
+        <v>6830648</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,10 +4639,10 @@
         <v>45151.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,61 +4654,61 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
+        <v>1.333</v>
+      </c>
+      <c r="Q47">
+        <v>1.5</v>
+      </c>
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6830648</v>
+        <v>6830649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,10 +4728,10 @@
         <v>45151.625</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4743,61 +4743,61 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6830712</v>
+        <v>6830711</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,49 +10157,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109">
-        <v>1.181</v>
-      </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10208,19 +10208,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6830711</v>
+        <v>6830712</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,49 +10246,49 @@
         <v>45201.91666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110">
+        <v>1.181</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.1</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.5</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
       </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10297,19 +10297,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <v>23</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>1.03</v>
+      </c>
+      <c r="N149">
+        <v>29</v>
+      </c>
+      <c r="O149">
+        <v>12</v>
+      </c>
+      <c r="P149">
+        <v>1.055</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149">
-        <v>2.1</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>1.7</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.75</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.1</v>
+      </c>
+      <c r="L150">
+        <v>3.5</v>
+      </c>
+      <c r="M150">
+        <v>2.875</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>23</v>
-      </c>
-      <c r="L150">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>1.03</v>
-      </c>
-      <c r="N150">
-        <v>29</v>
-      </c>
-      <c r="O150">
-        <v>12</v>
-      </c>
-      <c r="P150">
-        <v>1.055</v>
-      </c>
-      <c r="Q150">
-        <v>3</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>4</v>
-      </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645713</v>
+        <v>7645712</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,73 +20837,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I229">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M229">
-        <v>1.166</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>5.25</v>
+        <v>1.03</v>
       </c>
       <c r="O229">
+        <v>17</v>
+      </c>
+      <c r="P229">
+        <v>41</v>
+      </c>
+      <c r="Q229">
+        <v>-3.75</v>
+      </c>
+      <c r="R229">
+        <v>1.775</v>
+      </c>
+      <c r="S229">
+        <v>1.925</v>
+      </c>
+      <c r="T229">
         <v>4.75</v>
       </c>
-      <c r="P229">
-        <v>1.4</v>
-      </c>
-      <c r="Q229">
-        <v>1.25</v>
-      </c>
-      <c r="R229">
-        <v>1.925</v>
-      </c>
-      <c r="S229">
-        <v>1.875</v>
-      </c>
-      <c r="T229">
-        <v>3</v>
-      </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645712</v>
+        <v>7645713</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,73 +20926,73 @@
         <v>45331.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="L230">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>13</v>
+        <v>1.166</v>
       </c>
       <c r="N230">
-        <v>1.03</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="Q230">
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,55 +21104,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L232">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N232">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P232">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q232">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V232">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC232">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,56 +21193,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L233">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M233">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N233">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P233">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U233">
+        <v>1.925</v>
+      </c>
+      <c r="V233">
         <v>1.775</v>
       </c>
-      <c r="V233">
-        <v>2.025</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
+        <v>0.5</v>
+      </c>
+      <c r="AC245">
         <v>-0.5</v>
-      </c>
-      <c r="AC245">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P246">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645807</v>
+        <v>7645804</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
         <v>2</v>
       </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="N263">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>1.363</v>
+        <v>7.5</v>
       </c>
       <c r="Q263">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
+        <v>1.925</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
+        <v>3</v>
+      </c>
+      <c r="U263">
         <v>1.75</v>
       </c>
-      <c r="S263">
-        <v>1.95</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.8</v>
-      </c>
       <c r="V263">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W263">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z263">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645804</v>
+        <v>7645807</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,76 +23952,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H264">
+        <v>2</v>
+      </c>
+      <c r="I264">
         <v>1</v>
       </c>
-      <c r="I264">
-        <v>2</v>
-      </c>
       <c r="J264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K264">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="L264">
         <v>4</v>
       </c>
       <c r="M264">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N264">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="O264">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
-        <v>7.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q264">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R264">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S264">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T264">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V264">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA264">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -26781,6 +26781,154 @@
       </c>
       <c r="AC295">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>7645829</v>
+      </c>
+      <c r="C296" t="s">
+        <v>28</v>
+      </c>
+      <c r="D296" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45403.625</v>
+      </c>
+      <c r="F296" t="s">
+        <v>45</v>
+      </c>
+      <c r="G296" t="s">
+        <v>38</v>
+      </c>
+      <c r="K296">
+        <v>3.4</v>
+      </c>
+      <c r="L296">
+        <v>3.75</v>
+      </c>
+      <c r="M296">
+        <v>1.8</v>
+      </c>
+      <c r="N296">
+        <v>4.75</v>
+      </c>
+      <c r="O296">
+        <v>4.2</v>
+      </c>
+      <c r="P296">
+        <v>1.5</v>
+      </c>
+      <c r="Q296">
+        <v>1</v>
+      </c>
+      <c r="R296">
+        <v>1.9</v>
+      </c>
+      <c r="S296">
+        <v>1.9</v>
+      </c>
+      <c r="T296">
+        <v>3</v>
+      </c>
+      <c r="U296">
+        <v>1.925</v>
+      </c>
+      <c r="V296">
+        <v>1.875</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>0</v>
+      </c>
+      <c r="Z296">
+        <v>0</v>
+      </c>
+      <c r="AA296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>7645830</v>
+      </c>
+      <c r="C297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D297" t="s">
+        <v>28</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45403.79166666666</v>
+      </c>
+      <c r="F297" t="s">
+        <v>29</v>
+      </c>
+      <c r="G297" t="s">
+        <v>41</v>
+      </c>
+      <c r="K297">
+        <v>1.727</v>
+      </c>
+      <c r="L297">
+        <v>3.6</v>
+      </c>
+      <c r="M297">
+        <v>4</v>
+      </c>
+      <c r="N297">
+        <v>2.1</v>
+      </c>
+      <c r="O297">
+        <v>3.5</v>
+      </c>
+      <c r="P297">
+        <v>2.8</v>
+      </c>
+      <c r="Q297">
+        <v>-0.25</v>
+      </c>
+      <c r="R297">
+        <v>1.95</v>
+      </c>
+      <c r="S297">
+        <v>1.85</v>
+      </c>
+      <c r="T297">
+        <v>3</v>
+      </c>
+      <c r="U297">
+        <v>1.875</v>
+      </c>
+      <c r="V297">
+        <v>1.925</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>0</v>
+      </c>
+      <c r="Z297">
+        <v>0</v>
+      </c>
+      <c r="AA297">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC297"/>
+  <dimension ref="A1:AC299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45137.625</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="Q28">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
         <v>1.95</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45137.625</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P29">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
         <v>1.95</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6830735</v>
+        <v>6830736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,40 +12308,40 @@
         <v>47</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N133">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="Q133">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6830736</v>
+        <v>6830735</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,10 +12382,10 @@
         <v>45214.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12397,40 +12397,40 @@
         <v>47</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M134">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O134">
+        <v>6.5</v>
+      </c>
+      <c r="P134">
+        <v>1.142</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.75</v>
       </c>
-      <c r="P134">
-        <v>1.666</v>
-      </c>
-      <c r="Q134">
-        <v>0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.875</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>23</v>
-      </c>
-      <c r="L149">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>1.03</v>
-      </c>
-      <c r="N149">
-        <v>29</v>
-      </c>
-      <c r="O149">
-        <v>12</v>
-      </c>
-      <c r="P149">
-        <v>1.055</v>
-      </c>
-      <c r="Q149">
-        <v>3</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>4</v>
-      </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>1.03</v>
+      </c>
+      <c r="N150">
+        <v>29</v>
+      </c>
+      <c r="O150">
+        <v>12</v>
+      </c>
+      <c r="P150">
+        <v>1.055</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.1</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>2.875</v>
-      </c>
-      <c r="N150">
-        <v>1.7</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4</v>
-      </c>
-      <c r="Q150">
-        <v>-0.75</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.75</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7645783</v>
+        <v>7645782</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,56 +21104,56 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M232">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N232">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P232">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U232">
+        <v>1.925</v>
+      </c>
+      <c r="V232">
         <v>1.775</v>
       </c>
-      <c r="V232">
-        <v>2.025</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
@@ -21161,19 +21161,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7645782</v>
+        <v>7645783</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,55 +21193,55 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>47</v>
       </c>
       <c r="K233">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L233">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N233">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V233">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21250,19 +21250,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,10 +22261,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22276,43 +22276,43 @@
         <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22321,16 +22321,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,10 +22350,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22365,43 +22365,43 @@
         <v>48</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22410,16 +22410,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
+        <v>0.5</v>
+      </c>
+      <c r="AC246">
         <v>-0.5</v>
-      </c>
-      <c r="AC246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -24563,7 +24563,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7645812</v>
+        <v>7645809</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24575,76 +24575,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>49</v>
+      </c>
+      <c r="K271">
+        <v>4.75</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271">
+        <v>1.533</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
+        <v>3.75</v>
+      </c>
+      <c r="P271">
+        <v>1.571</v>
+      </c>
+      <c r="Q271">
         <v>1</v>
       </c>
-      <c r="J271" t="s">
-        <v>47</v>
-      </c>
-      <c r="K271">
-        <v>6.5</v>
-      </c>
-      <c r="L271">
-        <v>5</v>
-      </c>
-      <c r="M271">
-        <v>1.333</v>
-      </c>
-      <c r="N271">
-        <v>6.5</v>
-      </c>
-      <c r="O271">
-        <v>5</v>
-      </c>
-      <c r="P271">
-        <v>1.3</v>
-      </c>
-      <c r="Q271">
-        <v>1.5</v>
-      </c>
       <c r="R271">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S271">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T271">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y271">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7645809</v>
+        <v>7645812</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,76 +24664,76 @@
         <v>45374.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>47</v>
+      </c>
+      <c r="K272">
+        <v>6.5</v>
+      </c>
+      <c r="L272">
+        <v>5</v>
+      </c>
+      <c r="M272">
+        <v>1.333</v>
+      </c>
+      <c r="N272">
+        <v>6.5</v>
+      </c>
+      <c r="O272">
+        <v>5</v>
+      </c>
+      <c r="P272">
+        <v>1.3</v>
+      </c>
+      <c r="Q272">
+        <v>1.5</v>
+      </c>
+      <c r="R272">
+        <v>1.875</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
+        <v>3.25</v>
+      </c>
+      <c r="U272">
         <v>2</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
-      <c r="J272" t="s">
-        <v>49</v>
-      </c>
-      <c r="K272">
-        <v>4.75</v>
-      </c>
-      <c r="L272">
-        <v>4</v>
-      </c>
-      <c r="M272">
-        <v>1.533</v>
-      </c>
-      <c r="N272">
-        <v>4.75</v>
-      </c>
-      <c r="O272">
-        <v>3.75</v>
-      </c>
-      <c r="P272">
-        <v>1.571</v>
-      </c>
-      <c r="Q272">
-        <v>1</v>
-      </c>
-      <c r="R272">
-        <v>1.775</v>
-      </c>
-      <c r="S272">
-        <v>2.025</v>
-      </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
-        <v>1.95</v>
-      </c>
       <c r="V272">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z272">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7645829</v>
+        <v>7645828</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26797,34 +26797,43 @@
         <v>28</v>
       </c>
       <c r="E296" s="2">
-        <v>45403.625</v>
+        <v>45401.83333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="H296">
+        <v>3</v>
+      </c>
+      <c r="I296">
+        <v>2</v>
+      </c>
+      <c r="J296" t="s">
+        <v>48</v>
       </c>
       <c r="K296">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="L296">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M296">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="N296">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="O296">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P296">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q296">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R296">
         <v>1.9</v>
@@ -26833,28 +26842,34 @@
         <v>1.9</v>
       </c>
       <c r="T296">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U296">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V296">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W296">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA296">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB296">
+        <v>0.75</v>
+      </c>
+      <c r="AC296">
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26862,72 +26877,235 @@
         <v>295</v>
       </c>
       <c r="B297">
+        <v>7645735</v>
+      </c>
+      <c r="C297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D297" t="s">
+        <v>28</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45401.91666666666</v>
+      </c>
+      <c r="F297" t="s">
+        <v>43</v>
+      </c>
+      <c r="G297" t="s">
+        <v>31</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297" t="s">
+        <v>47</v>
+      </c>
+      <c r="K297">
+        <v>12</v>
+      </c>
+      <c r="L297">
+        <v>8</v>
+      </c>
+      <c r="M297">
+        <v>1.142</v>
+      </c>
+      <c r="N297">
+        <v>12</v>
+      </c>
+      <c r="O297">
+        <v>8</v>
+      </c>
+      <c r="P297">
+        <v>1.142</v>
+      </c>
+      <c r="Q297">
+        <v>2.5</v>
+      </c>
+      <c r="R297">
+        <v>1.9</v>
+      </c>
+      <c r="S297">
+        <v>1.9</v>
+      </c>
+      <c r="T297">
+        <v>4.25</v>
+      </c>
+      <c r="U297">
+        <v>1.9</v>
+      </c>
+      <c r="V297">
+        <v>1.9</v>
+      </c>
+      <c r="W297">
+        <v>-1</v>
+      </c>
+      <c r="X297">
+        <v>-1</v>
+      </c>
+      <c r="Y297">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="Z297">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA297">
+        <v>-1</v>
+      </c>
+      <c r="AB297">
+        <v>-1</v>
+      </c>
+      <c r="AC297">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>7645829</v>
+      </c>
+      <c r="C298" t="s">
+        <v>28</v>
+      </c>
+      <c r="D298" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45403.625</v>
+      </c>
+      <c r="F298" t="s">
+        <v>45</v>
+      </c>
+      <c r="G298" t="s">
+        <v>38</v>
+      </c>
+      <c r="K298">
+        <v>3.4</v>
+      </c>
+      <c r="L298">
+        <v>3.75</v>
+      </c>
+      <c r="M298">
+        <v>1.8</v>
+      </c>
+      <c r="N298">
+        <v>4.75</v>
+      </c>
+      <c r="O298">
+        <v>4.2</v>
+      </c>
+      <c r="P298">
+        <v>1.5</v>
+      </c>
+      <c r="Q298">
+        <v>1</v>
+      </c>
+      <c r="R298">
+        <v>1.9</v>
+      </c>
+      <c r="S298">
+        <v>1.9</v>
+      </c>
+      <c r="T298">
+        <v>3</v>
+      </c>
+      <c r="U298">
+        <v>1.925</v>
+      </c>
+      <c r="V298">
+        <v>1.875</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>0</v>
+      </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
+      <c r="AA298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
         <v>7645830</v>
       </c>
-      <c r="C297" t="s">
-        <v>28</v>
-      </c>
-      <c r="D297" t="s">
-        <v>28</v>
-      </c>
-      <c r="E297" s="2">
+      <c r="C299" t="s">
+        <v>28</v>
+      </c>
+      <c r="D299" t="s">
+        <v>28</v>
+      </c>
+      <c r="E299" s="2">
         <v>45403.79166666666</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F299" t="s">
         <v>29</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G299" t="s">
         <v>41</v>
       </c>
-      <c r="K297">
+      <c r="K299">
         <v>1.727</v>
       </c>
-      <c r="L297">
+      <c r="L299">
         <v>3.6</v>
       </c>
-      <c r="M297">
+      <c r="M299">
         <v>4</v>
       </c>
-      <c r="N297">
+      <c r="N299">
         <v>2.1</v>
       </c>
-      <c r="O297">
+      <c r="O299">
         <v>3.5</v>
       </c>
-      <c r="P297">
+      <c r="P299">
         <v>2.8</v>
       </c>
-      <c r="Q297">
+      <c r="Q299">
         <v>-0.25</v>
       </c>
-      <c r="R297">
+      <c r="R299">
         <v>1.95</v>
       </c>
-      <c r="S297">
+      <c r="S299">
         <v>1.85</v>
       </c>
-      <c r="T297">
+      <c r="T299">
         <v>3</v>
       </c>
-      <c r="U297">
+      <c r="U299">
         <v>1.875</v>
       </c>
-      <c r="V297">
+      <c r="V299">
         <v>1.925</v>
       </c>
-      <c r="W297">
+      <c r="W299">
         <v>0</v>
       </c>
-      <c r="X297">
+      <c r="X299">
         <v>0</v>
       </c>
-      <c r="Y297">
+      <c r="Y299">
         <v>0</v>
       </c>
-      <c r="Z297">
+      <c r="Z299">
         <v>0</v>
       </c>
-      <c r="AA297">
+      <c r="AA299">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
+++ b/Mexico Liga MX Femenil/Mexico Liga MX Femenil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB297"/>
+  <dimension ref="A1:AB300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +685,10 @@
         <v>1.3</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>0.4</v>
@@ -771,10 +771,10 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
         <v>-0.5</v>
@@ -857,10 +857,10 @@
         <v>1.55</v>
       </c>
       <c r="Y4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -943,10 +943,10 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -1115,10 +1115,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1201,10 +1201,10 @@
         <v>0.333</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>0.8999999999999999</v>
@@ -1287,10 +1287,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z9">
-        <v>-1</v>
       </c>
       <c r="AA9">
         <v>0.8999999999999999</v>
@@ -1545,10 +1545,10 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1717,10 +1717,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>0.8999999999999999</v>
@@ -1803,10 +1803,10 @@
         <v>0.333</v>
       </c>
       <c r="Y15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
         <v>-0.5</v>
@@ -1889,10 +1889,10 @@
         <v>0.363</v>
       </c>
       <c r="Y16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>0.8999999999999999</v>
@@ -1975,10 +1975,10 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
         <v>0.8</v>
@@ -2061,10 +2061,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
         <v>0.875</v>
@@ -2147,10 +2147,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0.95</v>
@@ -2319,10 +2319,10 @@
         <v>0.615</v>
       </c>
       <c r="Y21">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA21">
         <v>0.875</v>
@@ -2405,10 +2405,10 @@
         <v>5</v>
       </c>
       <c r="Y22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2491,10 +2491,10 @@
         <v>3</v>
       </c>
       <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2577,10 +2577,10 @@
         <v>0.222</v>
       </c>
       <c r="Y24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2663,10 +2663,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>0.4875</v>
@@ -2749,10 +2749,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z26">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>0.825</v>
@@ -2835,10 +2835,10 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>0.95</v>
@@ -2852,7 +2852,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6830628</v>
+        <v>6830627</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2861,76 +2861,76 @@
         <v>45137.625</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="K28">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="L28">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="M28">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O28">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="P28">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R28">
         <v>1.95</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T28">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U28">
         <v>1.925</v>
       </c>
       <c r="V28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2938,7 +2938,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6830627</v>
+        <v>6830628</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2947,76 +2947,76 @@
         <v>45137.625</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J29">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="K29">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="N29">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O29">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="P29">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q29">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R29">
         <v>1.95</v>
       </c>
       <c r="S29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T29">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U29">
         <v>1.925</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3093,10 +3093,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3179,10 +3179,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3265,10 +3265,10 @@
         <v>1.15</v>
       </c>
       <c r="Y32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3351,10 +3351,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z33">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA33">
         <v>0.475</v>
@@ -3437,10 +3437,10 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3609,10 +3609,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>0.925</v>
@@ -3695,10 +3695,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3867,10 +3867,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>0.8999999999999999</v>
@@ -3953,10 +3953,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y40">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4039,10 +4039,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA41">
         <v>1</v>
@@ -4125,10 +4125,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.9750000000000001</v>
@@ -4211,10 +4211,10 @@
         <v>1.1</v>
       </c>
       <c r="Y43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>0.825</v>
@@ -4297,10 +4297,10 @@
         <v>0.363</v>
       </c>
       <c r="Y44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -4383,10 +4383,10 @@
         <v>0.222</v>
       </c>
       <c r="Y45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
         <v>-0.5</v>
@@ -4469,10 +4469,10 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z46">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
         <v>0.925</v>
@@ -4727,10 +4727,10 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
         <v>0.9750000000000001</v>
@@ -4813,10 +4813,10 @@
         <v>0.2</v>
       </c>
       <c r="Y50">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
         <v>0.8500000000000001</v>
@@ -4899,10 +4899,10 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
@@ -4985,10 +4985,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.45</v>
@@ -5071,10 +5071,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>0.825</v>
@@ -5174,7 +5174,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6830656</v>
+        <v>6830657</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5183,67 +5183,67 @@
         <v>45156.00694444445</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55">
+        <v>2.375</v>
+      </c>
+      <c r="K55">
+        <v>3.4</v>
+      </c>
+      <c r="L55">
+        <v>2.5</v>
+      </c>
+      <c r="M55">
+        <v>2.15</v>
+      </c>
+      <c r="N55">
         <v>3.5</v>
       </c>
-      <c r="K55">
-        <v>3.5</v>
-      </c>
-      <c r="L55">
-        <v>1.833</v>
-      </c>
-      <c r="M55">
-        <v>4.333</v>
-      </c>
-      <c r="N55">
-        <v>3.75</v>
-      </c>
       <c r="O55">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
         <v>2.75</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z55">
         <v>-1</v>
@@ -5252,7 +5252,7 @@
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5260,7 +5260,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6830657</v>
+        <v>6830656</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5269,76 +5269,76 @@
         <v>45156.00694444445</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J56">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="K56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L56">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="M56">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="P56">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
         <v>2.75</v>
       </c>
       <c r="T56">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5415,10 +5415,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>0.45</v>
@@ -5587,10 +5587,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>-0.5</v>
@@ -5673,10 +5673,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
         <v>0.875</v>
@@ -5759,10 +5759,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA61">
         <v>0.8999999999999999</v>
@@ -5845,10 +5845,10 @@
         <v>0.5</v>
       </c>
       <c r="Y62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -6103,10 +6103,10 @@
         <v>0.04499999999999993</v>
       </c>
       <c r="Y65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA65">
         <v>0.8999999999999999</v>
@@ -6533,10 +6533,10 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
         <v>0.8500000000000001</v>
@@ -6550,7 +6550,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6830675</v>
+        <v>6830674</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -6559,76 +6559,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J71">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="K71">
         <v>5</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="M71">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="N71">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="P71">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6636,7 +6636,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6830674</v>
+        <v>6830675</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -6645,76 +6645,76 @@
         <v>45165.83333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J72">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="K72">
         <v>5</v>
       </c>
       <c r="L72">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="M72">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="N72">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="O72">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="P72">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W72">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6791,10 +6791,10 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -6877,10 +6877,10 @@
         <v>0.444</v>
       </c>
       <c r="Y74">
+        <v>-1</v>
+      </c>
+      <c r="Z74">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z74">
-        <v>-1</v>
       </c>
       <c r="AA74">
         <v>-0.5</v>
@@ -7049,10 +7049,10 @@
         <v>2</v>
       </c>
       <c r="Y76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
         <v>0.425</v>
@@ -7135,10 +7135,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
         <v>0.425</v>
@@ -7221,10 +7221,10 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7565,10 +7565,10 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>0.8999999999999999</v>
@@ -7737,10 +7737,10 @@
         <v>2.75</v>
       </c>
       <c r="Y84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
         <v>0.8999999999999999</v>
@@ -7823,10 +7823,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z85">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
         <v>0</v>
@@ -7909,10 +7909,10 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
         <v>0.8</v>
@@ -7995,10 +7995,10 @@
         <v>0.1419999999999999</v>
       </c>
       <c r="Y87">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
         <v>-1</v>
@@ -8081,10 +8081,10 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA88">
         <v>-1</v>
@@ -8253,10 +8253,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
         <v>0.75</v>
@@ -8339,10 +8339,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8511,10 +8511,10 @@
         <v>0.1419999999999999</v>
       </c>
       <c r="Y93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
         <v>0.8500000000000001</v>
@@ -8597,10 +8597,10 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
         <v>-0.5</v>
@@ -8769,10 +8769,10 @@
         <v>0.2</v>
       </c>
       <c r="Y96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>0.925</v>
@@ -8941,10 +8941,10 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
         <v>0.75</v>
@@ -9027,10 +9027,10 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
         <v>-1</v>
@@ -9113,10 +9113,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA100">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6830703</v>
+        <v>7163155</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9139,61 +9139,61 @@
         <v>45186.92083333333</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J101">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M101">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="N101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
         <v>3.25</v>
       </c>
       <c r="T101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9202,13 +9202,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9216,7 +9216,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7163155</v>
+        <v>6830703</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9225,76 +9225,76 @@
         <v>45186.92083333333</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J102">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="N102">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
         <v>3.25</v>
       </c>
       <c r="T102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9457,10 +9457,10 @@
         <v>0.1419999999999999</v>
       </c>
       <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z104">
-        <v>-1</v>
       </c>
       <c r="AA104">
         <v>0.8999999999999999</v>
@@ -9543,10 +9543,10 @@
         <v>1.875</v>
       </c>
       <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z105">
-        <v>-1</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9629,10 +9629,10 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
         <v>0.3875</v>
@@ -9715,10 +9715,10 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
         <v>0.925</v>
@@ -9887,10 +9887,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -9973,10 +9973,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA110">
         <v>-1</v>
@@ -10059,10 +10059,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z111">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA111">
         <v>0</v>
@@ -10231,10 +10231,10 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10317,10 +10317,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>0</v>
@@ -10403,10 +10403,10 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
         <v>0.95</v>
@@ -10575,10 +10575,10 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z117">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
         <v>0.875</v>
@@ -10833,10 +10833,10 @@
         <v>0.55</v>
       </c>
       <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z120">
-        <v>-1</v>
       </c>
       <c r="AA120">
         <v>0.925</v>
@@ -10919,10 +10919,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z121">
-        <v>-1</v>
       </c>
       <c r="AA121">
         <v>0.8</v>
@@ -11005,10 +11005,10 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
         <v>0.825</v>
@@ -11091,10 +11091,10 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z123">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA123">
         <v>0.825</v>
@@ -11263,10 +11263,10 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
         <v>1</v>
@@ -11349,10 +11349,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z126">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
         <v>-0.5</v>
@@ -11521,10 +11521,10 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
         <v>-1</v>
@@ -11693,10 +11693,10 @@
         <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA130">
         <v>0.875</v>
@@ -11710,7 +11710,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6830732</v>
+        <v>6830733</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
@@ -11719,13 +11719,13 @@
         <v>45214.625</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>6</v>
@@ -11734,40 +11734,40 @@
         <v>46</v>
       </c>
       <c r="J131">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="K131">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>1.062</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>34</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="O131">
-        <v>1.833</v>
+        <v>1.045</v>
       </c>
       <c r="P131">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="T131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
         <v>-1</v>
@@ -11776,16 +11776,16 @@
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>0.833</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Y131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
         <v>-1</v>
@@ -11796,7 +11796,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6830733</v>
+        <v>6830732</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
@@ -11805,13 +11805,13 @@
         <v>45214.625</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132">
         <v>6</v>
@@ -11820,40 +11820,40 @@
         <v>46</v>
       </c>
       <c r="J132">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="K132">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="L132">
-        <v>1.062</v>
+        <v>2</v>
       </c>
       <c r="M132">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="N132">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="O132">
-        <v>1.045</v>
+        <v>1.833</v>
       </c>
       <c r="P132">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
         <v>-1</v>
@@ -11862,16 +11862,16 @@
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>0.04499999999999993</v>
+        <v>0.833</v>
       </c>
       <c r="Y132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
         <v>-1</v>
@@ -11951,10 +11951,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y133">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -12123,10 +12123,10 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z135">
-        <v>0.675</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
         <v>-0.5</v>
@@ -12381,10 +12381,10 @@
         <v>1.8</v>
       </c>
       <c r="Y138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
         <v>-1</v>
@@ -12467,10 +12467,10 @@
         <v>0.222</v>
       </c>
       <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z139">
-        <v>-1</v>
       </c>
       <c r="AA139">
         <v>0.8999999999999999</v>
@@ -12553,10 +12553,10 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z140">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA140">
         <v>0.925</v>
@@ -12725,10 +12725,10 @@
         <v>3</v>
       </c>
       <c r="Y142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA142">
         <v>0.7749999999999999</v>
@@ -12897,10 +12897,10 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
         <v>0</v>
@@ -12983,10 +12983,10 @@
         <v>1.1</v>
       </c>
       <c r="Y145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
         <v>0.8</v>
@@ -13155,10 +13155,10 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
         <v>0.8</v>
@@ -13241,10 +13241,10 @@
         <v>3</v>
       </c>
       <c r="Y148">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13258,7 +13258,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6830751</v>
+        <v>6830750</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13267,76 +13267,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149" t="s">
+        <v>46</v>
+      </c>
+      <c r="J149">
+        <v>23</v>
+      </c>
+      <c r="K149">
+        <v>13</v>
+      </c>
+      <c r="L149">
+        <v>1.03</v>
+      </c>
+      <c r="M149">
+        <v>29</v>
+      </c>
+      <c r="N149">
+        <v>12</v>
+      </c>
+      <c r="O149">
+        <v>1.055</v>
+      </c>
+      <c r="P149">
+        <v>3</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.85</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
+        <v>-1</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="Y149">
         <v>1</v>
       </c>
-      <c r="I149" t="s">
-        <v>48</v>
-      </c>
-      <c r="J149">
-        <v>2.1</v>
-      </c>
-      <c r="K149">
-        <v>3.5</v>
-      </c>
-      <c r="L149">
-        <v>2.875</v>
-      </c>
-      <c r="M149">
-        <v>1.7</v>
-      </c>
-      <c r="N149">
-        <v>3.75</v>
-      </c>
-      <c r="O149">
-        <v>4</v>
-      </c>
-      <c r="P149">
-        <v>-0.75</v>
-      </c>
-      <c r="Q149">
-        <v>1.95</v>
-      </c>
-      <c r="R149">
-        <v>1.85</v>
-      </c>
-      <c r="S149">
-        <v>3</v>
-      </c>
-      <c r="T149">
-        <v>1.925</v>
-      </c>
-      <c r="U149">
-        <v>1.875</v>
-      </c>
-      <c r="V149">
-        <v>-1</v>
-      </c>
-      <c r="W149">
-        <v>2.75</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13344,7 +13344,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6830750</v>
+        <v>6830751</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -13353,76 +13353,76 @@
         <v>45233.83333333334</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>48</v>
+      </c>
+      <c r="J150">
+        <v>2.1</v>
+      </c>
+      <c r="K150">
+        <v>3.5</v>
+      </c>
+      <c r="L150">
+        <v>2.875</v>
+      </c>
+      <c r="M150">
+        <v>1.7</v>
+      </c>
+      <c r="N150">
+        <v>3.75</v>
+      </c>
+      <c r="O150">
+        <v>4</v>
+      </c>
+      <c r="P150">
+        <v>-0.75</v>
+      </c>
+      <c r="Q150">
+        <v>1.95</v>
+      </c>
+      <c r="R150">
+        <v>1.85</v>
+      </c>
+      <c r="S150">
         <v>3</v>
       </c>
-      <c r="I150" t="s">
-        <v>46</v>
-      </c>
-      <c r="J150">
-        <v>23</v>
-      </c>
-      <c r="K150">
-        <v>13</v>
-      </c>
-      <c r="L150">
-        <v>1.03</v>
-      </c>
-      <c r="M150">
-        <v>29</v>
-      </c>
-      <c r="N150">
-        <v>12</v>
-      </c>
-      <c r="O150">
-        <v>1.055</v>
-      </c>
-      <c r="P150">
-        <v>3</v>
-      </c>
-      <c r="Q150">
-        <v>2</v>
-      </c>
-      <c r="R150">
-        <v>1.8</v>
-      </c>
-      <c r="S150">
-        <v>4</v>
-      </c>
       <c r="T150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
         <v>-1</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X150">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13499,10 +13499,10 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
         <v>-1</v>
@@ -13585,10 +13585,10 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
         <v>0</v>
@@ -13671,10 +13671,10 @@
         <v>1.9</v>
       </c>
       <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
       </c>
       <c r="AA153">
         <v>-1</v>
@@ -13757,10 +13757,10 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
         <v>0.8</v>
@@ -13843,10 +13843,10 @@
         <v>0.5</v>
       </c>
       <c r="Y155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
         <v>0.8500000000000001</v>
@@ -13929,10 +13929,10 @@
         <v>0.7</v>
       </c>
       <c r="Y156">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA156">
         <v>-1</v>
@@ -14101,10 +14101,10 @@
         <v>0.6499999999999999</v>
       </c>
       <c r="Y158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA158">
         <v>0</v>
@@ -14187,10 +14187,10 @@
         <v>0.571</v>
       </c>
       <c r="Y159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA159">
         <v>0.8500000000000001</v>
@@ -14273,10 +14273,10 @@
         <v>0.8</v>
       </c>
       <c r="Y160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA160">
         <v>0</v>
@@ -14359,10 +14359,10 @@
         <v>0.6499999999999999</v>
       </c>
       <c r="Y161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA161">
         <v>0.925</v>
@@ -14703,10 +14703,10 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z165">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
         <v>0.95</v>
@@ -14961,10 +14961,10 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z168">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA168">
         <v>-0.5</v>
@@ -15047,10 +15047,10 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
         <v>-1</v>
@@ -15133,10 +15133,10 @@
         <v>3.5</v>
       </c>
       <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z170">
-        <v>-1</v>
       </c>
       <c r="AA170">
         <v>0.8</v>
@@ -15391,10 +15391,10 @@
         <v>0.1419999999999999</v>
       </c>
       <c r="Y173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA173">
         <v>0.8999999999999999</v>
@@ -15563,10 +15563,10 @@
         <v>4.75</v>
       </c>
       <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z175">
-        <v>-1</v>
       </c>
       <c r="AA175">
         <v>-1</v>
@@ -15735,10 +15735,10 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -15907,10 +15907,10 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
         <v>0.8999999999999999</v>
@@ -15993,10 +15993,10 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
         <v>0.95</v>
@@ -16251,10 +16251,10 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
         <v>0.8</v>
@@ -16337,10 +16337,10 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
         <v>0</v>
@@ -16509,10 +16509,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA186">
         <v>0.825</v>
@@ -16767,10 +16767,10 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
         <v>-1</v>
@@ -17025,10 +17025,10 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
         <v>0.825</v>
@@ -17111,10 +17111,10 @@
         <v>1.8</v>
       </c>
       <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z193">
-        <v>-1</v>
       </c>
       <c r="AA193">
         <v>0</v>
@@ -17197,10 +17197,10 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
         <v>0.4625</v>
@@ -17283,10 +17283,10 @@
         <v>1.05</v>
       </c>
       <c r="Y195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA195">
         <v>-1</v>
@@ -17455,10 +17455,10 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
         <v>0.9750000000000001</v>
@@ -17541,10 +17541,10 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
         <v>0.9750000000000001</v>
@@ -17627,10 +17627,10 @@
         <v>0.1419999999999999</v>
       </c>
       <c r="Y199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA199">
         <v>0.95</v>
@@ -17713,10 +17713,10 @@
         <v>0.45</v>
       </c>
       <c r="Y200">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA200">
         <v>0.8</v>
@@ -17799,10 +17799,10 @@
         <v>2.4</v>
       </c>
       <c r="Y201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA201">
         <v>0.9750000000000001</v>
@@ -17885,10 +17885,10 @@
         <v>0.3</v>
       </c>
       <c r="Y202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA202">
         <v>0.375</v>
@@ -18143,10 +18143,10 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="Y205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
         <v>0.8999999999999999</v>
@@ -18229,10 +18229,10 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
         <v>0.4125</v>
@@ -18315,10 +18315,10 @@
         <v>0.02499999999999991</v>
       </c>
       <c r="Y207">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA207">
         <v>0</v>
@@ -18573,10 +18573,10 @@
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
         <v>0.8500000000000001</v>
@@ -18659,10 +18659,10 @@
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
         <v>0.825</v>
@@ -18831,10 +18831,10 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
         <v>0.8999999999999999</v>
@@ -18917,10 +18917,10 @@
         <v>0.833</v>
       </c>
       <c r="Y214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA214">
         <v>-0.5</v>
@@ -19003,10 +19003,10 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA215">
         <v>-1</v>
@@ -19089,10 +19089,10 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
         <v>0.8</v>
@@ -19347,10 +19347,10 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z219">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
         <v>0.75</v>
@@ -19605,10 +19605,10 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
         <v>0.8</v>
@@ -19691,10 +19691,10 @@
         <v>0.7</v>
       </c>
       <c r="Y223">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA223">
         <v>-1</v>
@@ -19949,10 +19949,10 @@
         <v>0.1419999999999999</v>
       </c>
       <c r="Y226">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA226">
         <v>0.825</v>
@@ -20035,10 +20035,10 @@
         <v>1.25</v>
       </c>
       <c r="Y227">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA227">
         <v>1</v>
@@ -20138,7 +20138,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7645781</v>
+        <v>7645713</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -20147,49 +20147,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="E229" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I229" t="s">
         <v>46</v>
       </c>
       <c r="J229">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="K229">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L229">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="M229">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="N229">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O229">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="P229">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R229">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T229">
         <v>1.75</v>
@@ -20204,13 +20204,13 @@
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA229">
         <v>0.75</v>
@@ -20224,7 +20224,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7645713</v>
+        <v>7645781</v>
       </c>
       <c r="C230" t="s">
         <v>27</v>
@@ -20233,49 +20233,49 @@
         <v>45331.83333333334</v>
       </c>
       <c r="E230" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H230">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I230" t="s">
         <v>46</v>
       </c>
       <c r="J230">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="K230">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L230">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="M230">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="N230">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O230">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="P230">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T230">
         <v>1.75</v>
@@ -20290,13 +20290,13 @@
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Y230">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA230">
         <v>0.75</v>
@@ -20379,10 +20379,10 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z231">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
         <v>0.8999999999999999</v>
@@ -20551,10 +20551,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y233">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA233">
         <v>0.7749999999999999</v>
@@ -20637,10 +20637,10 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z234">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA234">
         <v>-1</v>
@@ -20723,10 +20723,10 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z235">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
         <v>0</v>
@@ -20809,10 +20809,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA236">
         <v>0.8999999999999999</v>
@@ -20895,10 +20895,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z237">
-        <v>-1</v>
       </c>
       <c r="AA237">
         <v>1</v>
@@ -21067,10 +21067,10 @@
         <v>0.909</v>
       </c>
       <c r="Y239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA239">
         <v>-1</v>
@@ -21153,10 +21153,10 @@
         <v>5</v>
       </c>
       <c r="Y240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>0</v>
@@ -21325,10 +21325,10 @@
         <v>0.0149999999999999</v>
       </c>
       <c r="Y242">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA242">
         <v>-1</v>
@@ -21411,10 +21411,10 @@
         <v>0.571</v>
       </c>
       <c r="Y243">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA243">
         <v>-1</v>
@@ -21497,10 +21497,10 @@
         <v>4.25</v>
       </c>
       <c r="Y244">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA244">
         <v>0.9750000000000001</v>
@@ -21514,7 +21514,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7645793</v>
+        <v>7645794</v>
       </c>
       <c r="C245" t="s">
         <v>27</v>
@@ -21523,10 +21523,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G245">
         <v>3</v>
@@ -21538,43 +21538,43 @@
         <v>47</v>
       </c>
       <c r="J245">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="K245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L245">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="M245">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="N245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O245">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="P245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U245">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V245">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="W245">
         <v>-1</v>
@@ -21583,16 +21583,16 @@
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z245">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AB245">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:28">
@@ -21600,7 +21600,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7645794</v>
+        <v>7645793</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
@@ -21609,10 +21609,10 @@
         <v>45355.83333333334</v>
       </c>
       <c r="E246" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F246" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -21624,43 +21624,43 @@
         <v>47</v>
       </c>
       <c r="J246">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="K246">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L246">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="N246">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O246">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="P246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S246">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T246">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U246">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V246">
-        <v>4.75</v>
+        <v>1.1</v>
       </c>
       <c r="W246">
         <v>-1</v>
@@ -21669,16 +21669,16 @@
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z246">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
+        <v>0.5</v>
+      </c>
+      <c r="AB246">
         <v>-0.5</v>
-      </c>
-      <c r="AB246">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -21755,10 +21755,10 @@
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z247">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA247">
         <v>-1</v>
@@ -21772,7 +21772,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7645796</v>
+        <v>7645719</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -21781,13 +21781,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="E248" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -21796,43 +21796,43 @@
         <v>47</v>
       </c>
       <c r="J248">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="K248">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L248">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M248">
-        <v>1.062</v>
+        <v>1.01</v>
       </c>
       <c r="N248">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="O248">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="P248">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="Q248">
+        <v>1.775</v>
+      </c>
+      <c r="R248">
+        <v>1.925</v>
+      </c>
+      <c r="S248">
+        <v>5.75</v>
+      </c>
+      <c r="T248">
         <v>1.85</v>
       </c>
-      <c r="R248">
+      <c r="U248">
         <v>1.95</v>
       </c>
-      <c r="S248">
-        <v>4</v>
-      </c>
-      <c r="T248">
-        <v>1.8</v>
-      </c>
-      <c r="U248">
-        <v>2</v>
-      </c>
       <c r="V248">
-        <v>0.06200000000000006</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="W248">
         <v>-1</v>
@@ -21841,16 +21841,16 @@
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AB248">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21858,7 +21858,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7645719</v>
+        <v>7645796</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -21867,13 +21867,13 @@
         <v>45356.00694444445</v>
       </c>
       <c r="E249" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G249">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -21882,43 +21882,43 @@
         <v>47</v>
       </c>
       <c r="J249">
-        <v>1.025</v>
+        <v>1.055</v>
       </c>
       <c r="K249">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L249">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M249">
-        <v>1.01</v>
+        <v>1.062</v>
       </c>
       <c r="N249">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="O249">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="P249">
-        <v>-4.75</v>
+        <v>-3</v>
       </c>
       <c r="Q249">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S249">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="T249">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V249">
-        <v>0.01000000000000001</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -21927,16 +21927,16 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z249">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AB249">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -22013,10 +22013,10 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z250">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA250">
         <v>0.8999999999999999</v>
@@ -22030,7 +22030,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7926076</v>
+        <v>7645798</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22039,56 +22039,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="E251" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I251" t="s">
         <v>46</v>
       </c>
       <c r="J251">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K251">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L251">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="M251">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O251">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="P251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R251">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
         <v>3</v>
       </c>
       <c r="T251">
+        <v>1.825</v>
+      </c>
+      <c r="U251">
         <v>1.975</v>
       </c>
-      <c r="U251">
-        <v>1.825</v>
-      </c>
       <c r="V251">
         <v>-1</v>
       </c>
@@ -22096,19 +22096,19 @@
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Y251">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA251">
+        <v>-1</v>
+      </c>
+      <c r="AB251">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22116,7 +22116,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7645798</v>
+        <v>7926076</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -22125,56 +22125,56 @@
         <v>45359.83333333334</v>
       </c>
       <c r="E252" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I252" t="s">
         <v>46</v>
       </c>
       <c r="J252">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="K252">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="M252">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O252">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="P252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q252">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R252">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S252">
         <v>3</v>
       </c>
       <c r="T252">
+        <v>1.975</v>
+      </c>
+      <c r="U252">
         <v>1.825</v>
       </c>
-      <c r="U252">
-        <v>1.975</v>
-      </c>
       <c r="V252">
         <v>-1</v>
       </c>
@@ -22182,19 +22182,19 @@
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y252">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22357,10 +22357,10 @@
         <v>0.7</v>
       </c>
       <c r="Y254">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA254">
         <v>0.9750000000000001</v>
@@ -22529,10 +22529,10 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z256">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
         <v>0.925</v>
@@ -22615,10 +22615,10 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
         <v>0.8</v>
@@ -22873,10 +22873,10 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z260">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
         <v>0.8500000000000001</v>
@@ -22959,10 +22959,10 @@
         <v>1.6</v>
       </c>
       <c r="Y261">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA261">
         <v>-0.5</v>
@@ -23045,10 +23045,10 @@
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z262">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
         <v>0</v>
@@ -23062,7 +23062,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7645806</v>
+        <v>7645807</v>
       </c>
       <c r="C263" t="s">
         <v>27</v>
@@ -23071,76 +23071,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="E263" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J263">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="K263">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L263">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="M263">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N263">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O263">
+        <v>1.363</v>
+      </c>
+      <c r="P263">
+        <v>1.5</v>
+      </c>
+      <c r="Q263">
+        <v>1.75</v>
+      </c>
+      <c r="R263">
+        <v>1.95</v>
+      </c>
+      <c r="S263">
+        <v>2.75</v>
+      </c>
+      <c r="T263">
+        <v>1.8</v>
+      </c>
+      <c r="U263">
         <v>2</v>
       </c>
-      <c r="P263">
-        <v>0.25</v>
-      </c>
-      <c r="Q263">
-        <v>1.975</v>
-      </c>
-      <c r="R263">
-        <v>1.825</v>
-      </c>
-      <c r="S263">
-        <v>3</v>
-      </c>
-      <c r="T263">
-        <v>1.9</v>
-      </c>
-      <c r="U263">
-        <v>1.9</v>
-      </c>
       <c r="V263">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0.4875</v>
+        <v>0.75</v>
       </c>
       <c r="Z263">
+        <v>-1</v>
+      </c>
+      <c r="AA263">
+        <v>0.4</v>
+      </c>
+      <c r="AB263">
         <v>-0.5</v>
-      </c>
-      <c r="AA263">
-        <v>-1</v>
-      </c>
-      <c r="AB263">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -23148,7 +23148,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7645807</v>
+        <v>7645804</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23157,76 +23157,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
         <v>2</v>
       </c>
-      <c r="H264">
-        <v>1</v>
-      </c>
       <c r="I264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J264">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="K264">
         <v>4</v>
       </c>
       <c r="L264">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="M264">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N264">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O264">
-        <v>1.363</v>
+        <v>7.5</v>
       </c>
       <c r="P264">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q264">
+        <v>1.925</v>
+      </c>
+      <c r="R264">
+        <v>1.875</v>
+      </c>
+      <c r="S264">
+        <v>3</v>
+      </c>
+      <c r="T264">
         <v>1.75</v>
       </c>
-      <c r="R264">
-        <v>1.95</v>
-      </c>
-      <c r="S264">
-        <v>2.75</v>
-      </c>
-      <c r="T264">
-        <v>1.8</v>
-      </c>
       <c r="U264">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V264">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y264">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA264">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB264">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -23234,7 +23234,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7645804</v>
+        <v>7645806</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23243,76 +23243,76 @@
         <v>45369.83333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F265" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265" t="s">
+        <v>48</v>
+      </c>
+      <c r="J265">
+        <v>3.2</v>
+      </c>
+      <c r="K265">
+        <v>3.6</v>
+      </c>
+      <c r="L265">
+        <v>1.909</v>
+      </c>
+      <c r="M265">
+        <v>3.1</v>
+      </c>
+      <c r="N265">
+        <v>3.6</v>
+      </c>
+      <c r="O265">
         <v>2</v>
       </c>
-      <c r="I265" t="s">
-        <v>46</v>
-      </c>
-      <c r="J265">
-        <v>1.666</v>
-      </c>
-      <c r="K265">
-        <v>4</v>
-      </c>
-      <c r="L265">
-        <v>3.8</v>
-      </c>
-      <c r="M265">
-        <v>1.333</v>
-      </c>
-      <c r="N265">
-        <v>4.5</v>
-      </c>
-      <c r="O265">
-        <v>7.5</v>
-      </c>
       <c r="P265">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q265">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R265">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S265">
         <v>3</v>
       </c>
       <c r="T265">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U265">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
         <v>-1</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X265">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z265">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23389,10 +23389,10 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z266">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
         <v>0.8500000000000001</v>
@@ -23561,10 +23561,10 @@
         <v>6.5</v>
       </c>
       <c r="Y268">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA268">
         <v>-1</v>
@@ -23991,10 +23991,10 @@
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z273">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA273">
         <v>-1</v>
@@ -24163,10 +24163,10 @@
         <v>0.333</v>
       </c>
       <c r="Y275">
+        <v>-1</v>
+      </c>
+      <c r="Z275">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z275">
-        <v>-1</v>
       </c>
       <c r="AA275">
         <v>0.75</v>
@@ -24249,10 +24249,10 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z276">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA276">
         <v>-1</v>
@@ -24335,10 +24335,10 @@
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z277">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA277">
         <v>0.8500000000000001</v>
@@ -24421,10 +24421,10 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="Y278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA278">
         <v>0.8</v>
@@ -24593,10 +24593,10 @@
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z280">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
         <v>-1</v>
@@ -24679,10 +24679,10 @@
         <v>0.2</v>
       </c>
       <c r="Y281">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA281">
         <v>0.8500000000000001</v>
@@ -24937,10 +24937,10 @@
         <v>0.125</v>
       </c>
       <c r="Y284">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA284">
         <v>0.9750000000000001</v>
@@ -25109,10 +25109,10 @@
         <v>3.75</v>
       </c>
       <c r="Y286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA286">
         <v>0</v>
@@ -25281,10 +25281,10 @@
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z288">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA288">
         <v>0</v>
@@ -25367,10 +25367,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y289">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA289">
         <v>-0.5</v>
@@ -25453,10 +25453,10 @@
         <v>0.06200000000000006</v>
       </c>
       <c r="Y290">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA290">
         <v>-1</v>
@@ -25539,10 +25539,10 @@
         <v>0.5</v>
       </c>
       <c r="Y291">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA291">
         <v>0.875</v>
@@ -25625,10 +25625,10 @@
         <v>2.6</v>
       </c>
       <c r="Y292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA292">
         <v>0</v>
@@ -25711,10 +25711,10 @@
         <v>0.55</v>
       </c>
       <c r="Y293">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA293">
         <v>-1</v>
@@ -25797,10 +25797,10 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z294">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
         <v>-1</v>
@@ -25969,10 +25969,10 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z296">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
         <v>0.75</v>
@@ -26065,6 +26065,264 @@
       </c>
       <c r="AB297">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:28">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>7645829</v>
+      </c>
+      <c r="C298" t="s">
+        <v>27</v>
+      </c>
+      <c r="D298" s="2">
+        <v>45403.625</v>
+      </c>
+      <c r="E298" t="s">
+        <v>44</v>
+      </c>
+      <c r="F298" t="s">
+        <v>37</v>
+      </c>
+      <c r="G298">
+        <v>3</v>
+      </c>
+      <c r="H298">
+        <v>3</v>
+      </c>
+      <c r="I298" t="s">
+        <v>48</v>
+      </c>
+      <c r="J298">
+        <v>3.4</v>
+      </c>
+      <c r="K298">
+        <v>3.75</v>
+      </c>
+      <c r="L298">
+        <v>1.8</v>
+      </c>
+      <c r="M298">
+        <v>4.5</v>
+      </c>
+      <c r="N298">
+        <v>4</v>
+      </c>
+      <c r="O298">
+        <v>1.55</v>
+      </c>
+      <c r="P298">
+        <v>1</v>
+      </c>
+      <c r="Q298">
+        <v>1.85</v>
+      </c>
+      <c r="R298">
+        <v>1.95</v>
+      </c>
+      <c r="S298">
+        <v>3</v>
+      </c>
+      <c r="T298">
+        <v>1.925</v>
+      </c>
+      <c r="U298">
+        <v>1.875</v>
+      </c>
+      <c r="V298">
+        <v>-1</v>
+      </c>
+      <c r="W298">
+        <v>3</v>
+      </c>
+      <c r="X298">
+        <v>-1</v>
+      </c>
+      <c r="Y298">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z298">
+        <v>-1</v>
+      </c>
+      <c r="AA298">
+        <v>0.925</v>
+      </c>
+      <c r="AB298">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:28">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>7645830</v>
+      </c>
+      <c r="C299" t="s">
+        <v>27</v>
+      </c>
+      <c r="D299" s="2">
+        <v>45403.79166666666</v>
+      </c>
+      <c r="E299" t="s">
+        <v>28</v>
+      </c>
+      <c r="F299" t="s">
+        <v>40</v>
+      </c>
+      <c r="G299">
+        <v>3</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299" t="s">
+        <v>47</v>
+      </c>
+      <c r="J299">
+        <v>1.727</v>
+      </c>
+      <c r="K299">
+        <v>3.6</v>
+      </c>
+      <c r="L299">
+        <v>4</v>
+      </c>
+      <c r="M299">
+        <v>1.909</v>
+      </c>
+      <c r="N299">
+        <v>3.6</v>
+      </c>
+      <c r="O299">
+        <v>3.2</v>
+      </c>
+      <c r="P299">
+        <v>-0.5</v>
+      </c>
+      <c r="Q299">
+        <v>1.95</v>
+      </c>
+      <c r="R299">
+        <v>1.85</v>
+      </c>
+      <c r="S299">
+        <v>3</v>
+      </c>
+      <c r="T299">
+        <v>1.825</v>
+      </c>
+      <c r="U299">
+        <v>1.975</v>
+      </c>
+      <c r="V299">
+ 